--- a/BangKeHoach-DoAnCuoiKyCTDL (1).xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL (1).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tutc/Documents/DST/HK1-19-20/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D3DB2F-F335-4B32-A3CE-878ED9374BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -123,11 +117,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,17 +230,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -259,9 +246,16 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -290,7 +284,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -350,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -402,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -596,41 +590,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="15" customWidth="1"/>
-    <col min="9" max="23" width="8.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="78.109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="14.6640625" style="15" customWidth="1"/>
+    <col min="9" max="23" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="33.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -647,15 +641,15 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="42.75" customHeight="1">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -672,7 +666,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" s="16" customFormat="1" ht="39" customHeight="1">
+    <row r="3" spans="1:23" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -713,7 +707,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="16" customFormat="1" ht="36" customHeight="1">
+    <row r="4" spans="1:23" s="16" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
@@ -735,24 +729,28 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:23" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="7">
         <v>43728</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>43734</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>43728</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43730</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -769,24 +767,28 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="16" customFormat="1" ht="26.25" customHeight="1">
+    <row r="6" spans="1:23" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7">
         <v>43735</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>43738</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>43728</v>
+      </c>
+      <c r="H6" s="7">
+        <v>43730</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -803,22 +805,26 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21">
         <v>43739</v>
       </c>
-      <c r="F7" s="23">
-        <v>43712</v>
+      <c r="F7" s="21">
+        <v>43742</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7">
+        <v>43731</v>
+      </c>
+      <c r="H7" s="7">
+        <v>43732</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -835,22 +841,26 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>43739</v>
       </c>
-      <c r="F8" s="23">
-        <v>43712</v>
+      <c r="F8" s="21">
+        <v>43742</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7">
+        <v>43731</v>
+      </c>
+      <c r="H8" s="7">
+        <v>43732</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -867,14 +877,14 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="23.25" customHeight="1">
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
@@ -893,24 +903,28 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="16" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>43743</v>
       </c>
-      <c r="F10" s="23">
-        <v>43717</v>
+      <c r="F10" s="21">
+        <v>43747</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7">
+        <v>43733</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43735</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -927,14 +941,14 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
@@ -953,14 +967,14 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" s="16" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:23" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -979,22 +993,26 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>43748</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>43752</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7">
+        <v>43736</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43738</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1011,22 +1029,26 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1">
+    <row r="14" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
         <v>43748</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>43752</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7">
+        <v>43736</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43738</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1043,7 +1065,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1092,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1106,9 @@
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>43770</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1102,7 +1126,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1140,9 @@
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>43770</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1134,7 +1160,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1194,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1228,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="1:23" s="16" customFormat="1" ht="35.25" customHeight="1">
+    <row r="20" spans="1:23" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1263,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="1:23" s="16" customFormat="1" ht="44.25" customHeight="1">
+    <row r="21" spans="1:23" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1261,8 +1287,8 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B22" s="18"/>
+    <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="7"/>
@@ -1285,8 +1311,8 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B23" s="19"/>
+    <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="7"/>
@@ -1309,7 +1335,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1333,7 +1359,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1">
+    <row r="25" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1357,7 +1383,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1377,7 +1403,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H27" s="14"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -1391,7 +1417,7 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1411,7 +1437,7 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1431,7 +1457,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1451,7 +1477,7 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1471,7 +1497,7 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1491,7 +1517,7 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" customHeight="1">
+    <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1511,7 +1537,7 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" customHeight="1">
+    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1531,7 +1557,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="2:19" ht="15.75" customHeight="1">
+    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1551,7 +1577,7 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" customHeight="1">
+    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1571,7 +1597,7 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="2:19" ht="15.75" customHeight="1">
+    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1591,7 +1617,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="2:19" ht="15.75" customHeight="1">
+    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1611,7 +1637,7 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75" customHeight="1">
+    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1631,7 +1657,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
     </row>
-    <row r="40" spans="2:19" ht="15.75" customHeight="1">
+    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1651,7 +1677,7 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75" customHeight="1">
+    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1671,7 +1697,7 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="2:19" ht="15.75" customHeight="1">
+    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1691,7 +1717,7 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="2:19" ht="15.75" customHeight="1">
+    <row r="43" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1711,7 +1737,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
-    <row r="44" spans="2:19" ht="15.75" customHeight="1">
+    <row r="44" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1731,7 +1757,7 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
-    <row r="45" spans="2:19" ht="15.75" customHeight="1">
+    <row r="45" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1751,7 +1777,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
-    <row r="46" spans="2:19" ht="15.75" customHeight="1">
+    <row r="46" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1771,7 +1797,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="2:19" ht="15.75" customHeight="1">
+    <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1791,7 +1817,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" customHeight="1">
+    <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -1811,7 +1837,7 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
-    <row r="49" spans="2:19" ht="15.75" customHeight="1">
+    <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -1831,7 +1857,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
     </row>
-    <row r="50" spans="2:19" ht="15.75" customHeight="1">
+    <row r="50" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -1851,7 +1877,7 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="2:19" ht="15.75" customHeight="1">
+    <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1871,7 +1897,7 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="2:19" ht="15.75" customHeight="1">
+    <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -1891,7 +1917,7 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="2:19" ht="15.75" customHeight="1">
+    <row r="53" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1911,7 +1937,7 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="2:19" ht="15.75" customHeight="1">
+    <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -1931,7 +1957,7 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="2:19" ht="15.75" customHeight="1">
+    <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -1951,7 +1977,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
     </row>
-    <row r="56" spans="2:19" ht="15.75" customHeight="1">
+    <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -1971,7 +1997,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
     </row>
-    <row r="57" spans="2:19" ht="15.75" customHeight="1">
+    <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -1991,7 +2017,7 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
     </row>
-    <row r="58" spans="2:19" ht="15.75" customHeight="1">
+    <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2011,7 +2037,7 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
     </row>
-    <row r="59" spans="2:19" ht="15.75" customHeight="1">
+    <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2031,7 +2057,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
     </row>
-    <row r="60" spans="2:19" ht="15.75" customHeight="1">
+    <row r="60" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2051,7 +2077,7 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="2:19" ht="15.75" customHeight="1">
+    <row r="61" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2071,7 +2097,7 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
     </row>
-    <row r="62" spans="2:19" ht="15.75" customHeight="1">
+    <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2091,7 +2117,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
     </row>
-    <row r="63" spans="2:19" ht="15.75" customHeight="1">
+    <row r="63" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2111,7 +2137,7 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
     </row>
-    <row r="64" spans="2:19" ht="15.75" customHeight="1">
+    <row r="64" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2131,7 +2157,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="2:19" ht="15.75" customHeight="1">
+    <row r="65" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2151,7 +2177,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="2:19" ht="15.75" customHeight="1">
+    <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2171,7 +2197,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="2:19" ht="15.75" customHeight="1">
+    <row r="67" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2191,7 +2217,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="2:19" ht="15.75" customHeight="1">
+    <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2211,7 +2237,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="2:19" ht="15.75" customHeight="1">
+    <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2231,7 +2257,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="2:19" ht="15.75" customHeight="1">
+    <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2251,7 +2277,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="2:19" ht="15.75" customHeight="1">
+    <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -2271,7 +2297,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="2:19" ht="15.75" customHeight="1">
+    <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -2291,7 +2317,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="2:19" ht="15.75" customHeight="1">
+    <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2311,7 +2337,7 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="2:19" ht="15.75" customHeight="1">
+    <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -2331,7 +2357,7 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
     </row>
-    <row r="75" spans="2:19" ht="15.75" customHeight="1">
+    <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -2351,7 +2377,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
     </row>
-    <row r="76" spans="2:19" ht="15.75" customHeight="1">
+    <row r="76" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -2371,7 +2397,7 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
     </row>
-    <row r="77" spans="2:19" ht="15.75" customHeight="1">
+    <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2391,7 +2417,7 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
     </row>
-    <row r="78" spans="2:19" ht="15.75" customHeight="1">
+    <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2411,7 +2437,7 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="2:19" ht="15.75" customHeight="1">
+    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2431,7 +2457,7 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
     </row>
-    <row r="80" spans="2:19" ht="15.75" customHeight="1">
+    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2451,7 +2477,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
     </row>
-    <row r="81" spans="2:19" ht="15.75" customHeight="1">
+    <row r="81" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2471,7 +2497,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
     </row>
-    <row r="82" spans="2:19" ht="15.75" customHeight="1">
+    <row r="82" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2491,7 +2517,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
     </row>
-    <row r="83" spans="2:19" ht="15.75" customHeight="1">
+    <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2511,7 +2537,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
     </row>
-    <row r="84" spans="2:19" ht="15.75" customHeight="1">
+    <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2531,7 +2557,7 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
     </row>
-    <row r="85" spans="2:19" ht="15.75" customHeight="1">
+    <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2551,7 +2577,7 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
     </row>
-    <row r="86" spans="2:19" ht="15.75" customHeight="1">
+    <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2571,7 +2597,7 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
     </row>
-    <row r="87" spans="2:19" ht="15.75" customHeight="1">
+    <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2591,7 +2617,7 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
     </row>
-    <row r="88" spans="2:19" ht="15.75" customHeight="1">
+    <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2611,7 +2637,7 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
     </row>
-    <row r="89" spans="2:19" ht="15.75" customHeight="1">
+    <row r="89" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2631,7 +2657,7 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
     </row>
-    <row r="90" spans="2:19" ht="15.75" customHeight="1">
+    <row r="90" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2651,7 +2677,7 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
     </row>
-    <row r="91" spans="2:19" ht="15.75" customHeight="1">
+    <row r="91" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2671,7 +2697,7 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
     </row>
-    <row r="92" spans="2:19" ht="15.75" customHeight="1">
+    <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2691,7 +2717,7 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="2:19" ht="15.75" customHeight="1">
+    <row r="93" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2711,7 +2737,7 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
     </row>
-    <row r="94" spans="2:19" ht="15.75" customHeight="1">
+    <row r="94" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2731,7 +2757,7 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="2:19" ht="15.75" customHeight="1">
+    <row r="95" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2751,7 +2777,7 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="2:19" ht="15.75" customHeight="1">
+    <row r="96" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2771,7 +2797,7 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" ht="15.75" customHeight="1">
+    <row r="97" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2791,7 +2817,7 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" ht="15.75" customHeight="1">
+    <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2811,7 +2837,7 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" ht="15.75" customHeight="1">
+    <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2831,7 +2857,7 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" ht="15.75" customHeight="1">
+    <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2851,7 +2877,7 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" ht="15.75" customHeight="1">
+    <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2871,7 +2897,7 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" ht="15.75" customHeight="1">
+    <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2891,7 +2917,7 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" ht="15.75" customHeight="1">
+    <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2911,7 +2937,7 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" ht="15.75" customHeight="1">
+    <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2931,7 +2957,7 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" ht="15.75" customHeight="1">
+    <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2951,7 +2977,7 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" ht="15.75" customHeight="1">
+    <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2971,7 +2997,7 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" ht="15.75" customHeight="1">
+    <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2991,7 +3017,7 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" ht="15.75" customHeight="1">
+    <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -3011,7 +3037,7 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" ht="15.75" customHeight="1">
+    <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -3031,7 +3057,7 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" ht="15.75" customHeight="1">
+    <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3051,7 +3077,7 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" ht="15.75" customHeight="1">
+    <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -3071,7 +3097,7 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" ht="15.75" customHeight="1">
+    <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3091,7 +3117,7 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="2:19" ht="15.75" customHeight="1">
+    <row r="113" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -3111,7 +3137,7 @@
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="2:19" ht="15.75" customHeight="1">
+    <row r="114" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -3131,7 +3157,7 @@
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="2:19" ht="15.75" customHeight="1">
+    <row r="115" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -3151,7 +3177,7 @@
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="2:19" ht="15.75" customHeight="1">
+    <row r="116" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -3171,7 +3197,7 @@
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="2:19" ht="15.75" customHeight="1">
+    <row r="117" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -3191,7 +3217,7 @@
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="2:19" ht="15.75" customHeight="1">
+    <row r="118" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -3211,7 +3237,7 @@
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="2:19" ht="15.75" customHeight="1">
+    <row r="119" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -3231,7 +3257,7 @@
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="2:19" ht="15.75" customHeight="1">
+    <row r="120" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -3251,7 +3277,7 @@
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="2:19" ht="15.75" customHeight="1">
+    <row r="121" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -3271,7 +3297,7 @@
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="2:19" ht="15.75" customHeight="1">
+    <row r="122" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -3291,7 +3317,7 @@
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="2:19" ht="15.75" customHeight="1">
+    <row r="123" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -3311,7 +3337,7 @@
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="2:19" ht="15.75" customHeight="1">
+    <row r="124" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3331,7 +3357,7 @@
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="2:19" ht="15.75" customHeight="1">
+    <row r="125" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -3351,7 +3377,7 @@
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="2:19" ht="15.75" customHeight="1">
+    <row r="126" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -3371,7 +3397,7 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="2:19" ht="15.75" customHeight="1">
+    <row r="127" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -3391,7 +3417,7 @@
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="2:19" ht="15.75" customHeight="1">
+    <row r="128" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -3411,7 +3437,7 @@
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="2:19" ht="15.75" customHeight="1">
+    <row r="129" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -3431,7 +3457,7 @@
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="2:19" ht="15.75" customHeight="1">
+    <row r="130" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -3451,7 +3477,7 @@
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="2:19" ht="15.75" customHeight="1">
+    <row r="131" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -3471,7 +3497,7 @@
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="2:19" ht="15.75" customHeight="1">
+    <row r="132" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -3491,7 +3517,7 @@
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="2:19" ht="15.75" customHeight="1">
+    <row r="133" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -3511,7 +3537,7 @@
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="2:19" ht="15.75" customHeight="1">
+    <row r="134" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -3531,7 +3557,7 @@
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="2:19" ht="15.75" customHeight="1">
+    <row r="135" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -3551,7 +3577,7 @@
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="2:19" ht="15.75" customHeight="1">
+    <row r="136" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3571,7 +3597,7 @@
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="2:19" ht="15.75" customHeight="1">
+    <row r="137" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -3591,7 +3617,7 @@
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="2:19" ht="15.75" customHeight="1">
+    <row r="138" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3611,7 +3637,7 @@
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="2:19" ht="15.75" customHeight="1">
+    <row r="139" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -3631,7 +3657,7 @@
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="2:19" ht="15.75" customHeight="1">
+    <row r="140" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -3651,7 +3677,7 @@
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="2:19" ht="15.75" customHeight="1">
+    <row r="141" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -3671,7 +3697,7 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="2:19" ht="15.75" customHeight="1">
+    <row r="142" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -3691,7 +3717,7 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="2:19" ht="15.75" customHeight="1">
+    <row r="143" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -3711,7 +3737,7 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="2:19" ht="15.75" customHeight="1">
+    <row r="144" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -3731,7 +3757,7 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="2:19" ht="15.75" customHeight="1">
+    <row r="145" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -3751,7 +3777,7 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="2:19" ht="15.75" customHeight="1">
+    <row r="146" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -3771,7 +3797,7 @@
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="2:19" ht="15.75" customHeight="1">
+    <row r="147" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -3791,7 +3817,7 @@
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="2:19" ht="15.75" customHeight="1">
+    <row r="148" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -3811,7 +3837,7 @@
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="2:19" ht="15.75" customHeight="1">
+    <row r="149" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -3831,7 +3857,7 @@
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="2:19" ht="15.75" customHeight="1">
+    <row r="150" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -3851,7 +3877,7 @@
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="2:19" ht="15.75" customHeight="1">
+    <row r="151" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -3871,7 +3897,7 @@
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="2:19" ht="15.75" customHeight="1">
+    <row r="152" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -3891,7 +3917,7 @@
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="2:19" ht="15.75" customHeight="1">
+    <row r="153" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -3911,7 +3937,7 @@
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="2:19" ht="15.75" customHeight="1">
+    <row r="154" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -3931,7 +3957,7 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="2:19" ht="15.75" customHeight="1">
+    <row r="155" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -3951,7 +3977,7 @@
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="2:19" ht="15.75" customHeight="1">
+    <row r="156" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -3971,7 +3997,7 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="2:19" ht="15.75" customHeight="1">
+    <row r="157" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -3991,7 +4017,7 @@
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="2:19" ht="15.75" customHeight="1">
+    <row r="158" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4011,7 +4037,7 @@
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="2:19" ht="15.75" customHeight="1">
+    <row r="159" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4031,7 +4057,7 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="2:19" ht="15.75" customHeight="1">
+    <row r="160" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4051,7 +4077,7 @@
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="2:19" ht="15.75" customHeight="1">
+    <row r="161" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4071,7 +4097,7 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="2:19" ht="15.75" customHeight="1">
+    <row r="162" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4091,7 +4117,7 @@
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="2:19" ht="15.75" customHeight="1">
+    <row r="163" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4111,7 +4137,7 @@
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="2:19" ht="15.75" customHeight="1">
+    <row r="164" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4131,7 +4157,7 @@
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="2:19" ht="15.75" customHeight="1">
+    <row r="165" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4151,7 +4177,7 @@
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="2:19" ht="15.75" customHeight="1">
+    <row r="166" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4171,7 +4197,7 @@
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="2:19" ht="15.75" customHeight="1">
+    <row r="167" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4191,7 +4217,7 @@
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="2:19" ht="15.75" customHeight="1">
+    <row r="168" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4211,7 +4237,7 @@
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="2:19" ht="15.75" customHeight="1">
+    <row r="169" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4231,7 +4257,7 @@
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="2:19" ht="15.75" customHeight="1">
+    <row r="170" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4251,7 +4277,7 @@
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="2:19" ht="15.75" customHeight="1">
+    <row r="171" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4271,7 +4297,7 @@
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="2:19" ht="15.75" customHeight="1">
+    <row r="172" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4291,7 +4317,7 @@
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="2:19" ht="15.75" customHeight="1">
+    <row r="173" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4311,7 +4337,7 @@
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="2:19" ht="15.75" customHeight="1">
+    <row r="174" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -4331,7 +4357,7 @@
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="2:19" ht="15.75" customHeight="1">
+    <row r="175" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4351,7 +4377,7 @@
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="2:19" ht="15.75" customHeight="1">
+    <row r="176" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4371,7 +4397,7 @@
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="2:19" ht="15.75" customHeight="1">
+    <row r="177" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -4391,7 +4417,7 @@
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="2:19" ht="15.75" customHeight="1">
+    <row r="178" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -4411,7 +4437,7 @@
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="2:19" ht="15.75" customHeight="1">
+    <row r="179" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4431,7 +4457,7 @@
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="2:19" ht="15.75" customHeight="1">
+    <row r="180" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -4451,7 +4477,7 @@
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="2:19" ht="15.75" customHeight="1">
+    <row r="181" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -4471,7 +4497,7 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="2:19" ht="15.75" customHeight="1">
+    <row r="182" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4491,7 +4517,7 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="2:19" ht="15.75" customHeight="1">
+    <row r="183" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -4511,7 +4537,7 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="2:19" ht="15.75" customHeight="1">
+    <row r="184" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4531,7 +4557,7 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="2:19" ht="15.75" customHeight="1">
+    <row r="185" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -4551,7 +4577,7 @@
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="2:19" ht="15.75" customHeight="1">
+    <row r="186" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -4571,7 +4597,7 @@
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="2:19" ht="15.75" customHeight="1">
+    <row r="187" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -4591,7 +4617,7 @@
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="2:19" ht="15.75" customHeight="1">
+    <row r="188" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -4611,7 +4637,7 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="2:19" ht="15.75" customHeight="1">
+    <row r="189" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -4631,7 +4657,7 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="2:19" ht="15.75" customHeight="1">
+    <row r="190" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -4651,7 +4677,7 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="2:19" ht="15.75" customHeight="1">
+    <row r="191" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -4671,7 +4697,7 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="2:19" ht="15.75" customHeight="1">
+    <row r="192" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -4691,7 +4717,7 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" ht="15.75" customHeight="1">
+    <row r="193" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -4711,7 +4737,7 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" ht="15.75" customHeight="1">
+    <row r="194" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -4731,7 +4757,7 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" ht="15.75" customHeight="1">
+    <row r="195" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -4751,7 +4777,7 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" ht="15.75" customHeight="1">
+    <row r="196" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -4771,7 +4797,7 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" ht="15.75" customHeight="1">
+    <row r="197" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -4791,7 +4817,7 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" ht="15.75" customHeight="1">
+    <row r="198" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -4811,7 +4837,7 @@
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" ht="15.75" customHeight="1">
+    <row r="199" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -4831,7 +4857,7 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" ht="15.75" customHeight="1">
+    <row r="200" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -4851,7 +4877,7 @@
       <c r="R200" s="13"/>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" ht="15.75" customHeight="1">
+    <row r="201" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -4871,7 +4897,7 @@
       <c r="R201" s="13"/>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" ht="15.75" customHeight="1">
+    <row r="202" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -4891,7 +4917,7 @@
       <c r="R202" s="13"/>
       <c r="S202" s="13"/>
     </row>
-    <row r="203" spans="2:19" ht="15.75" customHeight="1">
+    <row r="203" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -4911,7 +4937,7 @@
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
     </row>
-    <row r="204" spans="2:19" ht="15.75" customHeight="1">
+    <row r="204" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -4931,7 +4957,7 @@
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
     </row>
-    <row r="205" spans="2:19" ht="15.75" customHeight="1">
+    <row r="205" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -4951,7 +4977,7 @@
       <c r="R205" s="13"/>
       <c r="S205" s="13"/>
     </row>
-    <row r="206" spans="2:19" ht="15.75" customHeight="1">
+    <row r="206" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -4971,7 +4997,7 @@
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
     </row>
-    <row r="207" spans="2:19" ht="15.75" customHeight="1">
+    <row r="207" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -4991,7 +5017,7 @@
       <c r="R207" s="13"/>
       <c r="S207" s="13"/>
     </row>
-    <row r="208" spans="2:19" ht="15.75" customHeight="1">
+    <row r="208" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -5011,7 +5037,7 @@
       <c r="R208" s="13"/>
       <c r="S208" s="13"/>
     </row>
-    <row r="209" spans="2:19" ht="15.75" customHeight="1">
+    <row r="209" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -5031,7 +5057,7 @@
       <c r="R209" s="13"/>
       <c r="S209" s="13"/>
     </row>
-    <row r="210" spans="2:19" ht="15.75" customHeight="1">
+    <row r="210" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -5051,7 +5077,7 @@
       <c r="R210" s="13"/>
       <c r="S210" s="13"/>
     </row>
-    <row r="211" spans="2:19" ht="15.75" customHeight="1">
+    <row r="211" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -5071,7 +5097,7 @@
       <c r="R211" s="13"/>
       <c r="S211" s="13"/>
     </row>
-    <row r="212" spans="2:19" ht="15.75" customHeight="1">
+    <row r="212" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -5091,7 +5117,7 @@
       <c r="R212" s="13"/>
       <c r="S212" s="13"/>
     </row>
-    <row r="213" spans="2:19" ht="15.75" customHeight="1">
+    <row r="213" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -5111,7 +5137,7 @@
       <c r="R213" s="13"/>
       <c r="S213" s="13"/>
     </row>
-    <row r="214" spans="2:19" ht="15.75" customHeight="1">
+    <row r="214" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -5131,7 +5157,7 @@
       <c r="R214" s="13"/>
       <c r="S214" s="13"/>
     </row>
-    <row r="215" spans="2:19" ht="15.75" customHeight="1">
+    <row r="215" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -5151,7 +5177,7 @@
       <c r="R215" s="13"/>
       <c r="S215" s="13"/>
     </row>
-    <row r="216" spans="2:19" ht="15.75" customHeight="1">
+    <row r="216" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -5171,7 +5197,7 @@
       <c r="R216" s="13"/>
       <c r="S216" s="13"/>
     </row>
-    <row r="217" spans="2:19" ht="15.75" customHeight="1">
+    <row r="217" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -5191,7 +5217,7 @@
       <c r="R217" s="13"/>
       <c r="S217" s="13"/>
     </row>
-    <row r="218" spans="2:19" ht="15.75" customHeight="1">
+    <row r="218" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -5211,7 +5237,7 @@
       <c r="R218" s="13"/>
       <c r="S218" s="13"/>
     </row>
-    <row r="219" spans="2:19" ht="15.75" customHeight="1">
+    <row r="219" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -5231,7 +5257,7 @@
       <c r="R219" s="13"/>
       <c r="S219" s="13"/>
     </row>
-    <row r="220" spans="2:19" ht="15.75" customHeight="1">
+    <row r="220" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -5251,7 +5277,7 @@
       <c r="R220" s="13"/>
       <c r="S220" s="13"/>
     </row>
-    <row r="221" spans="2:19" ht="15.75" customHeight="1">
+    <row r="221" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -5271,7 +5297,7 @@
       <c r="R221" s="13"/>
       <c r="S221" s="13"/>
     </row>
-    <row r="222" spans="2:19" ht="15.75" customHeight="1">
+    <row r="222" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -5291,7 +5317,7 @@
       <c r="R222" s="13"/>
       <c r="S222" s="13"/>
     </row>
-    <row r="223" spans="2:19" ht="15.75" customHeight="1">
+    <row r="223" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -5311,7 +5337,7 @@
       <c r="R223" s="13"/>
       <c r="S223" s="13"/>
     </row>
-    <row r="224" spans="2:19" ht="15.75" customHeight="1">
+    <row r="224" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -5331,7 +5357,7 @@
       <c r="R224" s="13"/>
       <c r="S224" s="13"/>
     </row>
-    <row r="225" spans="2:19" ht="15.75" customHeight="1">
+    <row r="225" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -5351,7 +5377,7 @@
       <c r="R225" s="13"/>
       <c r="S225" s="13"/>
     </row>
-    <row r="226" spans="2:19" ht="15.75" customHeight="1">
+    <row r="226" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -5371,7 +5397,7 @@
       <c r="R226" s="13"/>
       <c r="S226" s="13"/>
     </row>
-    <row r="227" spans="2:19" ht="15.75" customHeight="1">
+    <row r="227" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -5391,7 +5417,7 @@
       <c r="R227" s="13"/>
       <c r="S227" s="13"/>
     </row>
-    <row r="228" spans="2:19" ht="15.75" customHeight="1">
+    <row r="228" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -5411,7 +5437,7 @@
       <c r="R228" s="13"/>
       <c r="S228" s="13"/>
     </row>
-    <row r="229" spans="2:19" ht="15.75" customHeight="1">
+    <row r="229" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -5431,7 +5457,7 @@
       <c r="R229" s="13"/>
       <c r="S229" s="13"/>
     </row>
-    <row r="230" spans="2:19" ht="15.75" customHeight="1">
+    <row r="230" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -5451,7 +5477,7 @@
       <c r="R230" s="13"/>
       <c r="S230" s="13"/>
     </row>
-    <row r="231" spans="2:19" ht="15.75" customHeight="1">
+    <row r="231" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -5471,7 +5497,7 @@
       <c r="R231" s="13"/>
       <c r="S231" s="13"/>
     </row>
-    <row r="232" spans="2:19" ht="15.75" customHeight="1">
+    <row r="232" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -5491,7 +5517,7 @@
       <c r="R232" s="13"/>
       <c r="S232" s="13"/>
     </row>
-    <row r="233" spans="2:19" ht="15.75" customHeight="1">
+    <row r="233" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -5511,7 +5537,7 @@
       <c r="R233" s="13"/>
       <c r="S233" s="13"/>
     </row>
-    <row r="234" spans="2:19" ht="15.75" customHeight="1">
+    <row r="234" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -5531,7 +5557,7 @@
       <c r="R234" s="13"/>
       <c r="S234" s="13"/>
     </row>
-    <row r="235" spans="2:19" ht="15.75" customHeight="1">
+    <row r="235" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -5551,7 +5577,7 @@
       <c r="R235" s="13"/>
       <c r="S235" s="13"/>
     </row>
-    <row r="236" spans="2:19" ht="15.75" customHeight="1">
+    <row r="236" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -5571,7 +5597,7 @@
       <c r="R236" s="13"/>
       <c r="S236" s="13"/>
     </row>
-    <row r="237" spans="2:19" ht="15.75" customHeight="1">
+    <row r="237" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -5591,7 +5617,7 @@
       <c r="R237" s="13"/>
       <c r="S237" s="13"/>
     </row>
-    <row r="238" spans="2:19" ht="15.75" customHeight="1">
+    <row r="238" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -5611,7 +5637,7 @@
       <c r="R238" s="13"/>
       <c r="S238" s="13"/>
     </row>
-    <row r="239" spans="2:19" ht="15.75" customHeight="1">
+    <row r="239" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -5631,7 +5657,7 @@
       <c r="R239" s="13"/>
       <c r="S239" s="13"/>
     </row>
-    <row r="240" spans="2:19" ht="15.75" customHeight="1">
+    <row r="240" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -5651,7 +5677,7 @@
       <c r="R240" s="13"/>
       <c r="S240" s="13"/>
     </row>
-    <row r="241" spans="2:19" ht="15.75" customHeight="1">
+    <row r="241" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -5671,7 +5697,7 @@
       <c r="R241" s="13"/>
       <c r="S241" s="13"/>
     </row>
-    <row r="242" spans="2:19" ht="15.75" customHeight="1">
+    <row r="242" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -5691,7 +5717,7 @@
       <c r="R242" s="13"/>
       <c r="S242" s="13"/>
     </row>
-    <row r="243" spans="2:19" ht="15.75" customHeight="1">
+    <row r="243" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -5711,7 +5737,7 @@
       <c r="R243" s="13"/>
       <c r="S243" s="13"/>
     </row>
-    <row r="244" spans="2:19" ht="15.75" customHeight="1">
+    <row r="244" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -5731,7 +5757,7 @@
       <c r="R244" s="13"/>
       <c r="S244" s="13"/>
     </row>
-    <row r="245" spans="2:19" ht="15.75" customHeight="1">
+    <row r="245" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -5751,7 +5777,7 @@
       <c r="R245" s="13"/>
       <c r="S245" s="13"/>
     </row>
-    <row r="246" spans="2:19" ht="15.75" customHeight="1">
+    <row r="246" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -5771,7 +5797,7 @@
       <c r="R246" s="13"/>
       <c r="S246" s="13"/>
     </row>
-    <row r="247" spans="2:19" ht="15.75" customHeight="1">
+    <row r="247" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -5791,7 +5817,7 @@
       <c r="R247" s="13"/>
       <c r="S247" s="13"/>
     </row>
-    <row r="248" spans="2:19" ht="15.75" customHeight="1">
+    <row r="248" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -5811,7 +5837,7 @@
       <c r="R248" s="13"/>
       <c r="S248" s="13"/>
     </row>
-    <row r="249" spans="2:19" ht="15.75" customHeight="1">
+    <row r="249" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -5831,7 +5857,7 @@
       <c r="R249" s="13"/>
       <c r="S249" s="13"/>
     </row>
-    <row r="250" spans="2:19" ht="15.75" customHeight="1">
+    <row r="250" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -5851,7 +5877,7 @@
       <c r="R250" s="13"/>
       <c r="S250" s="13"/>
     </row>
-    <row r="251" spans="2:19" ht="15.75" customHeight="1">
+    <row r="251" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -5871,7 +5897,7 @@
       <c r="R251" s="13"/>
       <c r="S251" s="13"/>
     </row>
-    <row r="252" spans="2:19" ht="15.75" customHeight="1">
+    <row r="252" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -5891,7 +5917,7 @@
       <c r="R252" s="13"/>
       <c r="S252" s="13"/>
     </row>
-    <row r="253" spans="2:19" ht="15.75" customHeight="1">
+    <row r="253" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -5911,7 +5937,7 @@
       <c r="R253" s="13"/>
       <c r="S253" s="13"/>
     </row>
-    <row r="254" spans="2:19" ht="15.75" customHeight="1">
+    <row r="254" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -5931,7 +5957,7 @@
       <c r="R254" s="13"/>
       <c r="S254" s="13"/>
     </row>
-    <row r="255" spans="2:19" ht="15.75" customHeight="1">
+    <row r="255" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -5951,7 +5977,7 @@
       <c r="R255" s="13"/>
       <c r="S255" s="13"/>
     </row>
-    <row r="256" spans="2:19" ht="15.75" customHeight="1">
+    <row r="256" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -5971,7 +5997,7 @@
       <c r="R256" s="13"/>
       <c r="S256" s="13"/>
     </row>
-    <row r="257" spans="2:19" ht="15.75" customHeight="1">
+    <row r="257" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -5991,7 +6017,7 @@
       <c r="R257" s="13"/>
       <c r="S257" s="13"/>
     </row>
-    <row r="258" spans="2:19" ht="15.75" customHeight="1">
+    <row r="258" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -6011,7 +6037,7 @@
       <c r="R258" s="13"/>
       <c r="S258" s="13"/>
     </row>
-    <row r="259" spans="2:19" ht="15.75" customHeight="1">
+    <row r="259" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -6031,7 +6057,7 @@
       <c r="R259" s="13"/>
       <c r="S259" s="13"/>
     </row>
-    <row r="260" spans="2:19" ht="15.75" customHeight="1">
+    <row r="260" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -6051,7 +6077,7 @@
       <c r="R260" s="13"/>
       <c r="S260" s="13"/>
     </row>
-    <row r="261" spans="2:19" ht="15.75" customHeight="1">
+    <row r="261" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -6071,7 +6097,7 @@
       <c r="R261" s="13"/>
       <c r="S261" s="13"/>
     </row>
-    <row r="262" spans="2:19" ht="15.75" customHeight="1">
+    <row r="262" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -6091,7 +6117,7 @@
       <c r="R262" s="13"/>
       <c r="S262" s="13"/>
     </row>
-    <row r="263" spans="2:19" ht="15.75" customHeight="1">
+    <row r="263" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -6111,7 +6137,7 @@
       <c r="R263" s="13"/>
       <c r="S263" s="13"/>
     </row>
-    <row r="264" spans="2:19" ht="15.75" customHeight="1">
+    <row r="264" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -6131,7 +6157,7 @@
       <c r="R264" s="13"/>
       <c r="S264" s="13"/>
     </row>
-    <row r="265" spans="2:19" ht="15.75" customHeight="1">
+    <row r="265" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -6151,7 +6177,7 @@
       <c r="R265" s="13"/>
       <c r="S265" s="13"/>
     </row>
-    <row r="266" spans="2:19" ht="15.75" customHeight="1">
+    <row r="266" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -6171,7 +6197,7 @@
       <c r="R266" s="13"/>
       <c r="S266" s="13"/>
     </row>
-    <row r="267" spans="2:19" ht="15.75" customHeight="1">
+    <row r="267" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -6191,7 +6217,7 @@
       <c r="R267" s="13"/>
       <c r="S267" s="13"/>
     </row>
-    <row r="268" spans="2:19" ht="15.75" customHeight="1">
+    <row r="268" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -6211,7 +6237,7 @@
       <c r="R268" s="13"/>
       <c r="S268" s="13"/>
     </row>
-    <row r="269" spans="2:19" ht="15.75" customHeight="1">
+    <row r="269" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -6231,7 +6257,7 @@
       <c r="R269" s="13"/>
       <c r="S269" s="13"/>
     </row>
-    <row r="270" spans="2:19" ht="15.75" customHeight="1">
+    <row r="270" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
@@ -6251,7 +6277,7 @@
       <c r="R270" s="13"/>
       <c r="S270" s="13"/>
     </row>
-    <row r="271" spans="2:19" ht="15.75" customHeight="1">
+    <row r="271" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
@@ -6271,7 +6297,7 @@
       <c r="R271" s="13"/>
       <c r="S271" s="13"/>
     </row>
-    <row r="272" spans="2:19" ht="15.75" customHeight="1">
+    <row r="272" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
@@ -6291,7 +6317,7 @@
       <c r="R272" s="13"/>
       <c r="S272" s="13"/>
     </row>
-    <row r="273" spans="2:19" ht="15.75" customHeight="1">
+    <row r="273" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
@@ -6311,7 +6337,7 @@
       <c r="R273" s="13"/>
       <c r="S273" s="13"/>
     </row>
-    <row r="274" spans="2:19" ht="15.75" customHeight="1">
+    <row r="274" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
@@ -6331,7 +6357,7 @@
       <c r="R274" s="13"/>
       <c r="S274" s="13"/>
     </row>
-    <row r="275" spans="2:19" ht="15.75" customHeight="1">
+    <row r="275" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
@@ -6351,7 +6377,7 @@
       <c r="R275" s="13"/>
       <c r="S275" s="13"/>
     </row>
-    <row r="276" spans="2:19" ht="15.75" customHeight="1">
+    <row r="276" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
@@ -6371,7 +6397,7 @@
       <c r="R276" s="13"/>
       <c r="S276" s="13"/>
     </row>
-    <row r="277" spans="2:19" ht="15.75" customHeight="1">
+    <row r="277" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -6391,7 +6417,7 @@
       <c r="R277" s="13"/>
       <c r="S277" s="13"/>
     </row>
-    <row r="278" spans="2:19" ht="15.75" customHeight="1">
+    <row r="278" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -6411,7 +6437,7 @@
       <c r="R278" s="13"/>
       <c r="S278" s="13"/>
     </row>
-    <row r="279" spans="2:19" ht="15.75" customHeight="1">
+    <row r="279" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -6431,7 +6457,7 @@
       <c r="R279" s="13"/>
       <c r="S279" s="13"/>
     </row>
-    <row r="280" spans="2:19" ht="15.75" customHeight="1">
+    <row r="280" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -6451,7 +6477,7 @@
       <c r="R280" s="13"/>
       <c r="S280" s="13"/>
     </row>
-    <row r="281" spans="2:19" ht="15.75" customHeight="1">
+    <row r="281" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
@@ -6471,7 +6497,7 @@
       <c r="R281" s="13"/>
       <c r="S281" s="13"/>
     </row>
-    <row r="282" spans="2:19" ht="15.75" customHeight="1">
+    <row r="282" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
@@ -6491,7 +6517,7 @@
       <c r="R282" s="13"/>
       <c r="S282" s="13"/>
     </row>
-    <row r="283" spans="2:19" ht="15.75" customHeight="1">
+    <row r="283" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -6511,7 +6537,7 @@
       <c r="R283" s="13"/>
       <c r="S283" s="13"/>
     </row>
-    <row r="284" spans="2:19" ht="15.75" customHeight="1">
+    <row r="284" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -6531,7 +6557,7 @@
       <c r="R284" s="13"/>
       <c r="S284" s="13"/>
     </row>
-    <row r="285" spans="2:19" ht="15.75" customHeight="1">
+    <row r="285" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -6551,7 +6577,7 @@
       <c r="R285" s="13"/>
       <c r="S285" s="13"/>
     </row>
-    <row r="286" spans="2:19" ht="15.75" customHeight="1">
+    <row r="286" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -6571,7 +6597,7 @@
       <c r="R286" s="13"/>
       <c r="S286" s="13"/>
     </row>
-    <row r="287" spans="2:19" ht="15.75" customHeight="1">
+    <row r="287" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
@@ -6591,7 +6617,7 @@
       <c r="R287" s="13"/>
       <c r="S287" s="13"/>
     </row>
-    <row r="288" spans="2:19" ht="15.75" customHeight="1">
+    <row r="288" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="1"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -6611,7 +6637,7 @@
       <c r="R288" s="13"/>
       <c r="S288" s="13"/>
     </row>
-    <row r="289" spans="2:19" ht="15.75" customHeight="1">
+    <row r="289" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="1"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
@@ -6631,7 +6657,7 @@
       <c r="R289" s="13"/>
       <c r="S289" s="13"/>
     </row>
-    <row r="290" spans="2:19" ht="15.75" customHeight="1">
+    <row r="290" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
@@ -6651,7 +6677,7 @@
       <c r="R290" s="13"/>
       <c r="S290" s="13"/>
     </row>
-    <row r="291" spans="2:19" ht="15.75" customHeight="1">
+    <row r="291" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
@@ -6671,7 +6697,7 @@
       <c r="R291" s="13"/>
       <c r="S291" s="13"/>
     </row>
-    <row r="292" spans="2:19" ht="15.75" customHeight="1">
+    <row r="292" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -6691,7 +6717,7 @@
       <c r="R292" s="13"/>
       <c r="S292" s="13"/>
     </row>
-    <row r="293" spans="2:19" ht="15.75" customHeight="1">
+    <row r="293" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -6711,7 +6737,7 @@
       <c r="R293" s="13"/>
       <c r="S293" s="13"/>
     </row>
-    <row r="294" spans="2:19" ht="15.75" customHeight="1">
+    <row r="294" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -6731,7 +6757,7 @@
       <c r="R294" s="13"/>
       <c r="S294" s="13"/>
     </row>
-    <row r="295" spans="2:19" ht="15.75" customHeight="1">
+    <row r="295" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -6751,7 +6777,7 @@
       <c r="R295" s="13"/>
       <c r="S295" s="13"/>
     </row>
-    <row r="296" spans="2:19" ht="15.75" customHeight="1">
+    <row r="296" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -6771,7 +6797,7 @@
       <c r="R296" s="13"/>
       <c r="S296" s="13"/>
     </row>
-    <row r="297" spans="2:19" ht="15.75" customHeight="1">
+    <row r="297" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
@@ -6791,7 +6817,7 @@
       <c r="R297" s="13"/>
       <c r="S297" s="13"/>
     </row>
-    <row r="298" spans="2:19" ht="15.75" customHeight="1">
+    <row r="298" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -6811,7 +6837,7 @@
       <c r="R298" s="13"/>
       <c r="S298" s="13"/>
     </row>
-    <row r="299" spans="2:19" ht="15.75" customHeight="1">
+    <row r="299" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
@@ -6831,7 +6857,7 @@
       <c r="R299" s="13"/>
       <c r="S299" s="13"/>
     </row>
-    <row r="300" spans="2:19" ht="15.75" customHeight="1">
+    <row r="300" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
@@ -6851,7 +6877,7 @@
       <c r="R300" s="13"/>
       <c r="S300" s="13"/>
     </row>
-    <row r="301" spans="2:19" ht="15.75" customHeight="1">
+    <row r="301" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -6871,7 +6897,7 @@
       <c r="R301" s="13"/>
       <c r="S301" s="13"/>
     </row>
-    <row r="302" spans="2:19" ht="15.75" customHeight="1">
+    <row r="302" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
@@ -6891,7 +6917,7 @@
       <c r="R302" s="13"/>
       <c r="S302" s="13"/>
     </row>
-    <row r="303" spans="2:19" ht="15.75" customHeight="1">
+    <row r="303" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -6911,7 +6937,7 @@
       <c r="R303" s="13"/>
       <c r="S303" s="13"/>
     </row>
-    <row r="304" spans="2:19" ht="15.75" customHeight="1">
+    <row r="304" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
@@ -6931,7 +6957,7 @@
       <c r="R304" s="13"/>
       <c r="S304" s="13"/>
     </row>
-    <row r="305" spans="2:19" ht="15.75" customHeight="1">
+    <row r="305" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
@@ -6951,7 +6977,7 @@
       <c r="R305" s="13"/>
       <c r="S305" s="13"/>
     </row>
-    <row r="306" spans="2:19" ht="15.75" customHeight="1">
+    <row r="306" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
@@ -6971,7 +6997,7 @@
       <c r="R306" s="13"/>
       <c r="S306" s="13"/>
     </row>
-    <row r="307" spans="2:19" ht="15.75" customHeight="1">
+    <row r="307" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -6991,7 +7017,7 @@
       <c r="R307" s="13"/>
       <c r="S307" s="13"/>
     </row>
-    <row r="308" spans="2:19" ht="15.75" customHeight="1">
+    <row r="308" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
@@ -7011,7 +7037,7 @@
       <c r="R308" s="13"/>
       <c r="S308" s="13"/>
     </row>
-    <row r="309" spans="2:19" ht="15.75" customHeight="1">
+    <row r="309" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -7031,7 +7057,7 @@
       <c r="R309" s="13"/>
       <c r="S309" s="13"/>
     </row>
-    <row r="310" spans="2:19" ht="15.75" customHeight="1">
+    <row r="310" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -7051,7 +7077,7 @@
       <c r="R310" s="13"/>
       <c r="S310" s="13"/>
     </row>
-    <row r="311" spans="2:19" ht="15.75" customHeight="1">
+    <row r="311" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
@@ -7071,7 +7097,7 @@
       <c r="R311" s="13"/>
       <c r="S311" s="13"/>
     </row>
-    <row r="312" spans="2:19" ht="15.75" customHeight="1">
+    <row r="312" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -7091,7 +7117,7 @@
       <c r="R312" s="13"/>
       <c r="S312" s="13"/>
     </row>
-    <row r="313" spans="2:19" ht="15.75" customHeight="1">
+    <row r="313" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
@@ -7111,7 +7137,7 @@
       <c r="R313" s="13"/>
       <c r="S313" s="13"/>
     </row>
-    <row r="314" spans="2:19" ht="15.75" customHeight="1">
+    <row r="314" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -7131,7 +7157,7 @@
       <c r="R314" s="13"/>
       <c r="S314" s="13"/>
     </row>
-    <row r="315" spans="2:19" ht="15.75" customHeight="1">
+    <row r="315" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -7151,7 +7177,7 @@
       <c r="R315" s="13"/>
       <c r="S315" s="13"/>
     </row>
-    <row r="316" spans="2:19" ht="15.75" customHeight="1">
+    <row r="316" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -7171,7 +7197,7 @@
       <c r="R316" s="13"/>
       <c r="S316" s="13"/>
     </row>
-    <row r="317" spans="2:19" ht="15.75" customHeight="1">
+    <row r="317" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -7191,7 +7217,7 @@
       <c r="R317" s="13"/>
       <c r="S317" s="13"/>
     </row>
-    <row r="318" spans="2:19" ht="15.75" customHeight="1">
+    <row r="318" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -7211,7 +7237,7 @@
       <c r="R318" s="13"/>
       <c r="S318" s="13"/>
     </row>
-    <row r="319" spans="2:19" ht="15.75" customHeight="1">
+    <row r="319" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -7231,7 +7257,7 @@
       <c r="R319" s="13"/>
       <c r="S319" s="13"/>
     </row>
-    <row r="320" spans="2:19" ht="15.75" customHeight="1">
+    <row r="320" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -7251,7 +7277,7 @@
       <c r="R320" s="13"/>
       <c r="S320" s="13"/>
     </row>
-    <row r="321" spans="2:19" ht="15.75" customHeight="1">
+    <row r="321" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -7271,7 +7297,7 @@
       <c r="R321" s="13"/>
       <c r="S321" s="13"/>
     </row>
-    <row r="322" spans="2:19" ht="15.75" customHeight="1">
+    <row r="322" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -7291,7 +7317,7 @@
       <c r="R322" s="13"/>
       <c r="S322" s="13"/>
     </row>
-    <row r="323" spans="2:19" ht="15.75" customHeight="1">
+    <row r="323" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -7311,7 +7337,7 @@
       <c r="R323" s="13"/>
       <c r="S323" s="13"/>
     </row>
-    <row r="324" spans="2:19" ht="15.75" customHeight="1">
+    <row r="324" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -7331,7 +7357,7 @@
       <c r="R324" s="13"/>
       <c r="S324" s="13"/>
     </row>
-    <row r="325" spans="2:19" ht="15.75" customHeight="1">
+    <row r="325" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -7351,7 +7377,7 @@
       <c r="R325" s="13"/>
       <c r="S325" s="13"/>
     </row>
-    <row r="326" spans="2:19" ht="15.75" customHeight="1">
+    <row r="326" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -7371,7 +7397,7 @@
       <c r="R326" s="13"/>
       <c r="S326" s="13"/>
     </row>
-    <row r="327" spans="2:19" ht="15.75" customHeight="1">
+    <row r="327" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -7391,7 +7417,7 @@
       <c r="R327" s="13"/>
       <c r="S327" s="13"/>
     </row>
-    <row r="328" spans="2:19" ht="15.75" customHeight="1">
+    <row r="328" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -7411,7 +7437,7 @@
       <c r="R328" s="13"/>
       <c r="S328" s="13"/>
     </row>
-    <row r="329" spans="2:19" ht="15.75" customHeight="1">
+    <row r="329" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
@@ -7431,7 +7457,7 @@
       <c r="R329" s="13"/>
       <c r="S329" s="13"/>
     </row>
-    <row r="330" spans="2:19" ht="15.75" customHeight="1">
+    <row r="330" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -7451,7 +7477,7 @@
       <c r="R330" s="13"/>
       <c r="S330" s="13"/>
     </row>
-    <row r="331" spans="2:19" ht="15.75" customHeight="1">
+    <row r="331" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
@@ -7471,7 +7497,7 @@
       <c r="R331" s="13"/>
       <c r="S331" s="13"/>
     </row>
-    <row r="332" spans="2:19" ht="15.75" customHeight="1">
+    <row r="332" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -7491,7 +7517,7 @@
       <c r="R332" s="13"/>
       <c r="S332" s="13"/>
     </row>
-    <row r="333" spans="2:19" ht="15.75" customHeight="1">
+    <row r="333" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -7511,7 +7537,7 @@
       <c r="R333" s="13"/>
       <c r="S333" s="13"/>
     </row>
-    <row r="334" spans="2:19" ht="15.75" customHeight="1">
+    <row r="334" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -7531,7 +7557,7 @@
       <c r="R334" s="13"/>
       <c r="S334" s="13"/>
     </row>
-    <row r="335" spans="2:19" ht="15.75" customHeight="1">
+    <row r="335" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -7551,7 +7577,7 @@
       <c r="R335" s="13"/>
       <c r="S335" s="13"/>
     </row>
-    <row r="336" spans="2:19" ht="15.75" customHeight="1">
+    <row r="336" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -7571,7 +7597,7 @@
       <c r="R336" s="13"/>
       <c r="S336" s="13"/>
     </row>
-    <row r="337" spans="2:19" ht="15.75" customHeight="1">
+    <row r="337" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -7591,7 +7617,7 @@
       <c r="R337" s="13"/>
       <c r="S337" s="13"/>
     </row>
-    <row r="338" spans="2:19" ht="15.75" customHeight="1">
+    <row r="338" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -7611,7 +7637,7 @@
       <c r="R338" s="13"/>
       <c r="S338" s="13"/>
     </row>
-    <row r="339" spans="2:19" ht="15.75" customHeight="1">
+    <row r="339" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -7631,7 +7657,7 @@
       <c r="R339" s="13"/>
       <c r="S339" s="13"/>
     </row>
-    <row r="340" spans="2:19" ht="15.75" customHeight="1">
+    <row r="340" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -7651,7 +7677,7 @@
       <c r="R340" s="13"/>
       <c r="S340" s="13"/>
     </row>
-    <row r="341" spans="2:19" ht="15.75" customHeight="1">
+    <row r="341" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
@@ -7671,7 +7697,7 @@
       <c r="R341" s="13"/>
       <c r="S341" s="13"/>
     </row>
-    <row r="342" spans="2:19" ht="15.75" customHeight="1">
+    <row r="342" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -7691,7 +7717,7 @@
       <c r="R342" s="13"/>
       <c r="S342" s="13"/>
     </row>
-    <row r="343" spans="2:19" ht="15.75" customHeight="1">
+    <row r="343" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -7711,7 +7737,7 @@
       <c r="R343" s="13"/>
       <c r="S343" s="13"/>
     </row>
-    <row r="344" spans="2:19" ht="15.75" customHeight="1">
+    <row r="344" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -7731,7 +7757,7 @@
       <c r="R344" s="13"/>
       <c r="S344" s="13"/>
     </row>
-    <row r="345" spans="2:19" ht="15.75" customHeight="1">
+    <row r="345" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -7751,7 +7777,7 @@
       <c r="R345" s="13"/>
       <c r="S345" s="13"/>
     </row>
-    <row r="346" spans="2:19" ht="15.75" customHeight="1">
+    <row r="346" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -7771,7 +7797,7 @@
       <c r="R346" s="13"/>
       <c r="S346" s="13"/>
     </row>
-    <row r="347" spans="2:19" ht="15.75" customHeight="1">
+    <row r="347" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
@@ -7791,7 +7817,7 @@
       <c r="R347" s="13"/>
       <c r="S347" s="13"/>
     </row>
-    <row r="348" spans="2:19" ht="15.75" customHeight="1">
+    <row r="348" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -7811,7 +7837,7 @@
       <c r="R348" s="13"/>
       <c r="S348" s="13"/>
     </row>
-    <row r="349" spans="2:19" ht="15.75" customHeight="1">
+    <row r="349" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
@@ -7831,7 +7857,7 @@
       <c r="R349" s="13"/>
       <c r="S349" s="13"/>
     </row>
-    <row r="350" spans="2:19" ht="15.75" customHeight="1">
+    <row r="350" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -7851,7 +7877,7 @@
       <c r="R350" s="13"/>
       <c r="S350" s="13"/>
     </row>
-    <row r="351" spans="2:19" ht="15.75" customHeight="1">
+    <row r="351" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -7871,7 +7897,7 @@
       <c r="R351" s="13"/>
       <c r="S351" s="13"/>
     </row>
-    <row r="352" spans="2:19" ht="15.75" customHeight="1">
+    <row r="352" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -7891,7 +7917,7 @@
       <c r="R352" s="13"/>
       <c r="S352" s="13"/>
     </row>
-    <row r="353" spans="2:19" ht="15.75" customHeight="1">
+    <row r="353" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
@@ -7911,7 +7937,7 @@
       <c r="R353" s="13"/>
       <c r="S353" s="13"/>
     </row>
-    <row r="354" spans="2:19" ht="15.75" customHeight="1">
+    <row r="354" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -7931,7 +7957,7 @@
       <c r="R354" s="13"/>
       <c r="S354" s="13"/>
     </row>
-    <row r="355" spans="2:19" ht="15.75" customHeight="1">
+    <row r="355" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
@@ -7951,7 +7977,7 @@
       <c r="R355" s="13"/>
       <c r="S355" s="13"/>
     </row>
-    <row r="356" spans="2:19" ht="15.75" customHeight="1">
+    <row r="356" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -7971,7 +7997,7 @@
       <c r="R356" s="13"/>
       <c r="S356" s="13"/>
     </row>
-    <row r="357" spans="2:19" ht="15.75" customHeight="1">
+    <row r="357" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
@@ -7991,7 +8017,7 @@
       <c r="R357" s="13"/>
       <c r="S357" s="13"/>
     </row>
-    <row r="358" spans="2:19" ht="15.75" customHeight="1">
+    <row r="358" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -8011,7 +8037,7 @@
       <c r="R358" s="13"/>
       <c r="S358" s="13"/>
     </row>
-    <row r="359" spans="2:19" ht="15.75" customHeight="1">
+    <row r="359" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
@@ -8031,7 +8057,7 @@
       <c r="R359" s="13"/>
       <c r="S359" s="13"/>
     </row>
-    <row r="360" spans="2:19" ht="15.75" customHeight="1">
+    <row r="360" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -8051,7 +8077,7 @@
       <c r="R360" s="13"/>
       <c r="S360" s="13"/>
     </row>
-    <row r="361" spans="2:19" ht="15.75" customHeight="1">
+    <row r="361" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
@@ -8071,7 +8097,7 @@
       <c r="R361" s="13"/>
       <c r="S361" s="13"/>
     </row>
-    <row r="362" spans="2:19" ht="15.75" customHeight="1">
+    <row r="362" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -8091,7 +8117,7 @@
       <c r="R362" s="13"/>
       <c r="S362" s="13"/>
     </row>
-    <row r="363" spans="2:19" ht="15.75" customHeight="1">
+    <row r="363" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
@@ -8111,7 +8137,7 @@
       <c r="R363" s="13"/>
       <c r="S363" s="13"/>
     </row>
-    <row r="364" spans="2:19" ht="15.75" customHeight="1">
+    <row r="364" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -8131,7 +8157,7 @@
       <c r="R364" s="13"/>
       <c r="S364" s="13"/>
     </row>
-    <row r="365" spans="2:19" ht="15.75" customHeight="1">
+    <row r="365" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
@@ -8151,7 +8177,7 @@
       <c r="R365" s="13"/>
       <c r="S365" s="13"/>
     </row>
-    <row r="366" spans="2:19" ht="15.75" customHeight="1">
+    <row r="366" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
@@ -8171,7 +8197,7 @@
       <c r="R366" s="13"/>
       <c r="S366" s="13"/>
     </row>
-    <row r="367" spans="2:19" ht="15.75" customHeight="1">
+    <row r="367" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
@@ -8191,7 +8217,7 @@
       <c r="R367" s="13"/>
       <c r="S367" s="13"/>
     </row>
-    <row r="368" spans="2:19" ht="15.75" customHeight="1">
+    <row r="368" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
@@ -8211,7 +8237,7 @@
       <c r="R368" s="13"/>
       <c r="S368" s="13"/>
     </row>
-    <row r="369" spans="2:19" ht="15.75" customHeight="1">
+    <row r="369" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
@@ -8231,7 +8257,7 @@
       <c r="R369" s="13"/>
       <c r="S369" s="13"/>
     </row>
-    <row r="370" spans="2:19" ht="15.75" customHeight="1">
+    <row r="370" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
@@ -8251,7 +8277,7 @@
       <c r="R370" s="13"/>
       <c r="S370" s="13"/>
     </row>
-    <row r="371" spans="2:19" ht="15.75" customHeight="1">
+    <row r="371" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
@@ -8271,7 +8297,7 @@
       <c r="R371" s="13"/>
       <c r="S371" s="13"/>
     </row>
-    <row r="372" spans="2:19" ht="15.75" customHeight="1">
+    <row r="372" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
@@ -8291,7 +8317,7 @@
       <c r="R372" s="13"/>
       <c r="S372" s="13"/>
     </row>
-    <row r="373" spans="2:19" ht="15.75" customHeight="1">
+    <row r="373" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
@@ -8311,7 +8337,7 @@
       <c r="R373" s="13"/>
       <c r="S373" s="13"/>
     </row>
-    <row r="374" spans="2:19" ht="15.75" customHeight="1">
+    <row r="374" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
@@ -8331,7 +8357,7 @@
       <c r="R374" s="13"/>
       <c r="S374" s="13"/>
     </row>
-    <row r="375" spans="2:19" ht="15.75" customHeight="1">
+    <row r="375" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -8351,7 +8377,7 @@
       <c r="R375" s="13"/>
       <c r="S375" s="13"/>
     </row>
-    <row r="376" spans="2:19" ht="15.75" customHeight="1">
+    <row r="376" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
@@ -8371,7 +8397,7 @@
       <c r="R376" s="13"/>
       <c r="S376" s="13"/>
     </row>
-    <row r="377" spans="2:19" ht="15.75" customHeight="1">
+    <row r="377" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
@@ -8391,7 +8417,7 @@
       <c r="R377" s="13"/>
       <c r="S377" s="13"/>
     </row>
-    <row r="378" spans="2:19" ht="15.75" customHeight="1">
+    <row r="378" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -8411,7 +8437,7 @@
       <c r="R378" s="13"/>
       <c r="S378" s="13"/>
     </row>
-    <row r="379" spans="2:19" ht="15.75" customHeight="1">
+    <row r="379" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -8431,7 +8457,7 @@
       <c r="R379" s="13"/>
       <c r="S379" s="13"/>
     </row>
-    <row r="380" spans="2:19" ht="15.75" customHeight="1">
+    <row r="380" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -8451,7 +8477,7 @@
       <c r="R380" s="13"/>
       <c r="S380" s="13"/>
     </row>
-    <row r="381" spans="2:19" ht="15.75" customHeight="1">
+    <row r="381" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -8471,7 +8497,7 @@
       <c r="R381" s="13"/>
       <c r="S381" s="13"/>
     </row>
-    <row r="382" spans="2:19" ht="15.75" customHeight="1">
+    <row r="382" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -8491,7 +8517,7 @@
       <c r="R382" s="13"/>
       <c r="S382" s="13"/>
     </row>
-    <row r="383" spans="2:19" ht="15.75" customHeight="1">
+    <row r="383" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -8511,7 +8537,7 @@
       <c r="R383" s="13"/>
       <c r="S383" s="13"/>
     </row>
-    <row r="384" spans="2:19" ht="15.75" customHeight="1">
+    <row r="384" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -8531,7 +8557,7 @@
       <c r="R384" s="13"/>
       <c r="S384" s="13"/>
     </row>
-    <row r="385" spans="2:19" ht="15.75" customHeight="1">
+    <row r="385" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -8551,7 +8577,7 @@
       <c r="R385" s="13"/>
       <c r="S385" s="13"/>
     </row>
-    <row r="386" spans="2:19" ht="15.75" customHeight="1">
+    <row r="386" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -8571,7 +8597,7 @@
       <c r="R386" s="13"/>
       <c r="S386" s="13"/>
     </row>
-    <row r="387" spans="2:19" ht="15.75" customHeight="1">
+    <row r="387" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -8591,7 +8617,7 @@
       <c r="R387" s="13"/>
       <c r="S387" s="13"/>
     </row>
-    <row r="388" spans="2:19" ht="15.75" customHeight="1">
+    <row r="388" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -8611,7 +8637,7 @@
       <c r="R388" s="13"/>
       <c r="S388" s="13"/>
     </row>
-    <row r="389" spans="2:19" ht="15.75" customHeight="1">
+    <row r="389" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -8631,7 +8657,7 @@
       <c r="R389" s="13"/>
       <c r="S389" s="13"/>
     </row>
-    <row r="390" spans="2:19" ht="15.75" customHeight="1">
+    <row r="390" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
@@ -8651,7 +8677,7 @@
       <c r="R390" s="13"/>
       <c r="S390" s="13"/>
     </row>
-    <row r="391" spans="2:19" ht="15.75" customHeight="1">
+    <row r="391" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
@@ -8671,7 +8697,7 @@
       <c r="R391" s="13"/>
       <c r="S391" s="13"/>
     </row>
-    <row r="392" spans="2:19" ht="15.75" customHeight="1">
+    <row r="392" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
@@ -8691,7 +8717,7 @@
       <c r="R392" s="13"/>
       <c r="S392" s="13"/>
     </row>
-    <row r="393" spans="2:19" ht="15.75" customHeight="1">
+    <row r="393" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
@@ -8711,7 +8737,7 @@
       <c r="R393" s="13"/>
       <c r="S393" s="13"/>
     </row>
-    <row r="394" spans="2:19" ht="15.75" customHeight="1">
+    <row r="394" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
@@ -8731,7 +8757,7 @@
       <c r="R394" s="13"/>
       <c r="S394" s="13"/>
     </row>
-    <row r="395" spans="2:19" ht="15.75" customHeight="1">
+    <row r="395" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
@@ -8751,7 +8777,7 @@
       <c r="R395" s="13"/>
       <c r="S395" s="13"/>
     </row>
-    <row r="396" spans="2:19" ht="15.75" customHeight="1">
+    <row r="396" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -8771,7 +8797,7 @@
       <c r="R396" s="13"/>
       <c r="S396" s="13"/>
     </row>
-    <row r="397" spans="2:19" ht="15.75" customHeight="1">
+    <row r="397" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -8791,7 +8817,7 @@
       <c r="R397" s="13"/>
       <c r="S397" s="13"/>
     </row>
-    <row r="398" spans="2:19" ht="15.75" customHeight="1">
+    <row r="398" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -8811,7 +8837,7 @@
       <c r="R398" s="13"/>
       <c r="S398" s="13"/>
     </row>
-    <row r="399" spans="2:19" ht="15.75" customHeight="1">
+    <row r="399" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
@@ -8831,7 +8857,7 @@
       <c r="R399" s="13"/>
       <c r="S399" s="13"/>
     </row>
-    <row r="400" spans="2:19" ht="15.75" customHeight="1">
+    <row r="400" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
@@ -8851,7 +8877,7 @@
       <c r="R400" s="13"/>
       <c r="S400" s="13"/>
     </row>
-    <row r="401" spans="2:19" ht="15.75" customHeight="1">
+    <row r="401" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
@@ -8871,7 +8897,7 @@
       <c r="R401" s="13"/>
       <c r="S401" s="13"/>
     </row>
-    <row r="402" spans="2:19" ht="15.75" customHeight="1">
+    <row r="402" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
@@ -8891,7 +8917,7 @@
       <c r="R402" s="13"/>
       <c r="S402" s="13"/>
     </row>
-    <row r="403" spans="2:19" ht="15.75" customHeight="1">
+    <row r="403" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="1"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
@@ -8911,7 +8937,7 @@
       <c r="R403" s="13"/>
       <c r="S403" s="13"/>
     </row>
-    <row r="404" spans="2:19" ht="15.75" customHeight="1">
+    <row r="404" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
@@ -8931,7 +8957,7 @@
       <c r="R404" s="13"/>
       <c r="S404" s="13"/>
     </row>
-    <row r="405" spans="2:19" ht="15.75" customHeight="1">
+    <row r="405" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
@@ -8951,7 +8977,7 @@
       <c r="R405" s="13"/>
       <c r="S405" s="13"/>
     </row>
-    <row r="406" spans="2:19" ht="15.75" customHeight="1">
+    <row r="406" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -8971,7 +8997,7 @@
       <c r="R406" s="13"/>
       <c r="S406" s="13"/>
     </row>
-    <row r="407" spans="2:19" ht="15.75" customHeight="1">
+    <row r="407" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -8991,7 +9017,7 @@
       <c r="R407" s="13"/>
       <c r="S407" s="13"/>
     </row>
-    <row r="408" spans="2:19" ht="15.75" customHeight="1">
+    <row r="408" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
@@ -9011,7 +9037,7 @@
       <c r="R408" s="13"/>
       <c r="S408" s="13"/>
     </row>
-    <row r="409" spans="2:19" ht="15.75" customHeight="1">
+    <row r="409" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
@@ -9031,7 +9057,7 @@
       <c r="R409" s="13"/>
       <c r="S409" s="13"/>
     </row>
-    <row r="410" spans="2:19" ht="15.75" customHeight="1">
+    <row r="410" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
@@ -9051,7 +9077,7 @@
       <c r="R410" s="13"/>
       <c r="S410" s="13"/>
     </row>
-    <row r="411" spans="2:19" ht="15.75" customHeight="1">
+    <row r="411" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
@@ -9071,7 +9097,7 @@
       <c r="R411" s="13"/>
       <c r="S411" s="13"/>
     </row>
-    <row r="412" spans="2:19" ht="15.75" customHeight="1">
+    <row r="412" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
@@ -9091,7 +9117,7 @@
       <c r="R412" s="13"/>
       <c r="S412" s="13"/>
     </row>
-    <row r="413" spans="2:19" ht="15.75" customHeight="1">
+    <row r="413" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="1"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
@@ -9111,7 +9137,7 @@
       <c r="R413" s="13"/>
       <c r="S413" s="13"/>
     </row>
-    <row r="414" spans="2:19" ht="15.75" customHeight="1">
+    <row r="414" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="1"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
@@ -9131,7 +9157,7 @@
       <c r="R414" s="13"/>
       <c r="S414" s="13"/>
     </row>
-    <row r="415" spans="2:19" ht="15.75" customHeight="1">
+    <row r="415" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="1"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
@@ -9151,7 +9177,7 @@
       <c r="R415" s="13"/>
       <c r="S415" s="13"/>
     </row>
-    <row r="416" spans="2:19" ht="15.75" customHeight="1">
+    <row r="416" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="1"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
@@ -9171,7 +9197,7 @@
       <c r="R416" s="13"/>
       <c r="S416" s="13"/>
     </row>
-    <row r="417" spans="2:19" ht="15.75" customHeight="1">
+    <row r="417" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
@@ -9191,7 +9217,7 @@
       <c r="R417" s="13"/>
       <c r="S417" s="13"/>
     </row>
-    <row r="418" spans="2:19" ht="15.75" customHeight="1">
+    <row r="418" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="1"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
@@ -9211,7 +9237,7 @@
       <c r="R418" s="13"/>
       <c r="S418" s="13"/>
     </row>
-    <row r="419" spans="2:19" ht="15.75" customHeight="1">
+    <row r="419" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -9231,7 +9257,7 @@
       <c r="R419" s="13"/>
       <c r="S419" s="13"/>
     </row>
-    <row r="420" spans="2:19" ht="15.75" customHeight="1">
+    <row r="420" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -9251,7 +9277,7 @@
       <c r="R420" s="13"/>
       <c r="S420" s="13"/>
     </row>
-    <row r="421" spans="2:19" ht="15.75" customHeight="1">
+    <row r="421" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
@@ -9271,7 +9297,7 @@
       <c r="R421" s="13"/>
       <c r="S421" s="13"/>
     </row>
-    <row r="422" spans="2:19" ht="15.75" customHeight="1">
+    <row r="422" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -9291,7 +9317,7 @@
       <c r="R422" s="13"/>
       <c r="S422" s="13"/>
     </row>
-    <row r="423" spans="2:19" ht="15.75" customHeight="1">
+    <row r="423" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
@@ -9311,7 +9337,7 @@
       <c r="R423" s="13"/>
       <c r="S423" s="13"/>
     </row>
-    <row r="424" spans="2:19" ht="15.75" customHeight="1">
+    <row r="424" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
@@ -9331,7 +9357,7 @@
       <c r="R424" s="13"/>
       <c r="S424" s="13"/>
     </row>
-    <row r="425" spans="2:19" ht="15.75" customHeight="1">
+    <row r="425" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
@@ -9351,7 +9377,7 @@
       <c r="R425" s="13"/>
       <c r="S425" s="13"/>
     </row>
-    <row r="426" spans="2:19" ht="15.75" customHeight="1">
+    <row r="426" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
@@ -9371,7 +9397,7 @@
       <c r="R426" s="13"/>
       <c r="S426" s="13"/>
     </row>
-    <row r="427" spans="2:19" ht="15.75" customHeight="1">
+    <row r="427" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
@@ -9391,7 +9417,7 @@
       <c r="R427" s="13"/>
       <c r="S427" s="13"/>
     </row>
-    <row r="428" spans="2:19" ht="15.75" customHeight="1">
+    <row r="428" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
@@ -9411,7 +9437,7 @@
       <c r="R428" s="13"/>
       <c r="S428" s="13"/>
     </row>
-    <row r="429" spans="2:19" ht="15.75" customHeight="1">
+    <row r="429" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
@@ -9431,7 +9457,7 @@
       <c r="R429" s="13"/>
       <c r="S429" s="13"/>
     </row>
-    <row r="430" spans="2:19" ht="15.75" customHeight="1">
+    <row r="430" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
@@ -9451,7 +9477,7 @@
       <c r="R430" s="13"/>
       <c r="S430" s="13"/>
     </row>
-    <row r="431" spans="2:19" ht="15.75" customHeight="1">
+    <row r="431" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -9471,7 +9497,7 @@
       <c r="R431" s="13"/>
       <c r="S431" s="13"/>
     </row>
-    <row r="432" spans="2:19" ht="15.75" customHeight="1">
+    <row r="432" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
@@ -9491,7 +9517,7 @@
       <c r="R432" s="13"/>
       <c r="S432" s="13"/>
     </row>
-    <row r="433" spans="2:19" ht="15.75" customHeight="1">
+    <row r="433" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="1"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
@@ -9511,7 +9537,7 @@
       <c r="R433" s="13"/>
       <c r="S433" s="13"/>
     </row>
-    <row r="434" spans="2:19" ht="15.75" customHeight="1">
+    <row r="434" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="1"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
@@ -9531,7 +9557,7 @@
       <c r="R434" s="13"/>
       <c r="S434" s="13"/>
     </row>
-    <row r="435" spans="2:19" ht="15.75" customHeight="1">
+    <row r="435" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="1"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
@@ -9551,7 +9577,7 @@
       <c r="R435" s="13"/>
       <c r="S435" s="13"/>
     </row>
-    <row r="436" spans="2:19" ht="15.75" customHeight="1">
+    <row r="436" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="1"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
@@ -9571,7 +9597,7 @@
       <c r="R436" s="13"/>
       <c r="S436" s="13"/>
     </row>
-    <row r="437" spans="2:19" ht="15.75" customHeight="1">
+    <row r="437" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="1"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
@@ -9591,7 +9617,7 @@
       <c r="R437" s="13"/>
       <c r="S437" s="13"/>
     </row>
-    <row r="438" spans="2:19" ht="15.75" customHeight="1">
+    <row r="438" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="1"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
@@ -9611,7 +9637,7 @@
       <c r="R438" s="13"/>
       <c r="S438" s="13"/>
     </row>
-    <row r="439" spans="2:19" ht="15.75" customHeight="1">
+    <row r="439" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="1"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
@@ -9631,7 +9657,7 @@
       <c r="R439" s="13"/>
       <c r="S439" s="13"/>
     </row>
-    <row r="440" spans="2:19" ht="15.75" customHeight="1">
+    <row r="440" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="1"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
@@ -9651,7 +9677,7 @@
       <c r="R440" s="13"/>
       <c r="S440" s="13"/>
     </row>
-    <row r="441" spans="2:19" ht="15.75" customHeight="1">
+    <row r="441" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="1"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
@@ -9671,7 +9697,7 @@
       <c r="R441" s="13"/>
       <c r="S441" s="13"/>
     </row>
-    <row r="442" spans="2:19" ht="15.75" customHeight="1">
+    <row r="442" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="1"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
@@ -9691,7 +9717,7 @@
       <c r="R442" s="13"/>
       <c r="S442" s="13"/>
     </row>
-    <row r="443" spans="2:19" ht="15.75" customHeight="1">
+    <row r="443" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="1"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
@@ -9711,7 +9737,7 @@
       <c r="R443" s="13"/>
       <c r="S443" s="13"/>
     </row>
-    <row r="444" spans="2:19" ht="15.75" customHeight="1">
+    <row r="444" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="1"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
@@ -9731,7 +9757,7 @@
       <c r="R444" s="13"/>
       <c r="S444" s="13"/>
     </row>
-    <row r="445" spans="2:19" ht="15.75" customHeight="1">
+    <row r="445" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="1"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
@@ -9751,7 +9777,7 @@
       <c r="R445" s="13"/>
       <c r="S445" s="13"/>
     </row>
-    <row r="446" spans="2:19" ht="15.75" customHeight="1">
+    <row r="446" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="1"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
@@ -9771,7 +9797,7 @@
       <c r="R446" s="13"/>
       <c r="S446" s="13"/>
     </row>
-    <row r="447" spans="2:19" ht="15.75" customHeight="1">
+    <row r="447" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="1"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
@@ -9791,7 +9817,7 @@
       <c r="R447" s="13"/>
       <c r="S447" s="13"/>
     </row>
-    <row r="448" spans="2:19" ht="15.75" customHeight="1">
+    <row r="448" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="1"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
@@ -9811,7 +9837,7 @@
       <c r="R448" s="13"/>
       <c r="S448" s="13"/>
     </row>
-    <row r="449" spans="2:19" ht="15.75" customHeight="1">
+    <row r="449" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="1"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
@@ -9831,7 +9857,7 @@
       <c r="R449" s="13"/>
       <c r="S449" s="13"/>
     </row>
-    <row r="450" spans="2:19" ht="15.75" customHeight="1">
+    <row r="450" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="1"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
@@ -9851,7 +9877,7 @@
       <c r="R450" s="13"/>
       <c r="S450" s="13"/>
     </row>
-    <row r="451" spans="2:19" ht="15.75" customHeight="1">
+    <row r="451" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="1"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
@@ -9871,7 +9897,7 @@
       <c r="R451" s="13"/>
       <c r="S451" s="13"/>
     </row>
-    <row r="452" spans="2:19" ht="15.75" customHeight="1">
+    <row r="452" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="1"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
@@ -9891,7 +9917,7 @@
       <c r="R452" s="13"/>
       <c r="S452" s="13"/>
     </row>
-    <row r="453" spans="2:19" ht="15.75" customHeight="1">
+    <row r="453" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="1"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
@@ -9911,7 +9937,7 @@
       <c r="R453" s="13"/>
       <c r="S453" s="13"/>
     </row>
-    <row r="454" spans="2:19" ht="15.75" customHeight="1">
+    <row r="454" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="1"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
@@ -9931,7 +9957,7 @@
       <c r="R454" s="13"/>
       <c r="S454" s="13"/>
     </row>
-    <row r="455" spans="2:19" ht="15.75" customHeight="1">
+    <row r="455" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="1"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
@@ -9951,7 +9977,7 @@
       <c r="R455" s="13"/>
       <c r="S455" s="13"/>
     </row>
-    <row r="456" spans="2:19" ht="15.75" customHeight="1">
+    <row r="456" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="1"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
@@ -9971,7 +9997,7 @@
       <c r="R456" s="13"/>
       <c r="S456" s="13"/>
     </row>
-    <row r="457" spans="2:19" ht="15.75" customHeight="1">
+    <row r="457" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="1"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
@@ -9991,7 +10017,7 @@
       <c r="R457" s="13"/>
       <c r="S457" s="13"/>
     </row>
-    <row r="458" spans="2:19" ht="15.75" customHeight="1">
+    <row r="458" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="1"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
@@ -10011,7 +10037,7 @@
       <c r="R458" s="13"/>
       <c r="S458" s="13"/>
     </row>
-    <row r="459" spans="2:19" ht="15.75" customHeight="1">
+    <row r="459" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="1"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
@@ -10031,7 +10057,7 @@
       <c r="R459" s="13"/>
       <c r="S459" s="13"/>
     </row>
-    <row r="460" spans="2:19" ht="15.75" customHeight="1">
+    <row r="460" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="1"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
@@ -10051,7 +10077,7 @@
       <c r="R460" s="13"/>
       <c r="S460" s="13"/>
     </row>
-    <row r="461" spans="2:19" ht="15.75" customHeight="1">
+    <row r="461" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="1"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
@@ -10071,7 +10097,7 @@
       <c r="R461" s="13"/>
       <c r="S461" s="13"/>
     </row>
-    <row r="462" spans="2:19" ht="15.75" customHeight="1">
+    <row r="462" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="1"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
@@ -10091,7 +10117,7 @@
       <c r="R462" s="13"/>
       <c r="S462" s="13"/>
     </row>
-    <row r="463" spans="2:19" ht="15.75" customHeight="1">
+    <row r="463" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="1"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
@@ -10111,7 +10137,7 @@
       <c r="R463" s="13"/>
       <c r="S463" s="13"/>
     </row>
-    <row r="464" spans="2:19" ht="15.75" customHeight="1">
+    <row r="464" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="1"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
@@ -10131,7 +10157,7 @@
       <c r="R464" s="13"/>
       <c r="S464" s="13"/>
     </row>
-    <row r="465" spans="2:19" ht="15.75" customHeight="1">
+    <row r="465" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="1"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
@@ -10151,7 +10177,7 @@
       <c r="R465" s="13"/>
       <c r="S465" s="13"/>
     </row>
-    <row r="466" spans="2:19" ht="15.75" customHeight="1">
+    <row r="466" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="1"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
@@ -10171,7 +10197,7 @@
       <c r="R466" s="13"/>
       <c r="S466" s="13"/>
     </row>
-    <row r="467" spans="2:19" ht="15.75" customHeight="1">
+    <row r="467" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="1"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
@@ -10191,7 +10217,7 @@
       <c r="R467" s="13"/>
       <c r="S467" s="13"/>
     </row>
-    <row r="468" spans="2:19" ht="15.75" customHeight="1">
+    <row r="468" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="1"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
@@ -10211,7 +10237,7 @@
       <c r="R468" s="13"/>
       <c r="S468" s="13"/>
     </row>
-    <row r="469" spans="2:19" ht="15.75" customHeight="1">
+    <row r="469" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="1"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
@@ -10231,7 +10257,7 @@
       <c r="R469" s="13"/>
       <c r="S469" s="13"/>
     </row>
-    <row r="470" spans="2:19" ht="15.75" customHeight="1">
+    <row r="470" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="1"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
@@ -10251,7 +10277,7 @@
       <c r="R470" s="13"/>
       <c r="S470" s="13"/>
     </row>
-    <row r="471" spans="2:19" ht="15.75" customHeight="1">
+    <row r="471" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="1"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
@@ -10271,7 +10297,7 @@
       <c r="R471" s="13"/>
       <c r="S471" s="13"/>
     </row>
-    <row r="472" spans="2:19" ht="15.75" customHeight="1">
+    <row r="472" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="1"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
@@ -10291,7 +10317,7 @@
       <c r="R472" s="13"/>
       <c r="S472" s="13"/>
     </row>
-    <row r="473" spans="2:19" ht="15.75" customHeight="1">
+    <row r="473" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="1"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
@@ -10311,7 +10337,7 @@
       <c r="R473" s="13"/>
       <c r="S473" s="13"/>
     </row>
-    <row r="474" spans="2:19" ht="15.75" customHeight="1">
+    <row r="474" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="1"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
@@ -10331,7 +10357,7 @@
       <c r="R474" s="13"/>
       <c r="S474" s="13"/>
     </row>
-    <row r="475" spans="2:19" ht="15.75" customHeight="1">
+    <row r="475" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="1"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
@@ -10351,7 +10377,7 @@
       <c r="R475" s="13"/>
       <c r="S475" s="13"/>
     </row>
-    <row r="476" spans="2:19" ht="15.75" customHeight="1">
+    <row r="476" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="1"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
@@ -10371,7 +10397,7 @@
       <c r="R476" s="13"/>
       <c r="S476" s="13"/>
     </row>
-    <row r="477" spans="2:19" ht="15.75" customHeight="1">
+    <row r="477" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="1"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
@@ -10391,7 +10417,7 @@
       <c r="R477" s="13"/>
       <c r="S477" s="13"/>
     </row>
-    <row r="478" spans="2:19" ht="15.75" customHeight="1">
+    <row r="478" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="1"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
@@ -10411,7 +10437,7 @@
       <c r="R478" s="13"/>
       <c r="S478" s="13"/>
     </row>
-    <row r="479" spans="2:19" ht="15.75" customHeight="1">
+    <row r="479" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="1"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
@@ -10431,7 +10457,7 @@
       <c r="R479" s="13"/>
       <c r="S479" s="13"/>
     </row>
-    <row r="480" spans="2:19" ht="15.75" customHeight="1">
+    <row r="480" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="1"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
@@ -10451,7 +10477,7 @@
       <c r="R480" s="13"/>
       <c r="S480" s="13"/>
     </row>
-    <row r="481" spans="2:19" ht="15.75" customHeight="1">
+    <row r="481" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="1"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
@@ -10471,7 +10497,7 @@
       <c r="R481" s="13"/>
       <c r="S481" s="13"/>
     </row>
-    <row r="482" spans="2:19" ht="15.75" customHeight="1">
+    <row r="482" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="1"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
@@ -10491,7 +10517,7 @@
       <c r="R482" s="13"/>
       <c r="S482" s="13"/>
     </row>
-    <row r="483" spans="2:19" ht="15.75" customHeight="1">
+    <row r="483" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="1"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
@@ -10511,7 +10537,7 @@
       <c r="R483" s="13"/>
       <c r="S483" s="13"/>
     </row>
-    <row r="484" spans="2:19" ht="15.75" customHeight="1">
+    <row r="484" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="1"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
@@ -10531,7 +10557,7 @@
       <c r="R484" s="13"/>
       <c r="S484" s="13"/>
     </row>
-    <row r="485" spans="2:19" ht="15.75" customHeight="1">
+    <row r="485" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="1"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
@@ -10551,7 +10577,7 @@
       <c r="R485" s="13"/>
       <c r="S485" s="13"/>
     </row>
-    <row r="486" spans="2:19" ht="15.75" customHeight="1">
+    <row r="486" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="1"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
@@ -10571,7 +10597,7 @@
       <c r="R486" s="13"/>
       <c r="S486" s="13"/>
     </row>
-    <row r="487" spans="2:19" ht="15.75" customHeight="1">
+    <row r="487" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="1"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
@@ -10591,7 +10617,7 @@
       <c r="R487" s="13"/>
       <c r="S487" s="13"/>
     </row>
-    <row r="488" spans="2:19" ht="15.75" customHeight="1">
+    <row r="488" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="1"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
@@ -10611,7 +10637,7 @@
       <c r="R488" s="13"/>
       <c r="S488" s="13"/>
     </row>
-    <row r="489" spans="2:19" ht="15.75" customHeight="1">
+    <row r="489" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="1"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
@@ -10631,7 +10657,7 @@
       <c r="R489" s="13"/>
       <c r="S489" s="13"/>
     </row>
-    <row r="490" spans="2:19" ht="15.75" customHeight="1">
+    <row r="490" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="1"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
@@ -10651,7 +10677,7 @@
       <c r="R490" s="13"/>
       <c r="S490" s="13"/>
     </row>
-    <row r="491" spans="2:19" ht="15.75" customHeight="1">
+    <row r="491" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="1"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
@@ -10671,7 +10697,7 @@
       <c r="R491" s="13"/>
       <c r="S491" s="13"/>
     </row>
-    <row r="492" spans="2:19" ht="15.75" customHeight="1">
+    <row r="492" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="1"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
@@ -10691,7 +10717,7 @@
       <c r="R492" s="13"/>
       <c r="S492" s="13"/>
     </row>
-    <row r="493" spans="2:19" ht="15.75" customHeight="1">
+    <row r="493" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="1"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
@@ -10711,7 +10737,7 @@
       <c r="R493" s="13"/>
       <c r="S493" s="13"/>
     </row>
-    <row r="494" spans="2:19" ht="15.75" customHeight="1">
+    <row r="494" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="1"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
@@ -10731,7 +10757,7 @@
       <c r="R494" s="13"/>
       <c r="S494" s="13"/>
     </row>
-    <row r="495" spans="2:19" ht="15.75" customHeight="1">
+    <row r="495" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="1"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
@@ -10751,7 +10777,7 @@
       <c r="R495" s="13"/>
       <c r="S495" s="13"/>
     </row>
-    <row r="496" spans="2:19" ht="15.75" customHeight="1">
+    <row r="496" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="1"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
@@ -10771,7 +10797,7 @@
       <c r="R496" s="13"/>
       <c r="S496" s="13"/>
     </row>
-    <row r="497" spans="2:19" ht="15.75" customHeight="1">
+    <row r="497" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="1"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
@@ -10791,7 +10817,7 @@
       <c r="R497" s="13"/>
       <c r="S497" s="13"/>
     </row>
-    <row r="498" spans="2:19" ht="15.75" customHeight="1">
+    <row r="498" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="1"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
@@ -10811,7 +10837,7 @@
       <c r="R498" s="13"/>
       <c r="S498" s="13"/>
     </row>
-    <row r="499" spans="2:19" ht="15.75" customHeight="1">
+    <row r="499" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="1"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
@@ -10831,7 +10857,7 @@
       <c r="R499" s="13"/>
       <c r="S499" s="13"/>
     </row>
-    <row r="500" spans="2:19" ht="15.75" customHeight="1">
+    <row r="500" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="1"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
@@ -10851,7 +10877,7 @@
       <c r="R500" s="13"/>
       <c r="S500" s="13"/>
     </row>
-    <row r="501" spans="2:19" ht="15.75" customHeight="1">
+    <row r="501" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="1"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
@@ -10871,7 +10897,7 @@
       <c r="R501" s="13"/>
       <c r="S501" s="13"/>
     </row>
-    <row r="502" spans="2:19" ht="15.75" customHeight="1">
+    <row r="502" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="1"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
@@ -10891,7 +10917,7 @@
       <c r="R502" s="13"/>
       <c r="S502" s="13"/>
     </row>
-    <row r="503" spans="2:19" ht="15.75" customHeight="1">
+    <row r="503" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="1"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
@@ -10911,7 +10937,7 @@
       <c r="R503" s="13"/>
       <c r="S503" s="13"/>
     </row>
-    <row r="504" spans="2:19" ht="15.75" customHeight="1">
+    <row r="504" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="1"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
@@ -10931,7 +10957,7 @@
       <c r="R504" s="13"/>
       <c r="S504" s="13"/>
     </row>
-    <row r="505" spans="2:19" ht="15.75" customHeight="1">
+    <row r="505" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="1"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
@@ -10951,7 +10977,7 @@
       <c r="R505" s="13"/>
       <c r="S505" s="13"/>
     </row>
-    <row r="506" spans="2:19" ht="15.75" customHeight="1">
+    <row r="506" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="1"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
@@ -10971,7 +10997,7 @@
       <c r="R506" s="13"/>
       <c r="S506" s="13"/>
     </row>
-    <row r="507" spans="2:19" ht="15.75" customHeight="1">
+    <row r="507" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="1"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
@@ -10991,7 +11017,7 @@
       <c r="R507" s="13"/>
       <c r="S507" s="13"/>
     </row>
-    <row r="508" spans="2:19" ht="15.75" customHeight="1">
+    <row r="508" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="1"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
@@ -11011,7 +11037,7 @@
       <c r="R508" s="13"/>
       <c r="S508" s="13"/>
     </row>
-    <row r="509" spans="2:19" ht="15.75" customHeight="1">
+    <row r="509" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="1"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
@@ -11031,7 +11057,7 @@
       <c r="R509" s="13"/>
       <c r="S509" s="13"/>
     </row>
-    <row r="510" spans="2:19" ht="15.75" customHeight="1">
+    <row r="510" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="1"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
@@ -11051,7 +11077,7 @@
       <c r="R510" s="13"/>
       <c r="S510" s="13"/>
     </row>
-    <row r="511" spans="2:19" ht="15.75" customHeight="1">
+    <row r="511" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="1"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
@@ -11071,7 +11097,7 @@
       <c r="R511" s="13"/>
       <c r="S511" s="13"/>
     </row>
-    <row r="512" spans="2:19" ht="15.75" customHeight="1">
+    <row r="512" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="1"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
@@ -11091,7 +11117,7 @@
       <c r="R512" s="13"/>
       <c r="S512" s="13"/>
     </row>
-    <row r="513" spans="2:19" ht="15.75" customHeight="1">
+    <row r="513" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="1"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
@@ -11111,7 +11137,7 @@
       <c r="R513" s="13"/>
       <c r="S513" s="13"/>
     </row>
-    <row r="514" spans="2:19" ht="15.75" customHeight="1">
+    <row r="514" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="1"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
@@ -11131,7 +11157,7 @@
       <c r="R514" s="13"/>
       <c r="S514" s="13"/>
     </row>
-    <row r="515" spans="2:19" ht="15.75" customHeight="1">
+    <row r="515" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="1"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
@@ -11151,7 +11177,7 @@
       <c r="R515" s="13"/>
       <c r="S515" s="13"/>
     </row>
-    <row r="516" spans="2:19" ht="15.75" customHeight="1">
+    <row r="516" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="1"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
@@ -11171,7 +11197,7 @@
       <c r="R516" s="13"/>
       <c r="S516" s="13"/>
     </row>
-    <row r="517" spans="2:19" ht="15.75" customHeight="1">
+    <row r="517" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="1"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
@@ -11191,7 +11217,7 @@
       <c r="R517" s="13"/>
       <c r="S517" s="13"/>
     </row>
-    <row r="518" spans="2:19" ht="15.75" customHeight="1">
+    <row r="518" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="1"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
@@ -11211,7 +11237,7 @@
       <c r="R518" s="13"/>
       <c r="S518" s="13"/>
     </row>
-    <row r="519" spans="2:19" ht="15.75" customHeight="1">
+    <row r="519" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="1"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
@@ -11231,7 +11257,7 @@
       <c r="R519" s="13"/>
       <c r="S519" s="13"/>
     </row>
-    <row r="520" spans="2:19" ht="15.75" customHeight="1">
+    <row r="520" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="1"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
@@ -11251,7 +11277,7 @@
       <c r="R520" s="13"/>
       <c r="S520" s="13"/>
     </row>
-    <row r="521" spans="2:19" ht="15.75" customHeight="1">
+    <row r="521" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="1"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
@@ -11271,7 +11297,7 @@
       <c r="R521" s="13"/>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="2:19" ht="15.75" customHeight="1">
+    <row r="522" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="1"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
@@ -11291,7 +11317,7 @@
       <c r="R522" s="13"/>
       <c r="S522" s="13"/>
     </row>
-    <row r="523" spans="2:19" ht="15.75" customHeight="1">
+    <row r="523" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="1"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
@@ -11311,7 +11337,7 @@
       <c r="R523" s="13"/>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="2:19" ht="15.75" customHeight="1">
+    <row r="524" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="1"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
@@ -11331,7 +11357,7 @@
       <c r="R524" s="13"/>
       <c r="S524" s="13"/>
     </row>
-    <row r="525" spans="2:19" ht="15.75" customHeight="1">
+    <row r="525" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="1"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
@@ -11351,7 +11377,7 @@
       <c r="R525" s="13"/>
       <c r="S525" s="13"/>
     </row>
-    <row r="526" spans="2:19" ht="15.75" customHeight="1">
+    <row r="526" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="1"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
@@ -11371,7 +11397,7 @@
       <c r="R526" s="13"/>
       <c r="S526" s="13"/>
     </row>
-    <row r="527" spans="2:19" ht="15.75" customHeight="1">
+    <row r="527" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="1"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
@@ -11391,7 +11417,7 @@
       <c r="R527" s="13"/>
       <c r="S527" s="13"/>
     </row>
-    <row r="528" spans="2:19" ht="15.75" customHeight="1">
+    <row r="528" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="1"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
@@ -11411,7 +11437,7 @@
       <c r="R528" s="13"/>
       <c r="S528" s="13"/>
     </row>
-    <row r="529" spans="2:19" ht="15.75" customHeight="1">
+    <row r="529" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="1"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
@@ -11431,7 +11457,7 @@
       <c r="R529" s="13"/>
       <c r="S529" s="13"/>
     </row>
-    <row r="530" spans="2:19" ht="15.75" customHeight="1">
+    <row r="530" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="1"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
@@ -11451,7 +11477,7 @@
       <c r="R530" s="13"/>
       <c r="S530" s="13"/>
     </row>
-    <row r="531" spans="2:19" ht="15.75" customHeight="1">
+    <row r="531" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
@@ -11471,7 +11497,7 @@
       <c r="R531" s="13"/>
       <c r="S531" s="13"/>
     </row>
-    <row r="532" spans="2:19" ht="15.75" customHeight="1">
+    <row r="532" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
@@ -11491,7 +11517,7 @@
       <c r="R532" s="13"/>
       <c r="S532" s="13"/>
     </row>
-    <row r="533" spans="2:19" ht="15.75" customHeight="1">
+    <row r="533" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
@@ -11511,7 +11537,7 @@
       <c r="R533" s="13"/>
       <c r="S533" s="13"/>
     </row>
-    <row r="534" spans="2:19" ht="15.75" customHeight="1">
+    <row r="534" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
@@ -11531,7 +11557,7 @@
       <c r="R534" s="13"/>
       <c r="S534" s="13"/>
     </row>
-    <row r="535" spans="2:19" ht="15.75" customHeight="1">
+    <row r="535" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
@@ -11551,7 +11577,7 @@
       <c r="R535" s="13"/>
       <c r="S535" s="13"/>
     </row>
-    <row r="536" spans="2:19" ht="15.75" customHeight="1">
+    <row r="536" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
@@ -11571,7 +11597,7 @@
       <c r="R536" s="13"/>
       <c r="S536" s="13"/>
     </row>
-    <row r="537" spans="2:19" ht="15.75" customHeight="1">
+    <row r="537" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="1"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
@@ -11591,7 +11617,7 @@
       <c r="R537" s="13"/>
       <c r="S537" s="13"/>
     </row>
-    <row r="538" spans="2:19" ht="15.75" customHeight="1">
+    <row r="538" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="1"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
@@ -11611,7 +11637,7 @@
       <c r="R538" s="13"/>
       <c r="S538" s="13"/>
     </row>
-    <row r="539" spans="2:19" ht="15.75" customHeight="1">
+    <row r="539" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="1"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
@@ -11631,7 +11657,7 @@
       <c r="R539" s="13"/>
       <c r="S539" s="13"/>
     </row>
-    <row r="540" spans="2:19" ht="15.75" customHeight="1">
+    <row r="540" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="1"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
@@ -11651,7 +11677,7 @@
       <c r="R540" s="13"/>
       <c r="S540" s="13"/>
     </row>
-    <row r="541" spans="2:19" ht="15.75" customHeight="1">
+    <row r="541" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="1"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
@@ -11671,7 +11697,7 @@
       <c r="R541" s="13"/>
       <c r="S541" s="13"/>
     </row>
-    <row r="542" spans="2:19" ht="15.75" customHeight="1">
+    <row r="542" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="1"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
@@ -11691,7 +11717,7 @@
       <c r="R542" s="13"/>
       <c r="S542" s="13"/>
     </row>
-    <row r="543" spans="2:19" ht="15.75" customHeight="1">
+    <row r="543" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="1"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
@@ -11711,7 +11737,7 @@
       <c r="R543" s="13"/>
       <c r="S543" s="13"/>
     </row>
-    <row r="544" spans="2:19" ht="15.75" customHeight="1">
+    <row r="544" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="1"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
@@ -11731,7 +11757,7 @@
       <c r="R544" s="13"/>
       <c r="S544" s="13"/>
     </row>
-    <row r="545" spans="2:19" ht="15.75" customHeight="1">
+    <row r="545" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="1"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
@@ -11751,7 +11777,7 @@
       <c r="R545" s="13"/>
       <c r="S545" s="13"/>
     </row>
-    <row r="546" spans="2:19" ht="15.75" customHeight="1">
+    <row r="546" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="1"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
@@ -11771,7 +11797,7 @@
       <c r="R546" s="13"/>
       <c r="S546" s="13"/>
     </row>
-    <row r="547" spans="2:19" ht="15.75" customHeight="1">
+    <row r="547" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="1"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
@@ -11791,7 +11817,7 @@
       <c r="R547" s="13"/>
       <c r="S547" s="13"/>
     </row>
-    <row r="548" spans="2:19" ht="15.75" customHeight="1">
+    <row r="548" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="1"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
@@ -11811,7 +11837,7 @@
       <c r="R548" s="13"/>
       <c r="S548" s="13"/>
     </row>
-    <row r="549" spans="2:19" ht="15.75" customHeight="1">
+    <row r="549" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="1"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
@@ -11831,7 +11857,7 @@
       <c r="R549" s="13"/>
       <c r="S549" s="13"/>
     </row>
-    <row r="550" spans="2:19" ht="15.75" customHeight="1">
+    <row r="550" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="1"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
@@ -11851,7 +11877,7 @@
       <c r="R550" s="13"/>
       <c r="S550" s="13"/>
     </row>
-    <row r="551" spans="2:19" ht="15.75" customHeight="1">
+    <row r="551" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="1"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
@@ -11871,7 +11897,7 @@
       <c r="R551" s="13"/>
       <c r="S551" s="13"/>
     </row>
-    <row r="552" spans="2:19" ht="15.75" customHeight="1">
+    <row r="552" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="1"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
@@ -11891,7 +11917,7 @@
       <c r="R552" s="13"/>
       <c r="S552" s="13"/>
     </row>
-    <row r="553" spans="2:19" ht="15.75" customHeight="1">
+    <row r="553" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="1"/>
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
@@ -11911,7 +11937,7 @@
       <c r="R553" s="13"/>
       <c r="S553" s="13"/>
     </row>
-    <row r="554" spans="2:19" ht="15.75" customHeight="1">
+    <row r="554" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="1"/>
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
@@ -11931,7 +11957,7 @@
       <c r="R554" s="13"/>
       <c r="S554" s="13"/>
     </row>
-    <row r="555" spans="2:19" ht="15.75" customHeight="1">
+    <row r="555" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="1"/>
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
@@ -11951,7 +11977,7 @@
       <c r="R555" s="13"/>
       <c r="S555" s="13"/>
     </row>
-    <row r="556" spans="2:19" ht="15.75" customHeight="1">
+    <row r="556" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="1"/>
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
@@ -11971,7 +11997,7 @@
       <c r="R556" s="13"/>
       <c r="S556" s="13"/>
     </row>
-    <row r="557" spans="2:19" ht="15.75" customHeight="1">
+    <row r="557" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
@@ -11991,7 +12017,7 @@
       <c r="R557" s="13"/>
       <c r="S557" s="13"/>
     </row>
-    <row r="558" spans="2:19" ht="15.75" customHeight="1">
+    <row r="558" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
@@ -12011,7 +12037,7 @@
       <c r="R558" s="13"/>
       <c r="S558" s="13"/>
     </row>
-    <row r="559" spans="2:19" ht="15.75" customHeight="1">
+    <row r="559" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1"/>
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
@@ -12031,7 +12057,7 @@
       <c r="R559" s="13"/>
       <c r="S559" s="13"/>
     </row>
-    <row r="560" spans="2:19" ht="15.75" customHeight="1">
+    <row r="560" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1"/>
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
@@ -12051,7 +12077,7 @@
       <c r="R560" s="13"/>
       <c r="S560" s="13"/>
     </row>
-    <row r="561" spans="2:19" ht="15.75" customHeight="1">
+    <row r="561" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1"/>
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
@@ -12071,7 +12097,7 @@
       <c r="R561" s="13"/>
       <c r="S561" s="13"/>
     </row>
-    <row r="562" spans="2:19" ht="15.75" customHeight="1">
+    <row r="562" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1"/>
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
@@ -12091,7 +12117,7 @@
       <c r="R562" s="13"/>
       <c r="S562" s="13"/>
     </row>
-    <row r="563" spans="2:19" ht="15.75" customHeight="1">
+    <row r="563" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1"/>
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
@@ -12111,7 +12137,7 @@
       <c r="R563" s="13"/>
       <c r="S563" s="13"/>
     </row>
-    <row r="564" spans="2:19" ht="15.75" customHeight="1">
+    <row r="564" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1"/>
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
@@ -12131,7 +12157,7 @@
       <c r="R564" s="13"/>
       <c r="S564" s="13"/>
     </row>
-    <row r="565" spans="2:19" ht="15.75" customHeight="1">
+    <row r="565" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1"/>
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
@@ -12151,7 +12177,7 @@
       <c r="R565" s="13"/>
       <c r="S565" s="13"/>
     </row>
-    <row r="566" spans="2:19" ht="15.75" customHeight="1">
+    <row r="566" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1"/>
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
@@ -12171,7 +12197,7 @@
       <c r="R566" s="13"/>
       <c r="S566" s="13"/>
     </row>
-    <row r="567" spans="2:19" ht="15.75" customHeight="1">
+    <row r="567" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1"/>
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
@@ -12191,7 +12217,7 @@
       <c r="R567" s="13"/>
       <c r="S567" s="13"/>
     </row>
-    <row r="568" spans="2:19" ht="15.75" customHeight="1">
+    <row r="568" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1"/>
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
@@ -12211,7 +12237,7 @@
       <c r="R568" s="13"/>
       <c r="S568" s="13"/>
     </row>
-    <row r="569" spans="2:19" ht="15.75" customHeight="1">
+    <row r="569" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1"/>
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
@@ -12231,7 +12257,7 @@
       <c r="R569" s="13"/>
       <c r="S569" s="13"/>
     </row>
-    <row r="570" spans="2:19" ht="15.75" customHeight="1">
+    <row r="570" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1"/>
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
@@ -12251,7 +12277,7 @@
       <c r="R570" s="13"/>
       <c r="S570" s="13"/>
     </row>
-    <row r="571" spans="2:19" ht="15.75" customHeight="1">
+    <row r="571" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1"/>
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
@@ -12271,7 +12297,7 @@
       <c r="R571" s="13"/>
       <c r="S571" s="13"/>
     </row>
-    <row r="572" spans="2:19" ht="15.75" customHeight="1">
+    <row r="572" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="1"/>
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
@@ -12291,7 +12317,7 @@
       <c r="R572" s="13"/>
       <c r="S572" s="13"/>
     </row>
-    <row r="573" spans="2:19" ht="15.75" customHeight="1">
+    <row r="573" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="1"/>
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
@@ -12311,7 +12337,7 @@
       <c r="R573" s="13"/>
       <c r="S573" s="13"/>
     </row>
-    <row r="574" spans="2:19" ht="15.75" customHeight="1">
+    <row r="574" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1"/>
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
@@ -12331,7 +12357,7 @@
       <c r="R574" s="13"/>
       <c r="S574" s="13"/>
     </row>
-    <row r="575" spans="2:19" ht="15.75" customHeight="1">
+    <row r="575" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1"/>
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
@@ -12351,7 +12377,7 @@
       <c r="R575" s="13"/>
       <c r="S575" s="13"/>
     </row>
-    <row r="576" spans="2:19" ht="15.75" customHeight="1">
+    <row r="576" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1"/>
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
@@ -12371,7 +12397,7 @@
       <c r="R576" s="13"/>
       <c r="S576" s="13"/>
     </row>
-    <row r="577" spans="2:19" ht="15.75" customHeight="1">
+    <row r="577" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
@@ -12391,7 +12417,7 @@
       <c r="R577" s="13"/>
       <c r="S577" s="13"/>
     </row>
-    <row r="578" spans="2:19" ht="15.75" customHeight="1">
+    <row r="578" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
@@ -12411,7 +12437,7 @@
       <c r="R578" s="13"/>
       <c r="S578" s="13"/>
     </row>
-    <row r="579" spans="2:19" ht="15.75" customHeight="1">
+    <row r="579" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1"/>
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
@@ -12431,7 +12457,7 @@
       <c r="R579" s="13"/>
       <c r="S579" s="13"/>
     </row>
-    <row r="580" spans="2:19" ht="15.75" customHeight="1">
+    <row r="580" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="1"/>
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
@@ -12451,7 +12477,7 @@
       <c r="R580" s="13"/>
       <c r="S580" s="13"/>
     </row>
-    <row r="581" spans="2:19" ht="15.75" customHeight="1">
+    <row r="581" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="1"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
@@ -12471,7 +12497,7 @@
       <c r="R581" s="13"/>
       <c r="S581" s="13"/>
     </row>
-    <row r="582" spans="2:19" ht="15.75" customHeight="1">
+    <row r="582" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="1"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
@@ -12491,7 +12517,7 @@
       <c r="R582" s="13"/>
       <c r="S582" s="13"/>
     </row>
-    <row r="583" spans="2:19" ht="15.75" customHeight="1">
+    <row r="583" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="1"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
@@ -12511,7 +12537,7 @@
       <c r="R583" s="13"/>
       <c r="S583" s="13"/>
     </row>
-    <row r="584" spans="2:19" ht="15.75" customHeight="1">
+    <row r="584" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="1"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
@@ -12531,7 +12557,7 @@
       <c r="R584" s="13"/>
       <c r="S584" s="13"/>
     </row>
-    <row r="585" spans="2:19" ht="15.75" customHeight="1">
+    <row r="585" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="1"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
@@ -12551,7 +12577,7 @@
       <c r="R585" s="13"/>
       <c r="S585" s="13"/>
     </row>
-    <row r="586" spans="2:19" ht="15.75" customHeight="1">
+    <row r="586" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="1"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
@@ -12571,7 +12597,7 @@
       <c r="R586" s="13"/>
       <c r="S586" s="13"/>
     </row>
-    <row r="587" spans="2:19" ht="15.75" customHeight="1">
+    <row r="587" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="1"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
@@ -12591,7 +12617,7 @@
       <c r="R587" s="13"/>
       <c r="S587" s="13"/>
     </row>
-    <row r="588" spans="2:19" ht="15.75" customHeight="1">
+    <row r="588" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="1"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
@@ -12611,7 +12637,7 @@
       <c r="R588" s="13"/>
       <c r="S588" s="13"/>
     </row>
-    <row r="589" spans="2:19" ht="15.75" customHeight="1">
+    <row r="589" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="1"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
@@ -12631,7 +12657,7 @@
       <c r="R589" s="13"/>
       <c r="S589" s="13"/>
     </row>
-    <row r="590" spans="2:19" ht="15.75" customHeight="1">
+    <row r="590" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="1"/>
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
@@ -12651,7 +12677,7 @@
       <c r="R590" s="13"/>
       <c r="S590" s="13"/>
     </row>
-    <row r="591" spans="2:19" ht="15.75" customHeight="1">
+    <row r="591" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="1"/>
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
@@ -12671,7 +12697,7 @@
       <c r="R591" s="13"/>
       <c r="S591" s="13"/>
     </row>
-    <row r="592" spans="2:19" ht="15.75" customHeight="1">
+    <row r="592" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="1"/>
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
@@ -12691,7 +12717,7 @@
       <c r="R592" s="13"/>
       <c r="S592" s="13"/>
     </row>
-    <row r="593" spans="2:19" ht="15.75" customHeight="1">
+    <row r="593" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="1"/>
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
@@ -12711,7 +12737,7 @@
       <c r="R593" s="13"/>
       <c r="S593" s="13"/>
     </row>
-    <row r="594" spans="2:19" ht="15.75" customHeight="1">
+    <row r="594" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="1"/>
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
@@ -12731,7 +12757,7 @@
       <c r="R594" s="13"/>
       <c r="S594" s="13"/>
     </row>
-    <row r="595" spans="2:19" ht="15.75" customHeight="1">
+    <row r="595" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="1"/>
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
@@ -12751,7 +12777,7 @@
       <c r="R595" s="13"/>
       <c r="S595" s="13"/>
     </row>
-    <row r="596" spans="2:19" ht="15.75" customHeight="1">
+    <row r="596" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="1"/>
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
@@ -12771,7 +12797,7 @@
       <c r="R596" s="13"/>
       <c r="S596" s="13"/>
     </row>
-    <row r="597" spans="2:19" ht="15.75" customHeight="1">
+    <row r="597" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="1"/>
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
@@ -12791,7 +12817,7 @@
       <c r="R597" s="13"/>
       <c r="S597" s="13"/>
     </row>
-    <row r="598" spans="2:19" ht="15.75" customHeight="1">
+    <row r="598" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="1"/>
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
@@ -12811,7 +12837,7 @@
       <c r="R598" s="13"/>
       <c r="S598" s="13"/>
     </row>
-    <row r="599" spans="2:19" ht="15.75" customHeight="1">
+    <row r="599" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="1"/>
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
@@ -12831,7 +12857,7 @@
       <c r="R599" s="13"/>
       <c r="S599" s="13"/>
     </row>
-    <row r="600" spans="2:19" ht="15.75" customHeight="1">
+    <row r="600" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
@@ -12851,7 +12877,7 @@
       <c r="R600" s="13"/>
       <c r="S600" s="13"/>
     </row>
-    <row r="601" spans="2:19" ht="15.75" customHeight="1">
+    <row r="601" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
@@ -12871,7 +12897,7 @@
       <c r="R601" s="13"/>
       <c r="S601" s="13"/>
     </row>
-    <row r="602" spans="2:19" ht="15.75" customHeight="1">
+    <row r="602" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
@@ -12891,7 +12917,7 @@
       <c r="R602" s="13"/>
       <c r="S602" s="13"/>
     </row>
-    <row r="603" spans="2:19" ht="15.75" customHeight="1">
+    <row r="603" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1"/>
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
@@ -12911,7 +12937,7 @@
       <c r="R603" s="13"/>
       <c r="S603" s="13"/>
     </row>
-    <row r="604" spans="2:19" ht="15.75" customHeight="1">
+    <row r="604" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1"/>
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
@@ -12931,7 +12957,7 @@
       <c r="R604" s="13"/>
       <c r="S604" s="13"/>
     </row>
-    <row r="605" spans="2:19" ht="15.75" customHeight="1">
+    <row r="605" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1"/>
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
@@ -12951,7 +12977,7 @@
       <c r="R605" s="13"/>
       <c r="S605" s="13"/>
     </row>
-    <row r="606" spans="2:19" ht="15.75" customHeight="1">
+    <row r="606" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1"/>
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
@@ -12971,7 +12997,7 @@
       <c r="R606" s="13"/>
       <c r="S606" s="13"/>
     </row>
-    <row r="607" spans="2:19" ht="15.75" customHeight="1">
+    <row r="607" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1"/>
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
@@ -12991,7 +13017,7 @@
       <c r="R607" s="13"/>
       <c r="S607" s="13"/>
     </row>
-    <row r="608" spans="2:19" ht="15.75" customHeight="1">
+    <row r="608" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
@@ -13011,7 +13037,7 @@
       <c r="R608" s="13"/>
       <c r="S608" s="13"/>
     </row>
-    <row r="609" spans="2:19" ht="15.75" customHeight="1">
+    <row r="609" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1"/>
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
@@ -13031,7 +13057,7 @@
       <c r="R609" s="13"/>
       <c r="S609" s="13"/>
     </row>
-    <row r="610" spans="2:19" ht="15.75" customHeight="1">
+    <row r="610" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
@@ -13051,7 +13077,7 @@
       <c r="R610" s="13"/>
       <c r="S610" s="13"/>
     </row>
-    <row r="611" spans="2:19" ht="15.75" customHeight="1">
+    <row r="611" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
@@ -13071,7 +13097,7 @@
       <c r="R611" s="13"/>
       <c r="S611" s="13"/>
     </row>
-    <row r="612" spans="2:19" ht="15.75" customHeight="1">
+    <row r="612" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1"/>
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
@@ -13091,7 +13117,7 @@
       <c r="R612" s="13"/>
       <c r="S612" s="13"/>
     </row>
-    <row r="613" spans="2:19" ht="15.75" customHeight="1">
+    <row r="613" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1"/>
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
@@ -13111,7 +13137,7 @@
       <c r="R613" s="13"/>
       <c r="S613" s="13"/>
     </row>
-    <row r="614" spans="2:19" ht="15.75" customHeight="1">
+    <row r="614" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
@@ -13131,7 +13157,7 @@
       <c r="R614" s="13"/>
       <c r="S614" s="13"/>
     </row>
-    <row r="615" spans="2:19" ht="15.75" customHeight="1">
+    <row r="615" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="1"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
@@ -13151,7 +13177,7 @@
       <c r="R615" s="13"/>
       <c r="S615" s="13"/>
     </row>
-    <row r="616" spans="2:19" ht="15.75" customHeight="1">
+    <row r="616" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B616" s="1"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
@@ -13171,7 +13197,7 @@
       <c r="R616" s="13"/>
       <c r="S616" s="13"/>
     </row>
-    <row r="617" spans="2:19" ht="15.75" customHeight="1">
+    <row r="617" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B617" s="1"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
@@ -13191,7 +13217,7 @@
       <c r="R617" s="13"/>
       <c r="S617" s="13"/>
     </row>
-    <row r="618" spans="2:19" ht="15.75" customHeight="1">
+    <row r="618" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B618" s="1"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
@@ -13211,7 +13237,7 @@
       <c r="R618" s="13"/>
       <c r="S618" s="13"/>
     </row>
-    <row r="619" spans="2:19" ht="15.75" customHeight="1">
+    <row r="619" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B619" s="1"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
@@ -13231,7 +13257,7 @@
       <c r="R619" s="13"/>
       <c r="S619" s="13"/>
     </row>
-    <row r="620" spans="2:19" ht="15.75" customHeight="1">
+    <row r="620" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B620" s="1"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
@@ -13251,7 +13277,7 @@
       <c r="R620" s="13"/>
       <c r="S620" s="13"/>
     </row>
-    <row r="621" spans="2:19" ht="15.75" customHeight="1">
+    <row r="621" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B621" s="1"/>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
@@ -13271,7 +13297,7 @@
       <c r="R621" s="13"/>
       <c r="S621" s="13"/>
     </row>
-    <row r="622" spans="2:19" ht="15.75" customHeight="1">
+    <row r="622" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B622" s="1"/>
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
@@ -13291,7 +13317,7 @@
       <c r="R622" s="13"/>
       <c r="S622" s="13"/>
     </row>
-    <row r="623" spans="2:19" ht="15.75" customHeight="1">
+    <row r="623" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B623" s="1"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
@@ -13311,7 +13337,7 @@
       <c r="R623" s="13"/>
       <c r="S623" s="13"/>
     </row>
-    <row r="624" spans="2:19" ht="15.75" customHeight="1">
+    <row r="624" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B624" s="1"/>
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
@@ -13331,7 +13357,7 @@
       <c r="R624" s="13"/>
       <c r="S624" s="13"/>
     </row>
-    <row r="625" spans="2:19" ht="15.75" customHeight="1">
+    <row r="625" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B625" s="1"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
@@ -13351,7 +13377,7 @@
       <c r="R625" s="13"/>
       <c r="S625" s="13"/>
     </row>
-    <row r="626" spans="2:19" ht="15.75" customHeight="1">
+    <row r="626" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B626" s="1"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
@@ -13371,7 +13397,7 @@
       <c r="R626" s="13"/>
       <c r="S626" s="13"/>
     </row>
-    <row r="627" spans="2:19" ht="15.75" customHeight="1">
+    <row r="627" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B627" s="1"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
@@ -13391,7 +13417,7 @@
       <c r="R627" s="13"/>
       <c r="S627" s="13"/>
     </row>
-    <row r="628" spans="2:19" ht="15.75" customHeight="1">
+    <row r="628" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B628" s="1"/>
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
@@ -13411,7 +13437,7 @@
       <c r="R628" s="13"/>
       <c r="S628" s="13"/>
     </row>
-    <row r="629" spans="2:19" ht="15.75" customHeight="1">
+    <row r="629" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B629" s="1"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
@@ -13431,7 +13457,7 @@
       <c r="R629" s="13"/>
       <c r="S629" s="13"/>
     </row>
-    <row r="630" spans="2:19" ht="15.75" customHeight="1">
+    <row r="630" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B630" s="1"/>
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
@@ -13451,7 +13477,7 @@
       <c r="R630" s="13"/>
       <c r="S630" s="13"/>
     </row>
-    <row r="631" spans="2:19" ht="15.75" customHeight="1">
+    <row r="631" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B631" s="1"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
@@ -13471,7 +13497,7 @@
       <c r="R631" s="13"/>
       <c r="S631" s="13"/>
     </row>
-    <row r="632" spans="2:19" ht="15.75" customHeight="1">
+    <row r="632" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B632" s="1"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
@@ -13491,7 +13517,7 @@
       <c r="R632" s="13"/>
       <c r="S632" s="13"/>
     </row>
-    <row r="633" spans="2:19" ht="15.75" customHeight="1">
+    <row r="633" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B633" s="1"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
@@ -13511,7 +13537,7 @@
       <c r="R633" s="13"/>
       <c r="S633" s="13"/>
     </row>
-    <row r="634" spans="2:19" ht="15.75" customHeight="1">
+    <row r="634" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B634" s="1"/>
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
@@ -13531,7 +13557,7 @@
       <c r="R634" s="13"/>
       <c r="S634" s="13"/>
     </row>
-    <row r="635" spans="2:19" ht="15.75" customHeight="1">
+    <row r="635" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B635" s="1"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
@@ -13551,7 +13577,7 @@
       <c r="R635" s="13"/>
       <c r="S635" s="13"/>
     </row>
-    <row r="636" spans="2:19" ht="15.75" customHeight="1">
+    <row r="636" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B636" s="1"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
@@ -13571,7 +13597,7 @@
       <c r="R636" s="13"/>
       <c r="S636" s="13"/>
     </row>
-    <row r="637" spans="2:19" ht="15.75" customHeight="1">
+    <row r="637" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B637" s="1"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
@@ -13591,7 +13617,7 @@
       <c r="R637" s="13"/>
       <c r="S637" s="13"/>
     </row>
-    <row r="638" spans="2:19" ht="15.75" customHeight="1">
+    <row r="638" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B638" s="1"/>
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
@@ -13611,7 +13637,7 @@
       <c r="R638" s="13"/>
       <c r="S638" s="13"/>
     </row>
-    <row r="639" spans="2:19" ht="15.75" customHeight="1">
+    <row r="639" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B639" s="1"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
@@ -13631,7 +13657,7 @@
       <c r="R639" s="13"/>
       <c r="S639" s="13"/>
     </row>
-    <row r="640" spans="2:19" ht="15.75" customHeight="1">
+    <row r="640" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B640" s="1"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
@@ -13651,7 +13677,7 @@
       <c r="R640" s="13"/>
       <c r="S640" s="13"/>
     </row>
-    <row r="641" spans="2:19" ht="15.75" customHeight="1">
+    <row r="641" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B641" s="1"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
@@ -13671,7 +13697,7 @@
       <c r="R641" s="13"/>
       <c r="S641" s="13"/>
     </row>
-    <row r="642" spans="2:19" ht="15.75" customHeight="1">
+    <row r="642" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B642" s="1"/>
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
@@ -13691,7 +13717,7 @@
       <c r="R642" s="13"/>
       <c r="S642" s="13"/>
     </row>
-    <row r="643" spans="2:19" ht="15.75" customHeight="1">
+    <row r="643" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B643" s="1"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
@@ -13711,7 +13737,7 @@
       <c r="R643" s="13"/>
       <c r="S643" s="13"/>
     </row>
-    <row r="644" spans="2:19" ht="15.75" customHeight="1">
+    <row r="644" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B644" s="1"/>
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
@@ -13731,7 +13757,7 @@
       <c r="R644" s="13"/>
       <c r="S644" s="13"/>
     </row>
-    <row r="645" spans="2:19" ht="15.75" customHeight="1">
+    <row r="645" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B645" s="1"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
@@ -13751,7 +13777,7 @@
       <c r="R645" s="13"/>
       <c r="S645" s="13"/>
     </row>
-    <row r="646" spans="2:19" ht="15.75" customHeight="1">
+    <row r="646" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B646" s="1"/>
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
@@ -13771,7 +13797,7 @@
       <c r="R646" s="13"/>
       <c r="S646" s="13"/>
     </row>
-    <row r="647" spans="2:19" ht="15.75" customHeight="1">
+    <row r="647" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B647" s="1"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
@@ -13791,7 +13817,7 @@
       <c r="R647" s="13"/>
       <c r="S647" s="13"/>
     </row>
-    <row r="648" spans="2:19" ht="15.75" customHeight="1">
+    <row r="648" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B648" s="1"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
@@ -13811,7 +13837,7 @@
       <c r="R648" s="13"/>
       <c r="S648" s="13"/>
     </row>
-    <row r="649" spans="2:19" ht="15.75" customHeight="1">
+    <row r="649" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B649" s="1"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
@@ -13831,7 +13857,7 @@
       <c r="R649" s="13"/>
       <c r="S649" s="13"/>
     </row>
-    <row r="650" spans="2:19" ht="15.75" customHeight="1">
+    <row r="650" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B650" s="1"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
@@ -13851,7 +13877,7 @@
       <c r="R650" s="13"/>
       <c r="S650" s="13"/>
     </row>
-    <row r="651" spans="2:19" ht="15.75" customHeight="1">
+    <row r="651" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B651" s="1"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
@@ -13871,7 +13897,7 @@
       <c r="R651" s="13"/>
       <c r="S651" s="13"/>
     </row>
-    <row r="652" spans="2:19" ht="15.75" customHeight="1">
+    <row r="652" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B652" s="1"/>
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
@@ -13891,7 +13917,7 @@
       <c r="R652" s="13"/>
       <c r="S652" s="13"/>
     </row>
-    <row r="653" spans="2:19" ht="15.75" customHeight="1">
+    <row r="653" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B653" s="1"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
@@ -13911,7 +13937,7 @@
       <c r="R653" s="13"/>
       <c r="S653" s="13"/>
     </row>
-    <row r="654" spans="2:19" ht="15.75" customHeight="1">
+    <row r="654" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B654" s="1"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
@@ -13931,7 +13957,7 @@
       <c r="R654" s="13"/>
       <c r="S654" s="13"/>
     </row>
-    <row r="655" spans="2:19" ht="15.75" customHeight="1">
+    <row r="655" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B655" s="1"/>
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
@@ -13951,7 +13977,7 @@
       <c r="R655" s="13"/>
       <c r="S655" s="13"/>
     </row>
-    <row r="656" spans="2:19" ht="15.75" customHeight="1">
+    <row r="656" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B656" s="1"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
@@ -13971,7 +13997,7 @@
       <c r="R656" s="13"/>
       <c r="S656" s="13"/>
     </row>
-    <row r="657" spans="2:19" ht="15.75" customHeight="1">
+    <row r="657" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B657" s="1"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
@@ -13991,7 +14017,7 @@
       <c r="R657" s="13"/>
       <c r="S657" s="13"/>
     </row>
-    <row r="658" spans="2:19" ht="15.75" customHeight="1">
+    <row r="658" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B658" s="1"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
@@ -14011,7 +14037,7 @@
       <c r="R658" s="13"/>
       <c r="S658" s="13"/>
     </row>
-    <row r="659" spans="2:19" ht="15.75" customHeight="1">
+    <row r="659" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B659" s="1"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
@@ -14031,7 +14057,7 @@
       <c r="R659" s="13"/>
       <c r="S659" s="13"/>
     </row>
-    <row r="660" spans="2:19" ht="15.75" customHeight="1">
+    <row r="660" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B660" s="1"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
@@ -14051,7 +14077,7 @@
       <c r="R660" s="13"/>
       <c r="S660" s="13"/>
     </row>
-    <row r="661" spans="2:19" ht="15.75" customHeight="1">
+    <row r="661" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B661" s="1"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
@@ -14071,7 +14097,7 @@
       <c r="R661" s="13"/>
       <c r="S661" s="13"/>
     </row>
-    <row r="662" spans="2:19" ht="15.75" customHeight="1">
+    <row r="662" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B662" s="1"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
@@ -14091,7 +14117,7 @@
       <c r="R662" s="13"/>
       <c r="S662" s="13"/>
     </row>
-    <row r="663" spans="2:19" ht="15.75" customHeight="1">
+    <row r="663" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B663" s="1"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
@@ -14111,7 +14137,7 @@
       <c r="R663" s="13"/>
       <c r="S663" s="13"/>
     </row>
-    <row r="664" spans="2:19" ht="15.75" customHeight="1">
+    <row r="664" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B664" s="1"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
@@ -14131,7 +14157,7 @@
       <c r="R664" s="13"/>
       <c r="S664" s="13"/>
     </row>
-    <row r="665" spans="2:19" ht="15.75" customHeight="1">
+    <row r="665" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B665" s="1"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
@@ -14151,7 +14177,7 @@
       <c r="R665" s="13"/>
       <c r="S665" s="13"/>
     </row>
-    <row r="666" spans="2:19" ht="15.75" customHeight="1">
+    <row r="666" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B666" s="1"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
@@ -14171,7 +14197,7 @@
       <c r="R666" s="13"/>
       <c r="S666" s="13"/>
     </row>
-    <row r="667" spans="2:19" ht="15.75" customHeight="1">
+    <row r="667" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B667" s="1"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
@@ -14191,7 +14217,7 @@
       <c r="R667" s="13"/>
       <c r="S667" s="13"/>
     </row>
-    <row r="668" spans="2:19" ht="15.75" customHeight="1">
+    <row r="668" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B668" s="1"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
@@ -14211,7 +14237,7 @@
       <c r="R668" s="13"/>
       <c r="S668" s="13"/>
     </row>
-    <row r="669" spans="2:19" ht="15.75" customHeight="1">
+    <row r="669" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B669" s="1"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
@@ -14231,7 +14257,7 @@
       <c r="R669" s="13"/>
       <c r="S669" s="13"/>
     </row>
-    <row r="670" spans="2:19" ht="15.75" customHeight="1">
+    <row r="670" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B670" s="1"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
@@ -14251,7 +14277,7 @@
       <c r="R670" s="13"/>
       <c r="S670" s="13"/>
     </row>
-    <row r="671" spans="2:19" ht="15.75" customHeight="1">
+    <row r="671" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B671" s="1"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
@@ -14271,7 +14297,7 @@
       <c r="R671" s="13"/>
       <c r="S671" s="13"/>
     </row>
-    <row r="672" spans="2:19" ht="15.75" customHeight="1">
+    <row r="672" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B672" s="1"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
@@ -14291,7 +14317,7 @@
       <c r="R672" s="13"/>
       <c r="S672" s="13"/>
     </row>
-    <row r="673" spans="2:19" ht="15.75" customHeight="1">
+    <row r="673" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B673" s="1"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
@@ -14311,7 +14337,7 @@
       <c r="R673" s="13"/>
       <c r="S673" s="13"/>
     </row>
-    <row r="674" spans="2:19" ht="15.75" customHeight="1">
+    <row r="674" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B674" s="1"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
@@ -14331,7 +14357,7 @@
       <c r="R674" s="13"/>
       <c r="S674" s="13"/>
     </row>
-    <row r="675" spans="2:19" ht="15.75" customHeight="1">
+    <row r="675" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B675" s="1"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
@@ -14351,7 +14377,7 @@
       <c r="R675" s="13"/>
       <c r="S675" s="13"/>
     </row>
-    <row r="676" spans="2:19" ht="15.75" customHeight="1">
+    <row r="676" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B676" s="1"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
@@ -14371,7 +14397,7 @@
       <c r="R676" s="13"/>
       <c r="S676" s="13"/>
     </row>
-    <row r="677" spans="2:19" ht="15.75" customHeight="1">
+    <row r="677" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B677" s="1"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
@@ -14391,7 +14417,7 @@
       <c r="R677" s="13"/>
       <c r="S677" s="13"/>
     </row>
-    <row r="678" spans="2:19" ht="15.75" customHeight="1">
+    <row r="678" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B678" s="1"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
@@ -14411,7 +14437,7 @@
       <c r="R678" s="13"/>
       <c r="S678" s="13"/>
     </row>
-    <row r="679" spans="2:19" ht="15.75" customHeight="1">
+    <row r="679" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B679" s="1"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
@@ -14431,7 +14457,7 @@
       <c r="R679" s="13"/>
       <c r="S679" s="13"/>
     </row>
-    <row r="680" spans="2:19" ht="15.75" customHeight="1">
+    <row r="680" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B680" s="1"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
@@ -14451,7 +14477,7 @@
       <c r="R680" s="13"/>
       <c r="S680" s="13"/>
     </row>
-    <row r="681" spans="2:19" ht="15.75" customHeight="1">
+    <row r="681" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B681" s="1"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
@@ -14471,7 +14497,7 @@
       <c r="R681" s="13"/>
       <c r="S681" s="13"/>
     </row>
-    <row r="682" spans="2:19" ht="15.75" customHeight="1">
+    <row r="682" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B682" s="1"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
@@ -14491,7 +14517,7 @@
       <c r="R682" s="13"/>
       <c r="S682" s="13"/>
     </row>
-    <row r="683" spans="2:19" ht="15.75" customHeight="1">
+    <row r="683" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B683" s="1"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
@@ -14511,7 +14537,7 @@
       <c r="R683" s="13"/>
       <c r="S683" s="13"/>
     </row>
-    <row r="684" spans="2:19" ht="15.75" customHeight="1">
+    <row r="684" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B684" s="1"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
@@ -14531,7 +14557,7 @@
       <c r="R684" s="13"/>
       <c r="S684" s="13"/>
     </row>
-    <row r="685" spans="2:19" ht="15.75" customHeight="1">
+    <row r="685" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B685" s="1"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
@@ -14551,7 +14577,7 @@
       <c r="R685" s="13"/>
       <c r="S685" s="13"/>
     </row>
-    <row r="686" spans="2:19" ht="15.75" customHeight="1">
+    <row r="686" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B686" s="1"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
@@ -14571,7 +14597,7 @@
       <c r="R686" s="13"/>
       <c r="S686" s="13"/>
     </row>
-    <row r="687" spans="2:19" ht="15.75" customHeight="1">
+    <row r="687" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B687" s="1"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
@@ -14591,7 +14617,7 @@
       <c r="R687" s="13"/>
       <c r="S687" s="13"/>
     </row>
-    <row r="688" spans="2:19" ht="15.75" customHeight="1">
+    <row r="688" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B688" s="1"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
@@ -14611,7 +14637,7 @@
       <c r="R688" s="13"/>
       <c r="S688" s="13"/>
     </row>
-    <row r="689" spans="2:19" ht="15.75" customHeight="1">
+    <row r="689" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B689" s="1"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
@@ -14631,7 +14657,7 @@
       <c r="R689" s="13"/>
       <c r="S689" s="13"/>
     </row>
-    <row r="690" spans="2:19" ht="15.75" customHeight="1">
+    <row r="690" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B690" s="1"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
@@ -14651,7 +14677,7 @@
       <c r="R690" s="13"/>
       <c r="S690" s="13"/>
     </row>
-    <row r="691" spans="2:19" ht="15.75" customHeight="1">
+    <row r="691" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B691" s="1"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
@@ -14671,7 +14697,7 @@
       <c r="R691" s="13"/>
       <c r="S691" s="13"/>
     </row>
-    <row r="692" spans="2:19" ht="15.75" customHeight="1">
+    <row r="692" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B692" s="1"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
@@ -14691,7 +14717,7 @@
       <c r="R692" s="13"/>
       <c r="S692" s="13"/>
     </row>
-    <row r="693" spans="2:19" ht="15.75" customHeight="1">
+    <row r="693" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B693" s="1"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
@@ -14711,7 +14737,7 @@
       <c r="R693" s="13"/>
       <c r="S693" s="13"/>
     </row>
-    <row r="694" spans="2:19" ht="15.75" customHeight="1">
+    <row r="694" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B694" s="1"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
@@ -14731,7 +14757,7 @@
       <c r="R694" s="13"/>
       <c r="S694" s="13"/>
     </row>
-    <row r="695" spans="2:19" ht="15.75" customHeight="1">
+    <row r="695" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B695" s="1"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
@@ -14751,7 +14777,7 @@
       <c r="R695" s="13"/>
       <c r="S695" s="13"/>
     </row>
-    <row r="696" spans="2:19" ht="15.75" customHeight="1">
+    <row r="696" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B696" s="1"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
@@ -14771,7 +14797,7 @@
       <c r="R696" s="13"/>
       <c r="S696" s="13"/>
     </row>
-    <row r="697" spans="2:19" ht="15.75" customHeight="1">
+    <row r="697" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B697" s="1"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
@@ -14791,7 +14817,7 @@
       <c r="R697" s="13"/>
       <c r="S697" s="13"/>
     </row>
-    <row r="698" spans="2:19" ht="15.75" customHeight="1">
+    <row r="698" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B698" s="1"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
@@ -14811,7 +14837,7 @@
       <c r="R698" s="13"/>
       <c r="S698" s="13"/>
     </row>
-    <row r="699" spans="2:19" ht="15.75" customHeight="1">
+    <row r="699" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B699" s="1"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
@@ -14831,7 +14857,7 @@
       <c r="R699" s="13"/>
       <c r="S699" s="13"/>
     </row>
-    <row r="700" spans="2:19" ht="15.75" customHeight="1">
+    <row r="700" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B700" s="1"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
@@ -14851,7 +14877,7 @@
       <c r="R700" s="13"/>
       <c r="S700" s="13"/>
     </row>
-    <row r="701" spans="2:19" ht="15.75" customHeight="1">
+    <row r="701" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B701" s="1"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
@@ -14871,7 +14897,7 @@
       <c r="R701" s="13"/>
       <c r="S701" s="13"/>
     </row>
-    <row r="702" spans="2:19" ht="15.75" customHeight="1">
+    <row r="702" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B702" s="1"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
@@ -14891,7 +14917,7 @@
       <c r="R702" s="13"/>
       <c r="S702" s="13"/>
     </row>
-    <row r="703" spans="2:19" ht="15.75" customHeight="1">
+    <row r="703" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B703" s="1"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
@@ -14911,7 +14937,7 @@
       <c r="R703" s="13"/>
       <c r="S703" s="13"/>
     </row>
-    <row r="704" spans="2:19" ht="15.75" customHeight="1">
+    <row r="704" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B704" s="1"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
@@ -14931,7 +14957,7 @@
       <c r="R704" s="13"/>
       <c r="S704" s="13"/>
     </row>
-    <row r="705" spans="2:19" ht="15.75" customHeight="1">
+    <row r="705" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B705" s="1"/>
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
@@ -14951,7 +14977,7 @@
       <c r="R705" s="13"/>
       <c r="S705" s="13"/>
     </row>
-    <row r="706" spans="2:19" ht="15.75" customHeight="1">
+    <row r="706" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B706" s="1"/>
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
@@ -14971,7 +14997,7 @@
       <c r="R706" s="13"/>
       <c r="S706" s="13"/>
     </row>
-    <row r="707" spans="2:19" ht="15.75" customHeight="1">
+    <row r="707" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B707" s="1"/>
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
@@ -14991,7 +15017,7 @@
       <c r="R707" s="13"/>
       <c r="S707" s="13"/>
     </row>
-    <row r="708" spans="2:19" ht="15.75" customHeight="1">
+    <row r="708" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B708" s="1"/>
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
@@ -15011,7 +15037,7 @@
       <c r="R708" s="13"/>
       <c r="S708" s="13"/>
     </row>
-    <row r="709" spans="2:19" ht="15.75" customHeight="1">
+    <row r="709" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B709" s="1"/>
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
@@ -15031,7 +15057,7 @@
       <c r="R709" s="13"/>
       <c r="S709" s="13"/>
     </row>
-    <row r="710" spans="2:19" ht="15.75" customHeight="1">
+    <row r="710" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B710" s="1"/>
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
@@ -15051,7 +15077,7 @@
       <c r="R710" s="13"/>
       <c r="S710" s="13"/>
     </row>
-    <row r="711" spans="2:19" ht="15.75" customHeight="1">
+    <row r="711" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B711" s="1"/>
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
@@ -15071,7 +15097,7 @@
       <c r="R711" s="13"/>
       <c r="S711" s="13"/>
     </row>
-    <row r="712" spans="2:19" ht="15.75" customHeight="1">
+    <row r="712" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="1"/>
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
@@ -15091,7 +15117,7 @@
       <c r="R712" s="13"/>
       <c r="S712" s="13"/>
     </row>
-    <row r="713" spans="2:19" ht="15.75" customHeight="1">
+    <row r="713" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B713" s="1"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
@@ -15111,7 +15137,7 @@
       <c r="R713" s="13"/>
       <c r="S713" s="13"/>
     </row>
-    <row r="714" spans="2:19" ht="15.75" customHeight="1">
+    <row r="714" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B714" s="1"/>
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
@@ -15131,7 +15157,7 @@
       <c r="R714" s="13"/>
       <c r="S714" s="13"/>
     </row>
-    <row r="715" spans="2:19" ht="15.75" customHeight="1">
+    <row r="715" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B715" s="1"/>
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
@@ -15151,7 +15177,7 @@
       <c r="R715" s="13"/>
       <c r="S715" s="13"/>
     </row>
-    <row r="716" spans="2:19" ht="15.75" customHeight="1">
+    <row r="716" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B716" s="1"/>
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
@@ -15171,7 +15197,7 @@
       <c r="R716" s="13"/>
       <c r="S716" s="13"/>
     </row>
-    <row r="717" spans="2:19" ht="15.75" customHeight="1">
+    <row r="717" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B717" s="1"/>
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
@@ -15191,7 +15217,7 @@
       <c r="R717" s="13"/>
       <c r="S717" s="13"/>
     </row>
-    <row r="718" spans="2:19" ht="15.75" customHeight="1">
+    <row r="718" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B718" s="1"/>
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
@@ -15211,7 +15237,7 @@
       <c r="R718" s="13"/>
       <c r="S718" s="13"/>
     </row>
-    <row r="719" spans="2:19" ht="15.75" customHeight="1">
+    <row r="719" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B719" s="1"/>
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
@@ -15231,7 +15257,7 @@
       <c r="R719" s="13"/>
       <c r="S719" s="13"/>
     </row>
-    <row r="720" spans="2:19" ht="15.75" customHeight="1">
+    <row r="720" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B720" s="1"/>
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
@@ -15251,7 +15277,7 @@
       <c r="R720" s="13"/>
       <c r="S720" s="13"/>
     </row>
-    <row r="721" spans="2:19" ht="15.75" customHeight="1">
+    <row r="721" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B721" s="1"/>
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
@@ -15271,7 +15297,7 @@
       <c r="R721" s="13"/>
       <c r="S721" s="13"/>
     </row>
-    <row r="722" spans="2:19" ht="15.75" customHeight="1">
+    <row r="722" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B722" s="1"/>
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
@@ -15291,7 +15317,7 @@
       <c r="R722" s="13"/>
       <c r="S722" s="13"/>
     </row>
-    <row r="723" spans="2:19" ht="15.75" customHeight="1">
+    <row r="723" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B723" s="1"/>
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
@@ -15311,7 +15337,7 @@
       <c r="R723" s="13"/>
       <c r="S723" s="13"/>
     </row>
-    <row r="724" spans="2:19" ht="15.75" customHeight="1">
+    <row r="724" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B724" s="1"/>
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
@@ -15331,7 +15357,7 @@
       <c r="R724" s="13"/>
       <c r="S724" s="13"/>
     </row>
-    <row r="725" spans="2:19" ht="15.75" customHeight="1">
+    <row r="725" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B725" s="1"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
@@ -15351,7 +15377,7 @@
       <c r="R725" s="13"/>
       <c r="S725" s="13"/>
     </row>
-    <row r="726" spans="2:19" ht="15.75" customHeight="1">
+    <row r="726" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B726" s="1"/>
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
@@ -15371,7 +15397,7 @@
       <c r="R726" s="13"/>
       <c r="S726" s="13"/>
     </row>
-    <row r="727" spans="2:19" ht="15.75" customHeight="1">
+    <row r="727" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B727" s="1"/>
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
@@ -15391,7 +15417,7 @@
       <c r="R727" s="13"/>
       <c r="S727" s="13"/>
     </row>
-    <row r="728" spans="2:19" ht="15.75" customHeight="1">
+    <row r="728" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B728" s="1"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
@@ -15411,7 +15437,7 @@
       <c r="R728" s="13"/>
       <c r="S728" s="13"/>
     </row>
-    <row r="729" spans="2:19" ht="15.75" customHeight="1">
+    <row r="729" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B729" s="1"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
@@ -15431,7 +15457,7 @@
       <c r="R729" s="13"/>
       <c r="S729" s="13"/>
     </row>
-    <row r="730" spans="2:19" ht="15.75" customHeight="1">
+    <row r="730" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B730" s="1"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
@@ -15451,7 +15477,7 @@
       <c r="R730" s="13"/>
       <c r="S730" s="13"/>
     </row>
-    <row r="731" spans="2:19" ht="15.75" customHeight="1">
+    <row r="731" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B731" s="1"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
@@ -15471,7 +15497,7 @@
       <c r="R731" s="13"/>
       <c r="S731" s="13"/>
     </row>
-    <row r="732" spans="2:19" ht="15.75" customHeight="1">
+    <row r="732" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B732" s="1"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
@@ -15491,7 +15517,7 @@
       <c r="R732" s="13"/>
       <c r="S732" s="13"/>
     </row>
-    <row r="733" spans="2:19" ht="15.75" customHeight="1">
+    <row r="733" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B733" s="1"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
@@ -15511,7 +15537,7 @@
       <c r="R733" s="13"/>
       <c r="S733" s="13"/>
     </row>
-    <row r="734" spans="2:19" ht="15.75" customHeight="1">
+    <row r="734" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B734" s="1"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
@@ -15531,7 +15557,7 @@
       <c r="R734" s="13"/>
       <c r="S734" s="13"/>
     </row>
-    <row r="735" spans="2:19" ht="15.75" customHeight="1">
+    <row r="735" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B735" s="1"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
@@ -15551,7 +15577,7 @@
       <c r="R735" s="13"/>
       <c r="S735" s="13"/>
     </row>
-    <row r="736" spans="2:19" ht="15.75" customHeight="1">
+    <row r="736" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B736" s="1"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
@@ -15571,7 +15597,7 @@
       <c r="R736" s="13"/>
       <c r="S736" s="13"/>
     </row>
-    <row r="737" spans="2:19" ht="15.75" customHeight="1">
+    <row r="737" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B737" s="1"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
@@ -15591,7 +15617,7 @@
       <c r="R737" s="13"/>
       <c r="S737" s="13"/>
     </row>
-    <row r="738" spans="2:19" ht="15.75" customHeight="1">
+    <row r="738" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B738" s="1"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
@@ -15611,7 +15637,7 @@
       <c r="R738" s="13"/>
       <c r="S738" s="13"/>
     </row>
-    <row r="739" spans="2:19" ht="15.75" customHeight="1">
+    <row r="739" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B739" s="1"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
@@ -15631,7 +15657,7 @@
       <c r="R739" s="13"/>
       <c r="S739" s="13"/>
     </row>
-    <row r="740" spans="2:19" ht="15.75" customHeight="1">
+    <row r="740" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B740" s="1"/>
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
@@ -15651,7 +15677,7 @@
       <c r="R740" s="13"/>
       <c r="S740" s="13"/>
     </row>
-    <row r="741" spans="2:19" ht="15.75" customHeight="1">
+    <row r="741" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B741" s="1"/>
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
@@ -15671,7 +15697,7 @@
       <c r="R741" s="13"/>
       <c r="S741" s="13"/>
     </row>
-    <row r="742" spans="2:19" ht="15.75" customHeight="1">
+    <row r="742" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B742" s="1"/>
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
@@ -15691,7 +15717,7 @@
       <c r="R742" s="13"/>
       <c r="S742" s="13"/>
     </row>
-    <row r="743" spans="2:19" ht="15.75" customHeight="1">
+    <row r="743" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B743" s="1"/>
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
@@ -15711,7 +15737,7 @@
       <c r="R743" s="13"/>
       <c r="S743" s="13"/>
     </row>
-    <row r="744" spans="2:19" ht="15.75" customHeight="1">
+    <row r="744" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B744" s="1"/>
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
@@ -15731,7 +15757,7 @@
       <c r="R744" s="13"/>
       <c r="S744" s="13"/>
     </row>
-    <row r="745" spans="2:19" ht="15.75" customHeight="1">
+    <row r="745" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B745" s="1"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
@@ -15751,7 +15777,7 @@
       <c r="R745" s="13"/>
       <c r="S745" s="13"/>
     </row>
-    <row r="746" spans="2:19" ht="15.75" customHeight="1">
+    <row r="746" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B746" s="1"/>
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
@@ -15771,7 +15797,7 @@
       <c r="R746" s="13"/>
       <c r="S746" s="13"/>
     </row>
-    <row r="747" spans="2:19" ht="15.75" customHeight="1">
+    <row r="747" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B747" s="1"/>
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
@@ -15791,7 +15817,7 @@
       <c r="R747" s="13"/>
       <c r="S747" s="13"/>
     </row>
-    <row r="748" spans="2:19" ht="15.75" customHeight="1">
+    <row r="748" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B748" s="1"/>
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
@@ -15811,7 +15837,7 @@
       <c r="R748" s="13"/>
       <c r="S748" s="13"/>
     </row>
-    <row r="749" spans="2:19" ht="15.75" customHeight="1">
+    <row r="749" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B749" s="1"/>
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
@@ -15831,7 +15857,7 @@
       <c r="R749" s="13"/>
       <c r="S749" s="13"/>
     </row>
-    <row r="750" spans="2:19" ht="15.75" customHeight="1">
+    <row r="750" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B750" s="1"/>
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
@@ -15851,7 +15877,7 @@
       <c r="R750" s="13"/>
       <c r="S750" s="13"/>
     </row>
-    <row r="751" spans="2:19" ht="15.75" customHeight="1">
+    <row r="751" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B751" s="1"/>
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
@@ -15871,7 +15897,7 @@
       <c r="R751" s="13"/>
       <c r="S751" s="13"/>
     </row>
-    <row r="752" spans="2:19" ht="15.75" customHeight="1">
+    <row r="752" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B752" s="1"/>
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
@@ -15891,7 +15917,7 @@
       <c r="R752" s="13"/>
       <c r="S752" s="13"/>
     </row>
-    <row r="753" spans="2:19" ht="15.75" customHeight="1">
+    <row r="753" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B753" s="1"/>
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
@@ -15911,7 +15937,7 @@
       <c r="R753" s="13"/>
       <c r="S753" s="13"/>
     </row>
-    <row r="754" spans="2:19" ht="15.75" customHeight="1">
+    <row r="754" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B754" s="1"/>
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
@@ -15931,7 +15957,7 @@
       <c r="R754" s="13"/>
       <c r="S754" s="13"/>
     </row>
-    <row r="755" spans="2:19" ht="15.75" customHeight="1">
+    <row r="755" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B755" s="1"/>
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
@@ -15951,7 +15977,7 @@
       <c r="R755" s="13"/>
       <c r="S755" s="13"/>
     </row>
-    <row r="756" spans="2:19" ht="15.75" customHeight="1">
+    <row r="756" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B756" s="1"/>
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
@@ -15971,7 +15997,7 @@
       <c r="R756" s="13"/>
       <c r="S756" s="13"/>
     </row>
-    <row r="757" spans="2:19" ht="15.75" customHeight="1">
+    <row r="757" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B757" s="1"/>
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
@@ -15991,7 +16017,7 @@
       <c r="R757" s="13"/>
       <c r="S757" s="13"/>
     </row>
-    <row r="758" spans="2:19" ht="15.75" customHeight="1">
+    <row r="758" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B758" s="1"/>
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
@@ -16011,7 +16037,7 @@
       <c r="R758" s="13"/>
       <c r="S758" s="13"/>
     </row>
-    <row r="759" spans="2:19" ht="15.75" customHeight="1">
+    <row r="759" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B759" s="1"/>
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
@@ -16031,7 +16057,7 @@
       <c r="R759" s="13"/>
       <c r="S759" s="13"/>
     </row>
-    <row r="760" spans="2:19" ht="15.75" customHeight="1">
+    <row r="760" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B760" s="1"/>
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
@@ -16051,7 +16077,7 @@
       <c r="R760" s="13"/>
       <c r="S760" s="13"/>
     </row>
-    <row r="761" spans="2:19" ht="15.75" customHeight="1">
+    <row r="761" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B761" s="1"/>
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
@@ -16071,7 +16097,7 @@
       <c r="R761" s="13"/>
       <c r="S761" s="13"/>
     </row>
-    <row r="762" spans="2:19" ht="15.75" customHeight="1">
+    <row r="762" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B762" s="1"/>
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
@@ -16091,7 +16117,7 @@
       <c r="R762" s="13"/>
       <c r="S762" s="13"/>
     </row>
-    <row r="763" spans="2:19" ht="15.75" customHeight="1">
+    <row r="763" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B763" s="1"/>
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
@@ -16111,7 +16137,7 @@
       <c r="R763" s="13"/>
       <c r="S763" s="13"/>
     </row>
-    <row r="764" spans="2:19" ht="15.75" customHeight="1">
+    <row r="764" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B764" s="1"/>
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
@@ -16131,7 +16157,7 @@
       <c r="R764" s="13"/>
       <c r="S764" s="13"/>
     </row>
-    <row r="765" spans="2:19" ht="15.75" customHeight="1">
+    <row r="765" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B765" s="1"/>
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
@@ -16151,7 +16177,7 @@
       <c r="R765" s="13"/>
       <c r="S765" s="13"/>
     </row>
-    <row r="766" spans="2:19" ht="15.75" customHeight="1">
+    <row r="766" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B766" s="1"/>
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
@@ -16171,7 +16197,7 @@
       <c r="R766" s="13"/>
       <c r="S766" s="13"/>
     </row>
-    <row r="767" spans="2:19" ht="15.75" customHeight="1">
+    <row r="767" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B767" s="1"/>
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
@@ -16191,7 +16217,7 @@
       <c r="R767" s="13"/>
       <c r="S767" s="13"/>
     </row>
-    <row r="768" spans="2:19" ht="15.75" customHeight="1">
+    <row r="768" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B768" s="1"/>
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
@@ -16211,7 +16237,7 @@
       <c r="R768" s="13"/>
       <c r="S768" s="13"/>
     </row>
-    <row r="769" spans="2:19" ht="15.75" customHeight="1">
+    <row r="769" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B769" s="1"/>
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
@@ -16231,7 +16257,7 @@
       <c r="R769" s="13"/>
       <c r="S769" s="13"/>
     </row>
-    <row r="770" spans="2:19" ht="15.75" customHeight="1">
+    <row r="770" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B770" s="1"/>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
@@ -16251,7 +16277,7 @@
       <c r="R770" s="13"/>
       <c r="S770" s="13"/>
     </row>
-    <row r="771" spans="2:19" ht="15.75" customHeight="1">
+    <row r="771" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B771" s="1"/>
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
@@ -16271,7 +16297,7 @@
       <c r="R771" s="13"/>
       <c r="S771" s="13"/>
     </row>
-    <row r="772" spans="2:19" ht="15.75" customHeight="1">
+    <row r="772" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B772" s="1"/>
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
@@ -16291,7 +16317,7 @@
       <c r="R772" s="13"/>
       <c r="S772" s="13"/>
     </row>
-    <row r="773" spans="2:19" ht="15.75" customHeight="1">
+    <row r="773" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B773" s="1"/>
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
@@ -16311,7 +16337,7 @@
       <c r="R773" s="13"/>
       <c r="S773" s="13"/>
     </row>
-    <row r="774" spans="2:19" ht="15.75" customHeight="1">
+    <row r="774" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B774" s="1"/>
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
@@ -16331,7 +16357,7 @@
       <c r="R774" s="13"/>
       <c r="S774" s="13"/>
     </row>
-    <row r="775" spans="2:19" ht="15.75" customHeight="1">
+    <row r="775" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B775" s="1"/>
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
@@ -16351,7 +16377,7 @@
       <c r="R775" s="13"/>
       <c r="S775" s="13"/>
     </row>
-    <row r="776" spans="2:19" ht="15.75" customHeight="1">
+    <row r="776" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B776" s="1"/>
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
@@ -16371,7 +16397,7 @@
       <c r="R776" s="13"/>
       <c r="S776" s="13"/>
     </row>
-    <row r="777" spans="2:19" ht="15.75" customHeight="1">
+    <row r="777" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B777" s="1"/>
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
@@ -16391,7 +16417,7 @@
       <c r="R777" s="13"/>
       <c r="S777" s="13"/>
     </row>
-    <row r="778" spans="2:19" ht="15.75" customHeight="1">
+    <row r="778" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B778" s="1"/>
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
@@ -16411,7 +16437,7 @@
       <c r="R778" s="13"/>
       <c r="S778" s="13"/>
     </row>
-    <row r="779" spans="2:19" ht="15.75" customHeight="1">
+    <row r="779" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B779" s="1"/>
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
@@ -16431,7 +16457,7 @@
       <c r="R779" s="13"/>
       <c r="S779" s="13"/>
     </row>
-    <row r="780" spans="2:19" ht="15.75" customHeight="1">
+    <row r="780" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B780" s="1"/>
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
@@ -16451,7 +16477,7 @@
       <c r="R780" s="13"/>
       <c r="S780" s="13"/>
     </row>
-    <row r="781" spans="2:19" ht="15.75" customHeight="1">
+    <row r="781" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B781" s="1"/>
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
@@ -16471,7 +16497,7 @@
       <c r="R781" s="13"/>
       <c r="S781" s="13"/>
     </row>
-    <row r="782" spans="2:19" ht="15.75" customHeight="1">
+    <row r="782" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B782" s="1"/>
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
@@ -16491,7 +16517,7 @@
       <c r="R782" s="13"/>
       <c r="S782" s="13"/>
     </row>
-    <row r="783" spans="2:19" ht="15.75" customHeight="1">
+    <row r="783" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B783" s="1"/>
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
@@ -16511,7 +16537,7 @@
       <c r="R783" s="13"/>
       <c r="S783" s="13"/>
     </row>
-    <row r="784" spans="2:19" ht="15.75" customHeight="1">
+    <row r="784" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B784" s="1"/>
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
@@ -16531,7 +16557,7 @@
       <c r="R784" s="13"/>
       <c r="S784" s="13"/>
     </row>
-    <row r="785" spans="2:19" ht="15.75" customHeight="1">
+    <row r="785" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B785" s="1"/>
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
@@ -16551,7 +16577,7 @@
       <c r="R785" s="13"/>
       <c r="S785" s="13"/>
     </row>
-    <row r="786" spans="2:19" ht="15.75" customHeight="1">
+    <row r="786" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B786" s="1"/>
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
@@ -16571,7 +16597,7 @@
       <c r="R786" s="13"/>
       <c r="S786" s="13"/>
     </row>
-    <row r="787" spans="2:19" ht="15.75" customHeight="1">
+    <row r="787" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B787" s="1"/>
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
@@ -16591,7 +16617,7 @@
       <c r="R787" s="13"/>
       <c r="S787" s="13"/>
     </row>
-    <row r="788" spans="2:19" ht="15.75" customHeight="1">
+    <row r="788" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B788" s="1"/>
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
@@ -16611,7 +16637,7 @@
       <c r="R788" s="13"/>
       <c r="S788" s="13"/>
     </row>
-    <row r="789" spans="2:19" ht="15.75" customHeight="1">
+    <row r="789" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B789" s="1"/>
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
@@ -16631,7 +16657,7 @@
       <c r="R789" s="13"/>
       <c r="S789" s="13"/>
     </row>
-    <row r="790" spans="2:19" ht="15.75" customHeight="1">
+    <row r="790" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B790" s="1"/>
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
@@ -16651,7 +16677,7 @@
       <c r="R790" s="13"/>
       <c r="S790" s="13"/>
     </row>
-    <row r="791" spans="2:19" ht="15.75" customHeight="1">
+    <row r="791" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B791" s="1"/>
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
@@ -16671,7 +16697,7 @@
       <c r="R791" s="13"/>
       <c r="S791" s="13"/>
     </row>
-    <row r="792" spans="2:19" ht="15.75" customHeight="1">
+    <row r="792" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B792" s="1"/>
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
@@ -16691,7 +16717,7 @@
       <c r="R792" s="13"/>
       <c r="S792" s="13"/>
     </row>
-    <row r="793" spans="2:19" ht="15.75" customHeight="1">
+    <row r="793" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B793" s="1"/>
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
@@ -16711,7 +16737,7 @@
       <c r="R793" s="13"/>
       <c r="S793" s="13"/>
     </row>
-    <row r="794" spans="2:19" ht="15.75" customHeight="1">
+    <row r="794" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B794" s="1"/>
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
@@ -16731,7 +16757,7 @@
       <c r="R794" s="13"/>
       <c r="S794" s="13"/>
     </row>
-    <row r="795" spans="2:19" ht="15.75" customHeight="1">
+    <row r="795" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B795" s="1"/>
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
@@ -16751,7 +16777,7 @@
       <c r="R795" s="13"/>
       <c r="S795" s="13"/>
     </row>
-    <row r="796" spans="2:19" ht="15.75" customHeight="1">
+    <row r="796" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B796" s="1"/>
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
@@ -16771,7 +16797,7 @@
       <c r="R796" s="13"/>
       <c r="S796" s="13"/>
     </row>
-    <row r="797" spans="2:19" ht="15.75" customHeight="1">
+    <row r="797" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B797" s="1"/>
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
@@ -16791,7 +16817,7 @@
       <c r="R797" s="13"/>
       <c r="S797" s="13"/>
     </row>
-    <row r="798" spans="2:19" ht="15.75" customHeight="1">
+    <row r="798" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B798" s="1"/>
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
@@ -16811,7 +16837,7 @@
       <c r="R798" s="13"/>
       <c r="S798" s="13"/>
     </row>
-    <row r="799" spans="2:19" ht="15.75" customHeight="1">
+    <row r="799" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B799" s="1"/>
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
@@ -16831,7 +16857,7 @@
       <c r="R799" s="13"/>
       <c r="S799" s="13"/>
     </row>
-    <row r="800" spans="2:19" ht="15.75" customHeight="1">
+    <row r="800" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B800" s="1"/>
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
@@ -16851,7 +16877,7 @@
       <c r="R800" s="13"/>
       <c r="S800" s="13"/>
     </row>
-    <row r="801" spans="2:19" ht="15.75" customHeight="1">
+    <row r="801" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B801" s="1"/>
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
@@ -16871,7 +16897,7 @@
       <c r="R801" s="13"/>
       <c r="S801" s="13"/>
     </row>
-    <row r="802" spans="2:19" ht="15.75" customHeight="1">
+    <row r="802" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B802" s="1"/>
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
@@ -16891,7 +16917,7 @@
       <c r="R802" s="13"/>
       <c r="S802" s="13"/>
     </row>
-    <row r="803" spans="2:19" ht="15.75" customHeight="1">
+    <row r="803" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B803" s="1"/>
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
@@ -16911,7 +16937,7 @@
       <c r="R803" s="13"/>
       <c r="S803" s="13"/>
     </row>
-    <row r="804" spans="2:19" ht="15.75" customHeight="1">
+    <row r="804" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B804" s="1"/>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
@@ -16931,7 +16957,7 @@
       <c r="R804" s="13"/>
       <c r="S804" s="13"/>
     </row>
-    <row r="805" spans="2:19" ht="15.75" customHeight="1">
+    <row r="805" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B805" s="1"/>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
@@ -16951,7 +16977,7 @@
       <c r="R805" s="13"/>
       <c r="S805" s="13"/>
     </row>
-    <row r="806" spans="2:19" ht="15.75" customHeight="1">
+    <row r="806" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B806" s="1"/>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
@@ -16971,7 +16997,7 @@
       <c r="R806" s="13"/>
       <c r="S806" s="13"/>
     </row>
-    <row r="807" spans="2:19" ht="15.75" customHeight="1">
+    <row r="807" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B807" s="1"/>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
@@ -16991,7 +17017,7 @@
       <c r="R807" s="13"/>
       <c r="S807" s="13"/>
     </row>
-    <row r="808" spans="2:19" ht="15.75" customHeight="1">
+    <row r="808" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B808" s="1"/>
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
@@ -17011,7 +17037,7 @@
       <c r="R808" s="13"/>
       <c r="S808" s="13"/>
     </row>
-    <row r="809" spans="2:19" ht="15.75" customHeight="1">
+    <row r="809" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B809" s="1"/>
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
@@ -17031,7 +17057,7 @@
       <c r="R809" s="13"/>
       <c r="S809" s="13"/>
     </row>
-    <row r="810" spans="2:19" ht="15.75" customHeight="1">
+    <row r="810" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B810" s="1"/>
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
@@ -17051,7 +17077,7 @@
       <c r="R810" s="13"/>
       <c r="S810" s="13"/>
     </row>
-    <row r="811" spans="2:19" ht="15.75" customHeight="1">
+    <row r="811" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B811" s="1"/>
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
@@ -17071,7 +17097,7 @@
       <c r="R811" s="13"/>
       <c r="S811" s="13"/>
     </row>
-    <row r="812" spans="2:19" ht="15.75" customHeight="1">
+    <row r="812" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B812" s="1"/>
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
@@ -17091,7 +17117,7 @@
       <c r="R812" s="13"/>
       <c r="S812" s="13"/>
     </row>
-    <row r="813" spans="2:19" ht="15.75" customHeight="1">
+    <row r="813" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B813" s="1"/>
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
@@ -17111,7 +17137,7 @@
       <c r="R813" s="13"/>
       <c r="S813" s="13"/>
     </row>
-    <row r="814" spans="2:19" ht="15.75" customHeight="1">
+    <row r="814" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B814" s="1"/>
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
@@ -17131,7 +17157,7 @@
       <c r="R814" s="13"/>
       <c r="S814" s="13"/>
     </row>
-    <row r="815" spans="2:19" ht="15.75" customHeight="1">
+    <row r="815" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B815" s="1"/>
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
@@ -17151,7 +17177,7 @@
       <c r="R815" s="13"/>
       <c r="S815" s="13"/>
     </row>
-    <row r="816" spans="2:19" ht="15.75" customHeight="1">
+    <row r="816" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B816" s="1"/>
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
@@ -17171,7 +17197,7 @@
       <c r="R816" s="13"/>
       <c r="S816" s="13"/>
     </row>
-    <row r="817" spans="2:19" ht="15.75" customHeight="1">
+    <row r="817" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B817" s="1"/>
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
@@ -17191,7 +17217,7 @@
       <c r="R817" s="13"/>
       <c r="S817" s="13"/>
     </row>
-    <row r="818" spans="2:19" ht="15.75" customHeight="1">
+    <row r="818" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B818" s="1"/>
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
@@ -17211,7 +17237,7 @@
       <c r="R818" s="13"/>
       <c r="S818" s="13"/>
     </row>
-    <row r="819" spans="2:19" ht="15.75" customHeight="1">
+    <row r="819" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B819" s="1"/>
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
@@ -17231,7 +17257,7 @@
       <c r="R819" s="13"/>
       <c r="S819" s="13"/>
     </row>
-    <row r="820" spans="2:19" ht="15.75" customHeight="1">
+    <row r="820" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B820" s="1"/>
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
@@ -17251,7 +17277,7 @@
       <c r="R820" s="13"/>
       <c r="S820" s="13"/>
     </row>
-    <row r="821" spans="2:19" ht="15.75" customHeight="1">
+    <row r="821" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B821" s="1"/>
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
@@ -17271,7 +17297,7 @@
       <c r="R821" s="13"/>
       <c r="S821" s="13"/>
     </row>
-    <row r="822" spans="2:19" ht="15.75" customHeight="1">
+    <row r="822" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B822" s="1"/>
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
@@ -17291,7 +17317,7 @@
       <c r="R822" s="13"/>
       <c r="S822" s="13"/>
     </row>
-    <row r="823" spans="2:19" ht="15.75" customHeight="1">
+    <row r="823" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B823" s="1"/>
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
@@ -17311,7 +17337,7 @@
       <c r="R823" s="13"/>
       <c r="S823" s="13"/>
     </row>
-    <row r="824" spans="2:19" ht="15.75" customHeight="1">
+    <row r="824" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B824" s="1"/>
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
@@ -17331,7 +17357,7 @@
       <c r="R824" s="13"/>
       <c r="S824" s="13"/>
     </row>
-    <row r="825" spans="2:19" ht="15.75" customHeight="1">
+    <row r="825" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B825" s="1"/>
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
@@ -17351,7 +17377,7 @@
       <c r="R825" s="13"/>
       <c r="S825" s="13"/>
     </row>
-    <row r="826" spans="2:19" ht="15.75" customHeight="1">
+    <row r="826" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B826" s="1"/>
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
@@ -17371,7 +17397,7 @@
       <c r="R826" s="13"/>
       <c r="S826" s="13"/>
     </row>
-    <row r="827" spans="2:19" ht="15.75" customHeight="1">
+    <row r="827" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B827" s="1"/>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
@@ -17391,7 +17417,7 @@
       <c r="R827" s="13"/>
       <c r="S827" s="13"/>
     </row>
-    <row r="828" spans="2:19" ht="15.75" customHeight="1">
+    <row r="828" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B828" s="1"/>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
@@ -17411,7 +17437,7 @@
       <c r="R828" s="13"/>
       <c r="S828" s="13"/>
     </row>
-    <row r="829" spans="2:19" ht="15.75" customHeight="1">
+    <row r="829" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B829" s="1"/>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
@@ -17431,7 +17457,7 @@
       <c r="R829" s="13"/>
       <c r="S829" s="13"/>
     </row>
-    <row r="830" spans="2:19" ht="15.75" customHeight="1">
+    <row r="830" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B830" s="1"/>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
@@ -17451,7 +17477,7 @@
       <c r="R830" s="13"/>
       <c r="S830" s="13"/>
     </row>
-    <row r="831" spans="2:19" ht="15.75" customHeight="1">
+    <row r="831" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B831" s="1"/>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
@@ -17471,7 +17497,7 @@
       <c r="R831" s="13"/>
       <c r="S831" s="13"/>
     </row>
-    <row r="832" spans="2:19" ht="15.75" customHeight="1">
+    <row r="832" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B832" s="1"/>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
@@ -17491,7 +17517,7 @@
       <c r="R832" s="13"/>
       <c r="S832" s="13"/>
     </row>
-    <row r="833" spans="2:19" ht="15.75" customHeight="1">
+    <row r="833" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B833" s="1"/>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
@@ -17511,7 +17537,7 @@
       <c r="R833" s="13"/>
       <c r="S833" s="13"/>
     </row>
-    <row r="834" spans="2:19" ht="15.75" customHeight="1">
+    <row r="834" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B834" s="1"/>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
@@ -17531,7 +17557,7 @@
       <c r="R834" s="13"/>
       <c r="S834" s="13"/>
     </row>
-    <row r="835" spans="2:19" ht="15.75" customHeight="1">
+    <row r="835" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B835" s="1"/>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
@@ -17551,7 +17577,7 @@
       <c r="R835" s="13"/>
       <c r="S835" s="13"/>
     </row>
-    <row r="836" spans="2:19" ht="15.75" customHeight="1">
+    <row r="836" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B836" s="1"/>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
@@ -17571,7 +17597,7 @@
       <c r="R836" s="13"/>
       <c r="S836" s="13"/>
     </row>
-    <row r="837" spans="2:19" ht="15.75" customHeight="1">
+    <row r="837" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B837" s="1"/>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
@@ -17591,7 +17617,7 @@
       <c r="R837" s="13"/>
       <c r="S837" s="13"/>
     </row>
-    <row r="838" spans="2:19" ht="15.75" customHeight="1">
+    <row r="838" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B838" s="1"/>
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
@@ -17611,7 +17637,7 @@
       <c r="R838" s="13"/>
       <c r="S838" s="13"/>
     </row>
-    <row r="839" spans="2:19" ht="15.75" customHeight="1">
+    <row r="839" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B839" s="1"/>
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
@@ -17631,7 +17657,7 @@
       <c r="R839" s="13"/>
       <c r="S839" s="13"/>
     </row>
-    <row r="840" spans="2:19" ht="15.75" customHeight="1">
+    <row r="840" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B840" s="1"/>
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
@@ -17651,7 +17677,7 @@
       <c r="R840" s="13"/>
       <c r="S840" s="13"/>
     </row>
-    <row r="841" spans="2:19" ht="15.75" customHeight="1">
+    <row r="841" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B841" s="1"/>
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
@@ -17671,7 +17697,7 @@
       <c r="R841" s="13"/>
       <c r="S841" s="13"/>
     </row>
-    <row r="842" spans="2:19" ht="15.75" customHeight="1">
+    <row r="842" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B842" s="1"/>
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
@@ -17691,7 +17717,7 @@
       <c r="R842" s="13"/>
       <c r="S842" s="13"/>
     </row>
-    <row r="843" spans="2:19" ht="15.75" customHeight="1">
+    <row r="843" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B843" s="1"/>
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
@@ -17711,7 +17737,7 @@
       <c r="R843" s="13"/>
       <c r="S843" s="13"/>
     </row>
-    <row r="844" spans="2:19" ht="15.75" customHeight="1">
+    <row r="844" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B844" s="1"/>
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
@@ -17731,7 +17757,7 @@
       <c r="R844" s="13"/>
       <c r="S844" s="13"/>
     </row>
-    <row r="845" spans="2:19" ht="15.75" customHeight="1">
+    <row r="845" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B845" s="1"/>
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
@@ -17751,7 +17777,7 @@
       <c r="R845" s="13"/>
       <c r="S845" s="13"/>
     </row>
-    <row r="846" spans="2:19" ht="15.75" customHeight="1">
+    <row r="846" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B846" s="1"/>
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
@@ -17771,7 +17797,7 @@
       <c r="R846" s="13"/>
       <c r="S846" s="13"/>
     </row>
-    <row r="847" spans="2:19" ht="15.75" customHeight="1">
+    <row r="847" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B847" s="1"/>
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
@@ -17791,7 +17817,7 @@
       <c r="R847" s="13"/>
       <c r="S847" s="13"/>
     </row>
-    <row r="848" spans="2:19" ht="15.75" customHeight="1">
+    <row r="848" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B848" s="1"/>
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
@@ -17811,7 +17837,7 @@
       <c r="R848" s="13"/>
       <c r="S848" s="13"/>
     </row>
-    <row r="849" spans="2:19" ht="15.75" customHeight="1">
+    <row r="849" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B849" s="1"/>
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
@@ -17831,7 +17857,7 @@
       <c r="R849" s="13"/>
       <c r="S849" s="13"/>
     </row>
-    <row r="850" spans="2:19" ht="15.75" customHeight="1">
+    <row r="850" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B850" s="1"/>
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
@@ -17851,7 +17877,7 @@
       <c r="R850" s="13"/>
       <c r="S850" s="13"/>
     </row>
-    <row r="851" spans="2:19" ht="15.75" customHeight="1">
+    <row r="851" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B851" s="1"/>
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
@@ -17871,7 +17897,7 @@
       <c r="R851" s="13"/>
       <c r="S851" s="13"/>
     </row>
-    <row r="852" spans="2:19" ht="15.75" customHeight="1">
+    <row r="852" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B852" s="1"/>
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
@@ -17891,7 +17917,7 @@
       <c r="R852" s="13"/>
       <c r="S852" s="13"/>
     </row>
-    <row r="853" spans="2:19" ht="15.75" customHeight="1">
+    <row r="853" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B853" s="1"/>
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
@@ -17911,7 +17937,7 @@
       <c r="R853" s="13"/>
       <c r="S853" s="13"/>
     </row>
-    <row r="854" spans="2:19" ht="15.75" customHeight="1">
+    <row r="854" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B854" s="1"/>
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
@@ -17931,7 +17957,7 @@
       <c r="R854" s="13"/>
       <c r="S854" s="13"/>
     </row>
-    <row r="855" spans="2:19" ht="15.75" customHeight="1">
+    <row r="855" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B855" s="1"/>
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
@@ -17951,7 +17977,7 @@
       <c r="R855" s="13"/>
       <c r="S855" s="13"/>
     </row>
-    <row r="856" spans="2:19" ht="15.75" customHeight="1">
+    <row r="856" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B856" s="1"/>
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
@@ -17971,7 +17997,7 @@
       <c r="R856" s="13"/>
       <c r="S856" s="13"/>
     </row>
-    <row r="857" spans="2:19" ht="15.75" customHeight="1">
+    <row r="857" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B857" s="1"/>
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
@@ -17991,7 +18017,7 @@
       <c r="R857" s="13"/>
       <c r="S857" s="13"/>
     </row>
-    <row r="858" spans="2:19" ht="15.75" customHeight="1">
+    <row r="858" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B858" s="1"/>
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
@@ -18011,7 +18037,7 @@
       <c r="R858" s="13"/>
       <c r="S858" s="13"/>
     </row>
-    <row r="859" spans="2:19" ht="15.75" customHeight="1">
+    <row r="859" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B859" s="1"/>
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
@@ -18031,7 +18057,7 @@
       <c r="R859" s="13"/>
       <c r="S859" s="13"/>
     </row>
-    <row r="860" spans="2:19" ht="15.75" customHeight="1">
+    <row r="860" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B860" s="1"/>
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
@@ -18051,7 +18077,7 @@
       <c r="R860" s="13"/>
       <c r="S860" s="13"/>
     </row>
-    <row r="861" spans="2:19" ht="15.75" customHeight="1">
+    <row r="861" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B861" s="1"/>
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
@@ -18071,7 +18097,7 @@
       <c r="R861" s="13"/>
       <c r="S861" s="13"/>
     </row>
-    <row r="862" spans="2:19" ht="15.75" customHeight="1">
+    <row r="862" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B862" s="1"/>
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
@@ -18091,7 +18117,7 @@
       <c r="R862" s="13"/>
       <c r="S862" s="13"/>
     </row>
-    <row r="863" spans="2:19" ht="15.75" customHeight="1">
+    <row r="863" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B863" s="1"/>
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
@@ -18111,7 +18137,7 @@
       <c r="R863" s="13"/>
       <c r="S863" s="13"/>
     </row>
-    <row r="864" spans="2:19" ht="15.75" customHeight="1">
+    <row r="864" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B864" s="1"/>
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
@@ -18131,7 +18157,7 @@
       <c r="R864" s="13"/>
       <c r="S864" s="13"/>
     </row>
-    <row r="865" spans="2:19" ht="15.75" customHeight="1">
+    <row r="865" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B865" s="1"/>
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
@@ -18151,7 +18177,7 @@
       <c r="R865" s="13"/>
       <c r="S865" s="13"/>
     </row>
-    <row r="866" spans="2:19" ht="15.75" customHeight="1">
+    <row r="866" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B866" s="1"/>
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
@@ -18171,7 +18197,7 @@
       <c r="R866" s="13"/>
       <c r="S866" s="13"/>
     </row>
-    <row r="867" spans="2:19" ht="15.75" customHeight="1">
+    <row r="867" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B867" s="1"/>
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
@@ -18191,7 +18217,7 @@
       <c r="R867" s="13"/>
       <c r="S867" s="13"/>
     </row>
-    <row r="868" spans="2:19" ht="15.75" customHeight="1">
+    <row r="868" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B868" s="1"/>
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
@@ -18211,7 +18237,7 @@
       <c r="R868" s="13"/>
       <c r="S868" s="13"/>
     </row>
-    <row r="869" spans="2:19" ht="15.75" customHeight="1">
+    <row r="869" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B869" s="1"/>
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
@@ -18231,7 +18257,7 @@
       <c r="R869" s="13"/>
       <c r="S869" s="13"/>
     </row>
-    <row r="870" spans="2:19" ht="15.75" customHeight="1">
+    <row r="870" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B870" s="1"/>
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
@@ -18251,7 +18277,7 @@
       <c r="R870" s="13"/>
       <c r="S870" s="13"/>
     </row>
-    <row r="871" spans="2:19" ht="15.75" customHeight="1">
+    <row r="871" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B871" s="1"/>
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
@@ -18271,7 +18297,7 @@
       <c r="R871" s="13"/>
       <c r="S871" s="13"/>
     </row>
-    <row r="872" spans="2:19" ht="15.75" customHeight="1">
+    <row r="872" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B872" s="1"/>
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
@@ -18291,7 +18317,7 @@
       <c r="R872" s="13"/>
       <c r="S872" s="13"/>
     </row>
-    <row r="873" spans="2:19" ht="15.75" customHeight="1">
+    <row r="873" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B873" s="1"/>
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
@@ -18311,7 +18337,7 @@
       <c r="R873" s="13"/>
       <c r="S873" s="13"/>
     </row>
-    <row r="874" spans="2:19" ht="15.75" customHeight="1">
+    <row r="874" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B874" s="1"/>
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
@@ -18331,7 +18357,7 @@
       <c r="R874" s="13"/>
       <c r="S874" s="13"/>
     </row>
-    <row r="875" spans="2:19" ht="15.75" customHeight="1">
+    <row r="875" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B875" s="1"/>
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
@@ -18351,7 +18377,7 @@
       <c r="R875" s="13"/>
       <c r="S875" s="13"/>
     </row>
-    <row r="876" spans="2:19" ht="15.75" customHeight="1">
+    <row r="876" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B876" s="1"/>
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
@@ -18371,7 +18397,7 @@
       <c r="R876" s="13"/>
       <c r="S876" s="13"/>
     </row>
-    <row r="877" spans="2:19" ht="15.75" customHeight="1">
+    <row r="877" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B877" s="1"/>
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
@@ -18391,7 +18417,7 @@
       <c r="R877" s="13"/>
       <c r="S877" s="13"/>
     </row>
-    <row r="878" spans="2:19" ht="15.75" customHeight="1">
+    <row r="878" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B878" s="1"/>
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
@@ -18411,7 +18437,7 @@
       <c r="R878" s="13"/>
       <c r="S878" s="13"/>
     </row>
-    <row r="879" spans="2:19" ht="15.75" customHeight="1">
+    <row r="879" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B879" s="1"/>
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
@@ -18431,7 +18457,7 @@
       <c r="R879" s="13"/>
       <c r="S879" s="13"/>
     </row>
-    <row r="880" spans="2:19" ht="15.75" customHeight="1">
+    <row r="880" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B880" s="1"/>
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
@@ -18451,7 +18477,7 @@
       <c r="R880" s="13"/>
       <c r="S880" s="13"/>
     </row>
-    <row r="881" spans="2:19" ht="15.75" customHeight="1">
+    <row r="881" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B881" s="1"/>
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
@@ -18471,7 +18497,7 @@
       <c r="R881" s="13"/>
       <c r="S881" s="13"/>
     </row>
-    <row r="882" spans="2:19" ht="15.75" customHeight="1">
+    <row r="882" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B882" s="1"/>
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
@@ -18491,7 +18517,7 @@
       <c r="R882" s="13"/>
       <c r="S882" s="13"/>
     </row>
-    <row r="883" spans="2:19" ht="15.75" customHeight="1">
+    <row r="883" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B883" s="1"/>
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
@@ -18511,7 +18537,7 @@
       <c r="R883" s="13"/>
       <c r="S883" s="13"/>
     </row>
-    <row r="884" spans="2:19" ht="15.75" customHeight="1">
+    <row r="884" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B884" s="1"/>
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
@@ -18531,7 +18557,7 @@
       <c r="R884" s="13"/>
       <c r="S884" s="13"/>
     </row>
-    <row r="885" spans="2:19" ht="15.75" customHeight="1">
+    <row r="885" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B885" s="1"/>
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
@@ -18551,7 +18577,7 @@
       <c r="R885" s="13"/>
       <c r="S885" s="13"/>
     </row>
-    <row r="886" spans="2:19" ht="15.75" customHeight="1">
+    <row r="886" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B886" s="1"/>
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
@@ -18571,7 +18597,7 @@
       <c r="R886" s="13"/>
       <c r="S886" s="13"/>
     </row>
-    <row r="887" spans="2:19" ht="15.75" customHeight="1">
+    <row r="887" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="1"/>
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
@@ -18591,7 +18617,7 @@
       <c r="R887" s="13"/>
       <c r="S887" s="13"/>
     </row>
-    <row r="888" spans="2:19" ht="15.75" customHeight="1">
+    <row r="888" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B888" s="1"/>
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
@@ -18611,7 +18637,7 @@
       <c r="R888" s="13"/>
       <c r="S888" s="13"/>
     </row>
-    <row r="889" spans="2:19" ht="15.75" customHeight="1">
+    <row r="889" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B889" s="1"/>
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
@@ -18631,7 +18657,7 @@
       <c r="R889" s="13"/>
       <c r="S889" s="13"/>
     </row>
-    <row r="890" spans="2:19" ht="15.75" customHeight="1">
+    <row r="890" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B890" s="1"/>
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
@@ -18651,7 +18677,7 @@
       <c r="R890" s="13"/>
       <c r="S890" s="13"/>
     </row>
-    <row r="891" spans="2:19" ht="15.75" customHeight="1">
+    <row r="891" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B891" s="1"/>
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
@@ -18671,7 +18697,7 @@
       <c r="R891" s="13"/>
       <c r="S891" s="13"/>
     </row>
-    <row r="892" spans="2:19" ht="15.75" customHeight="1">
+    <row r="892" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B892" s="1"/>
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
@@ -18691,7 +18717,7 @@
       <c r="R892" s="13"/>
       <c r="S892" s="13"/>
     </row>
-    <row r="893" spans="2:19" ht="15.75" customHeight="1">
+    <row r="893" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B893" s="1"/>
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
@@ -18711,7 +18737,7 @@
       <c r="R893" s="13"/>
       <c r="S893" s="13"/>
     </row>
-    <row r="894" spans="2:19" ht="15.75" customHeight="1">
+    <row r="894" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B894" s="1"/>
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
@@ -18731,7 +18757,7 @@
       <c r="R894" s="13"/>
       <c r="S894" s="13"/>
     </row>
-    <row r="895" spans="2:19" ht="15.75" customHeight="1">
+    <row r="895" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B895" s="1"/>
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
@@ -18751,7 +18777,7 @@
       <c r="R895" s="13"/>
       <c r="S895" s="13"/>
     </row>
-    <row r="896" spans="2:19" ht="15.75" customHeight="1">
+    <row r="896" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B896" s="1"/>
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
@@ -18771,7 +18797,7 @@
       <c r="R896" s="13"/>
       <c r="S896" s="13"/>
     </row>
-    <row r="897" spans="2:19" ht="15.75" customHeight="1">
+    <row r="897" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B897" s="1"/>
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
@@ -18791,7 +18817,7 @@
       <c r="R897" s="13"/>
       <c r="S897" s="13"/>
     </row>
-    <row r="898" spans="2:19" ht="15.75" customHeight="1">
+    <row r="898" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B898" s="1"/>
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
@@ -18811,7 +18837,7 @@
       <c r="R898" s="13"/>
       <c r="S898" s="13"/>
     </row>
-    <row r="899" spans="2:19" ht="15.75" customHeight="1">
+    <row r="899" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B899" s="1"/>
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
@@ -18831,7 +18857,7 @@
       <c r="R899" s="13"/>
       <c r="S899" s="13"/>
     </row>
-    <row r="900" spans="2:19" ht="15.75" customHeight="1">
+    <row r="900" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B900" s="1"/>
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
@@ -18851,7 +18877,7 @@
       <c r="R900" s="13"/>
       <c r="S900" s="13"/>
     </row>
-    <row r="901" spans="2:19" ht="15.75" customHeight="1">
+    <row r="901" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B901" s="1"/>
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
@@ -18871,7 +18897,7 @@
       <c r="R901" s="13"/>
       <c r="S901" s="13"/>
     </row>
-    <row r="902" spans="2:19" ht="15.75" customHeight="1">
+    <row r="902" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B902" s="1"/>
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
@@ -18891,7 +18917,7 @@
       <c r="R902" s="13"/>
       <c r="S902" s="13"/>
     </row>
-    <row r="903" spans="2:19" ht="15.75" customHeight="1">
+    <row r="903" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B903" s="1"/>
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
@@ -18911,7 +18937,7 @@
       <c r="R903" s="13"/>
       <c r="S903" s="13"/>
     </row>
-    <row r="904" spans="2:19" ht="15.75" customHeight="1">
+    <row r="904" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B904" s="1"/>
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
@@ -18931,7 +18957,7 @@
       <c r="R904" s="13"/>
       <c r="S904" s="13"/>
     </row>
-    <row r="905" spans="2:19" ht="15.75" customHeight="1">
+    <row r="905" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B905" s="1"/>
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
@@ -18951,7 +18977,7 @@
       <c r="R905" s="13"/>
       <c r="S905" s="13"/>
     </row>
-    <row r="906" spans="2:19" ht="15.75" customHeight="1">
+    <row r="906" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B906" s="1"/>
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
@@ -18971,7 +18997,7 @@
       <c r="R906" s="13"/>
       <c r="S906" s="13"/>
     </row>
-    <row r="907" spans="2:19" ht="15.75" customHeight="1">
+    <row r="907" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B907" s="1"/>
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
@@ -18991,7 +19017,7 @@
       <c r="R907" s="13"/>
       <c r="S907" s="13"/>
     </row>
-    <row r="908" spans="2:19" ht="15.75" customHeight="1">
+    <row r="908" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B908" s="1"/>
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
@@ -19011,7 +19037,7 @@
       <c r="R908" s="13"/>
       <c r="S908" s="13"/>
     </row>
-    <row r="909" spans="2:19" ht="15.75" customHeight="1">
+    <row r="909" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B909" s="1"/>
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
@@ -19031,7 +19057,7 @@
       <c r="R909" s="13"/>
       <c r="S909" s="13"/>
     </row>
-    <row r="910" spans="2:19" ht="15.75" customHeight="1">
+    <row r="910" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B910" s="1"/>
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
@@ -19051,7 +19077,7 @@
       <c r="R910" s="13"/>
       <c r="S910" s="13"/>
     </row>
-    <row r="911" spans="2:19" ht="15.75" customHeight="1">
+    <row r="911" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B911" s="1"/>
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
@@ -19071,7 +19097,7 @@
       <c r="R911" s="13"/>
       <c r="S911" s="13"/>
     </row>
-    <row r="912" spans="2:19" ht="15.75" customHeight="1">
+    <row r="912" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B912" s="1"/>
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
@@ -19091,7 +19117,7 @@
       <c r="R912" s="13"/>
       <c r="S912" s="13"/>
     </row>
-    <row r="913" spans="2:19" ht="15.75" customHeight="1">
+    <row r="913" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B913" s="1"/>
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
@@ -19111,7 +19137,7 @@
       <c r="R913" s="13"/>
       <c r="S913" s="13"/>
     </row>
-    <row r="914" spans="2:19" ht="15.75" customHeight="1">
+    <row r="914" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B914" s="1"/>
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
@@ -19131,7 +19157,7 @@
       <c r="R914" s="13"/>
       <c r="S914" s="13"/>
     </row>
-    <row r="915" spans="2:19" ht="15.75" customHeight="1">
+    <row r="915" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B915" s="1"/>
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
@@ -19151,7 +19177,7 @@
       <c r="R915" s="13"/>
       <c r="S915" s="13"/>
     </row>
-    <row r="916" spans="2:19" ht="15.75" customHeight="1">
+    <row r="916" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B916" s="1"/>
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
@@ -19171,7 +19197,7 @@
       <c r="R916" s="13"/>
       <c r="S916" s="13"/>
     </row>
-    <row r="917" spans="2:19" ht="15.75" customHeight="1">
+    <row r="917" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B917" s="1"/>
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
@@ -19191,7 +19217,7 @@
       <c r="R917" s="13"/>
       <c r="S917" s="13"/>
     </row>
-    <row r="918" spans="2:19" ht="15.75" customHeight="1">
+    <row r="918" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B918" s="1"/>
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
@@ -19211,7 +19237,7 @@
       <c r="R918" s="13"/>
       <c r="S918" s="13"/>
     </row>
-    <row r="919" spans="2:19" ht="15.75" customHeight="1">
+    <row r="919" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B919" s="1"/>
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
@@ -19231,7 +19257,7 @@
       <c r="R919" s="13"/>
       <c r="S919" s="13"/>
     </row>
-    <row r="920" spans="2:19" ht="15.75" customHeight="1">
+    <row r="920" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B920" s="1"/>
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
@@ -19251,7 +19277,7 @@
       <c r="R920" s="13"/>
       <c r="S920" s="13"/>
     </row>
-    <row r="921" spans="2:19" ht="15.75" customHeight="1">
+    <row r="921" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B921" s="1"/>
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
@@ -19271,7 +19297,7 @@
       <c r="R921" s="13"/>
       <c r="S921" s="13"/>
     </row>
-    <row r="922" spans="2:19" ht="15.75" customHeight="1">
+    <row r="922" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B922" s="1"/>
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
@@ -19291,7 +19317,7 @@
       <c r="R922" s="13"/>
       <c r="S922" s="13"/>
     </row>
-    <row r="923" spans="2:19" ht="15.75" customHeight="1">
+    <row r="923" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B923" s="1"/>
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
@@ -19311,7 +19337,7 @@
       <c r="R923" s="13"/>
       <c r="S923" s="13"/>
     </row>
-    <row r="924" spans="2:19" ht="15.75" customHeight="1">
+    <row r="924" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B924" s="1"/>
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
@@ -19331,7 +19357,7 @@
       <c r="R924" s="13"/>
       <c r="S924" s="13"/>
     </row>
-    <row r="925" spans="2:19" ht="15.75" customHeight="1">
+    <row r="925" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B925" s="1"/>
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
@@ -19351,7 +19377,7 @@
       <c r="R925" s="13"/>
       <c r="S925" s="13"/>
     </row>
-    <row r="926" spans="2:19" ht="15.75" customHeight="1">
+    <row r="926" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B926" s="1"/>
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
@@ -19371,7 +19397,7 @@
       <c r="R926" s="13"/>
       <c r="S926" s="13"/>
     </row>
-    <row r="927" spans="2:19" ht="15.75" customHeight="1">
+    <row r="927" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B927" s="1"/>
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
@@ -19391,7 +19417,7 @@
       <c r="R927" s="13"/>
       <c r="S927" s="13"/>
     </row>
-    <row r="928" spans="2:19" ht="15.75" customHeight="1">
+    <row r="928" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B928" s="1"/>
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
@@ -19411,7 +19437,7 @@
       <c r="R928" s="13"/>
       <c r="S928" s="13"/>
     </row>
-    <row r="929" spans="2:19" ht="15.75" customHeight="1">
+    <row r="929" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B929" s="1"/>
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
@@ -19431,7 +19457,7 @@
       <c r="R929" s="13"/>
       <c r="S929" s="13"/>
     </row>
-    <row r="930" spans="2:19" ht="15.75" customHeight="1">
+    <row r="930" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B930" s="1"/>
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
@@ -19451,7 +19477,7 @@
       <c r="R930" s="13"/>
       <c r="S930" s="13"/>
     </row>
-    <row r="931" spans="2:19" ht="15.75" customHeight="1">
+    <row r="931" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B931" s="1"/>
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
@@ -19471,7 +19497,7 @@
       <c r="R931" s="13"/>
       <c r="S931" s="13"/>
     </row>
-    <row r="932" spans="2:19" ht="15.75" customHeight="1">
+    <row r="932" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B932" s="1"/>
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
@@ -19491,7 +19517,7 @@
       <c r="R932" s="13"/>
       <c r="S932" s="13"/>
     </row>
-    <row r="933" spans="2:19" ht="15.75" customHeight="1">
+    <row r="933" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B933" s="1"/>
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
@@ -19511,7 +19537,7 @@
       <c r="R933" s="13"/>
       <c r="S933" s="13"/>
     </row>
-    <row r="934" spans="2:19" ht="15.75" customHeight="1">
+    <row r="934" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B934" s="1"/>
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
@@ -19531,7 +19557,7 @@
       <c r="R934" s="13"/>
       <c r="S934" s="13"/>
     </row>
-    <row r="935" spans="2:19" ht="15.75" customHeight="1">
+    <row r="935" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B935" s="1"/>
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
@@ -19551,7 +19577,7 @@
       <c r="R935" s="13"/>
       <c r="S935" s="13"/>
     </row>
-    <row r="936" spans="2:19" ht="15.75" customHeight="1">
+    <row r="936" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B936" s="1"/>
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
@@ -19571,7 +19597,7 @@
       <c r="R936" s="13"/>
       <c r="S936" s="13"/>
     </row>
-    <row r="937" spans="2:19" ht="15.75" customHeight="1">
+    <row r="937" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B937" s="1"/>
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
@@ -19591,7 +19617,7 @@
       <c r="R937" s="13"/>
       <c r="S937" s="13"/>
     </row>
-    <row r="938" spans="2:19" ht="15.75" customHeight="1">
+    <row r="938" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B938" s="1"/>
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
@@ -19611,7 +19637,7 @@
       <c r="R938" s="13"/>
       <c r="S938" s="13"/>
     </row>
-    <row r="939" spans="2:19" ht="15.75" customHeight="1">
+    <row r="939" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B939" s="1"/>
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
@@ -19631,7 +19657,7 @@
       <c r="R939" s="13"/>
       <c r="S939" s="13"/>
     </row>
-    <row r="940" spans="2:19" ht="15.75" customHeight="1">
+    <row r="940" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B940" s="1"/>
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
@@ -19651,7 +19677,7 @@
       <c r="R940" s="13"/>
       <c r="S940" s="13"/>
     </row>
-    <row r="941" spans="2:19" ht="15.75" customHeight="1">
+    <row r="941" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B941" s="1"/>
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
@@ -19671,7 +19697,7 @@
       <c r="R941" s="13"/>
       <c r="S941" s="13"/>
     </row>
-    <row r="942" spans="2:19" ht="15.75" customHeight="1">
+    <row r="942" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B942" s="1"/>
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
@@ -19691,7 +19717,7 @@
       <c r="R942" s="13"/>
       <c r="S942" s="13"/>
     </row>
-    <row r="943" spans="2:19" ht="15.75" customHeight="1">
+    <row r="943" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B943" s="1"/>
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
@@ -19711,7 +19737,7 @@
       <c r="R943" s="13"/>
       <c r="S943" s="13"/>
     </row>
-    <row r="944" spans="2:19" ht="15.75" customHeight="1">
+    <row r="944" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B944" s="1"/>
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
@@ -19731,7 +19757,7 @@
       <c r="R944" s="13"/>
       <c r="S944" s="13"/>
     </row>
-    <row r="945" spans="2:19" ht="15.75" customHeight="1">
+    <row r="945" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B945" s="1"/>
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
@@ -19751,7 +19777,7 @@
       <c r="R945" s="13"/>
       <c r="S945" s="13"/>
     </row>
-    <row r="946" spans="2:19" ht="15.75" customHeight="1">
+    <row r="946" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B946" s="1"/>
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
@@ -19771,7 +19797,7 @@
       <c r="R946" s="13"/>
       <c r="S946" s="13"/>
     </row>
-    <row r="947" spans="2:19" ht="15.75" customHeight="1">
+    <row r="947" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B947" s="1"/>
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
@@ -19791,7 +19817,7 @@
       <c r="R947" s="13"/>
       <c r="S947" s="13"/>
     </row>
-    <row r="948" spans="2:19" ht="15.75" customHeight="1">
+    <row r="948" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B948" s="1"/>
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
@@ -19811,7 +19837,7 @@
       <c r="R948" s="13"/>
       <c r="S948" s="13"/>
     </row>
-    <row r="949" spans="2:19" ht="15.75" customHeight="1">
+    <row r="949" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B949" s="1"/>
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
@@ -19831,7 +19857,7 @@
       <c r="R949" s="13"/>
       <c r="S949" s="13"/>
     </row>
-    <row r="950" spans="2:19" ht="15.75" customHeight="1">
+    <row r="950" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B950" s="1"/>
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
@@ -19851,7 +19877,7 @@
       <c r="R950" s="13"/>
       <c r="S950" s="13"/>
     </row>
-    <row r="951" spans="2:19" ht="15.75" customHeight="1">
+    <row r="951" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B951" s="1"/>
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
@@ -19871,7 +19897,7 @@
       <c r="R951" s="13"/>
       <c r="S951" s="13"/>
     </row>
-    <row r="952" spans="2:19" ht="15.75" customHeight="1">
+    <row r="952" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B952" s="1"/>
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
@@ -19891,7 +19917,7 @@
       <c r="R952" s="13"/>
       <c r="S952" s="13"/>
     </row>
-    <row r="953" spans="2:19" ht="15.75" customHeight="1">
+    <row r="953" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B953" s="1"/>
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
@@ -19911,7 +19937,7 @@
       <c r="R953" s="13"/>
       <c r="S953" s="13"/>
     </row>
-    <row r="954" spans="2:19" ht="15.75" customHeight="1">
+    <row r="954" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B954" s="1"/>
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
@@ -19931,7 +19957,7 @@
       <c r="R954" s="13"/>
       <c r="S954" s="13"/>
     </row>
-    <row r="955" spans="2:19" ht="15.75" customHeight="1">
+    <row r="955" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B955" s="1"/>
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
@@ -19951,7 +19977,7 @@
       <c r="R955" s="13"/>
       <c r="S955" s="13"/>
     </row>
-    <row r="956" spans="2:19" ht="15.75" customHeight="1">
+    <row r="956" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B956" s="1"/>
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
@@ -19971,7 +19997,7 @@
       <c r="R956" s="13"/>
       <c r="S956" s="13"/>
     </row>
-    <row r="957" spans="2:19" ht="15.75" customHeight="1">
+    <row r="957" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B957" s="1"/>
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
@@ -19991,7 +20017,7 @@
       <c r="R957" s="13"/>
       <c r="S957" s="13"/>
     </row>
-    <row r="958" spans="2:19" ht="15.75" customHeight="1">
+    <row r="958" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B958" s="1"/>
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
@@ -20011,7 +20037,7 @@
       <c r="R958" s="13"/>
       <c r="S958" s="13"/>
     </row>
-    <row r="959" spans="2:19" ht="15.75" customHeight="1">
+    <row r="959" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B959" s="1"/>
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
@@ -20031,7 +20057,7 @@
       <c r="R959" s="13"/>
       <c r="S959" s="13"/>
     </row>
-    <row r="960" spans="2:19" ht="15.75" customHeight="1">
+    <row r="960" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B960" s="1"/>
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
@@ -20051,7 +20077,7 @@
       <c r="R960" s="13"/>
       <c r="S960" s="13"/>
     </row>
-    <row r="961" spans="2:19" ht="15.75" customHeight="1">
+    <row r="961" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B961" s="1"/>
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
@@ -20071,7 +20097,7 @@
       <c r="R961" s="13"/>
       <c r="S961" s="13"/>
     </row>
-    <row r="962" spans="2:19" ht="15.75" customHeight="1">
+    <row r="962" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B962" s="1"/>
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
@@ -20091,7 +20117,7 @@
       <c r="R962" s="13"/>
       <c r="S962" s="13"/>
     </row>
-    <row r="963" spans="2:19" ht="15.75" customHeight="1">
+    <row r="963" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B963" s="1"/>
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
@@ -20111,7 +20137,7 @@
       <c r="R963" s="13"/>
       <c r="S963" s="13"/>
     </row>
-    <row r="964" spans="2:19" ht="15.75" customHeight="1">
+    <row r="964" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B964" s="1"/>
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
@@ -20131,7 +20157,7 @@
       <c r="R964" s="13"/>
       <c r="S964" s="13"/>
     </row>
-    <row r="965" spans="2:19" ht="15.75" customHeight="1">
+    <row r="965" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B965" s="1"/>
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
@@ -20151,7 +20177,7 @@
       <c r="R965" s="13"/>
       <c r="S965" s="13"/>
     </row>
-    <row r="966" spans="2:19" ht="15.75" customHeight="1">
+    <row r="966" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B966" s="1"/>
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
@@ -20171,7 +20197,7 @@
       <c r="R966" s="13"/>
       <c r="S966" s="13"/>
     </row>
-    <row r="967" spans="2:19" ht="15.75" customHeight="1">
+    <row r="967" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B967" s="1"/>
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
@@ -20191,7 +20217,7 @@
       <c r="R967" s="13"/>
       <c r="S967" s="13"/>
     </row>
-    <row r="968" spans="2:19" ht="15.75" customHeight="1">
+    <row r="968" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B968" s="1"/>
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
@@ -20211,7 +20237,7 @@
       <c r="R968" s="13"/>
       <c r="S968" s="13"/>
     </row>
-    <row r="969" spans="2:19" ht="15.75" customHeight="1">
+    <row r="969" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B969" s="1"/>
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
@@ -20231,7 +20257,7 @@
       <c r="R969" s="13"/>
       <c r="S969" s="13"/>
     </row>
-    <row r="970" spans="2:19" ht="15.75" customHeight="1">
+    <row r="970" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B970" s="1"/>
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
@@ -20251,7 +20277,7 @@
       <c r="R970" s="13"/>
       <c r="S970" s="13"/>
     </row>
-    <row r="971" spans="2:19" ht="15.75" customHeight="1">
+    <row r="971" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B971" s="1"/>
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
@@ -20271,7 +20297,7 @@
       <c r="R971" s="13"/>
       <c r="S971" s="13"/>
     </row>
-    <row r="972" spans="2:19" ht="15.75" customHeight="1">
+    <row r="972" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B972" s="1"/>
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
@@ -20291,7 +20317,7 @@
       <c r="R972" s="13"/>
       <c r="S972" s="13"/>
     </row>
-    <row r="973" spans="2:19" ht="15.75" customHeight="1">
+    <row r="973" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B973" s="1"/>
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
@@ -20311,7 +20337,7 @@
       <c r="R973" s="13"/>
       <c r="S973" s="13"/>
     </row>
-    <row r="974" spans="2:19" ht="15.75" customHeight="1">
+    <row r="974" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B974" s="1"/>
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
@@ -20331,7 +20357,7 @@
       <c r="R974" s="13"/>
       <c r="S974" s="13"/>
     </row>
-    <row r="975" spans="2:19" ht="15.75" customHeight="1">
+    <row r="975" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B975" s="1"/>
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
@@ -20351,7 +20377,7 @@
       <c r="R975" s="13"/>
       <c r="S975" s="13"/>
     </row>
-    <row r="976" spans="2:19" ht="15.75" customHeight="1">
+    <row r="976" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B976" s="1"/>
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
@@ -20371,7 +20397,7 @@
       <c r="R976" s="13"/>
       <c r="S976" s="13"/>
     </row>
-    <row r="977" spans="2:19" ht="15.75" customHeight="1">
+    <row r="977" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B977" s="1"/>
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
@@ -20391,7 +20417,7 @@
       <c r="R977" s="13"/>
       <c r="S977" s="13"/>
     </row>
-    <row r="978" spans="2:19" ht="15.75" customHeight="1">
+    <row r="978" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B978" s="1"/>
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
@@ -20411,7 +20437,7 @@
       <c r="R978" s="13"/>
       <c r="S978" s="13"/>
     </row>
-    <row r="979" spans="2:19" ht="15.75" customHeight="1">
+    <row r="979" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B979" s="1"/>
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
@@ -20431,7 +20457,7 @@
       <c r="R979" s="13"/>
       <c r="S979" s="13"/>
     </row>
-    <row r="980" spans="2:19" ht="15.75" customHeight="1">
+    <row r="980" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B980" s="1"/>
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
@@ -20451,7 +20477,7 @@
       <c r="R980" s="13"/>
       <c r="S980" s="13"/>
     </row>
-    <row r="981" spans="2:19" ht="15.75" customHeight="1">
+    <row r="981" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B981" s="1"/>
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
@@ -20471,7 +20497,7 @@
       <c r="R981" s="13"/>
       <c r="S981" s="13"/>
     </row>
-    <row r="982" spans="2:19" ht="15.75" customHeight="1">
+    <row r="982" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B982" s="1"/>
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
@@ -20491,7 +20517,7 @@
       <c r="R982" s="13"/>
       <c r="S982" s="13"/>
     </row>
-    <row r="983" spans="2:19" ht="15.75" customHeight="1">
+    <row r="983" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B983" s="1"/>
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
@@ -20511,7 +20537,7 @@
       <c r="R983" s="13"/>
       <c r="S983" s="13"/>
     </row>
-    <row r="984" spans="2:19" ht="15.75" customHeight="1">
+    <row r="984" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B984" s="1"/>
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
@@ -20531,7 +20557,7 @@
       <c r="R984" s="13"/>
       <c r="S984" s="13"/>
     </row>
-    <row r="985" spans="2:19" ht="15.75" customHeight="1">
+    <row r="985" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B985" s="1"/>
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
@@ -20551,7 +20577,7 @@
       <c r="R985" s="13"/>
       <c r="S985" s="13"/>
     </row>
-    <row r="986" spans="2:19" ht="15.75" customHeight="1">
+    <row r="986" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B986" s="1"/>
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
@@ -20571,7 +20597,7 @@
       <c r="R986" s="13"/>
       <c r="S986" s="13"/>
     </row>
-    <row r="987" spans="2:19" ht="15.75" customHeight="1">
+    <row r="987" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B987" s="1"/>
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
@@ -20591,7 +20617,7 @@
       <c r="R987" s="13"/>
       <c r="S987" s="13"/>
     </row>
-    <row r="988" spans="2:19" ht="15.75" customHeight="1">
+    <row r="988" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B988" s="1"/>
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
@@ -20611,7 +20637,7 @@
       <c r="R988" s="13"/>
       <c r="S988" s="13"/>
     </row>
-    <row r="989" spans="2:19" ht="15.75" customHeight="1">
+    <row r="989" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B989" s="1"/>
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
@@ -20631,7 +20657,7 @@
       <c r="R989" s="13"/>
       <c r="S989" s="13"/>
     </row>
-    <row r="990" spans="2:19" ht="15.75" customHeight="1">
+    <row r="990" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B990" s="1"/>
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
@@ -20651,7 +20677,7 @@
       <c r="R990" s="13"/>
       <c r="S990" s="13"/>
     </row>
-    <row r="991" spans="2:19" ht="15.75" customHeight="1">
+    <row r="991" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B991" s="1"/>
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
@@ -20671,7 +20697,7 @@
       <c r="R991" s="13"/>
       <c r="S991" s="13"/>
     </row>
-    <row r="992" spans="2:19" ht="15.75" customHeight="1">
+    <row r="992" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B992" s="1"/>
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
@@ -20691,7 +20717,7 @@
       <c r="R992" s="13"/>
       <c r="S992" s="13"/>
     </row>
-    <row r="993" spans="2:19" ht="15.75" customHeight="1">
+    <row r="993" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B993" s="1"/>
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
@@ -20711,7 +20737,7 @@
       <c r="R993" s="13"/>
       <c r="S993" s="13"/>
     </row>
-    <row r="994" spans="2:19" ht="15.75" customHeight="1">
+    <row r="994" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B994" s="1"/>
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
@@ -20731,7 +20757,7 @@
       <c r="R994" s="13"/>
       <c r="S994" s="13"/>
     </row>
-    <row r="995" spans="2:19" ht="15.75" customHeight="1">
+    <row r="995" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B995" s="1"/>
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
@@ -20751,7 +20777,7 @@
       <c r="R995" s="13"/>
       <c r="S995" s="13"/>
     </row>
-    <row r="996" spans="2:19" ht="15.75" customHeight="1">
+    <row r="996" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B996" s="1"/>
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
@@ -20771,7 +20797,7 @@
       <c r="R996" s="13"/>
       <c r="S996" s="13"/>
     </row>
-    <row r="997" spans="2:19" ht="15.75" customHeight="1">
+    <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B997" s="1"/>
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
@@ -20791,7 +20817,7 @@
       <c r="R997" s="13"/>
       <c r="S997" s="13"/>
     </row>
-    <row r="998" spans="2:19" ht="15.75" customHeight="1">
+    <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B998" s="1"/>
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
@@ -20811,7 +20837,7 @@
       <c r="R998" s="13"/>
       <c r="S998" s="13"/>
     </row>
-    <row r="999" spans="2:19" ht="15.75" customHeight="1">
+    <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B999" s="1"/>
       <c r="C999" s="11"/>
       <c r="D999" s="11"/>
@@ -20831,7 +20857,7 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
-    <row r="1000" spans="2:19" ht="15.75" customHeight="1">
+    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1000" s="1"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="11"/>

--- a/BangKeHoach-DoAnCuoiKyCTDL (1).xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL (1).xlsx
@@ -63,9 +63,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Tìm hiểu về đồ họa trong C# và đề ra mục tiêu về giao diện chương trình.</t>
-  </si>
-  <si>
     <t>Tìm hiểu về những yêu cầu của người dùng đối với chương trình cần tạo ra.</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Nhìn nhận những ưu nhược điểm của chương trình đã tạo ra và đề ra hướng khắc phục cho những đồ án sau này.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về đồ họa trong C++ và đề ra mục tiêu về giao diện chương trình.</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
@@ -879,7 +879,7 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -905,7 +905,7 @@
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>12</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20" t="s">
@@ -1031,7 +1031,7 @@
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>12</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
@@ -1104,10 +1104,10 @@
         <v>43753</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -1138,10 +1138,10 @@
         <v>43753</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>12</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="20" spans="1:23" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>12</v>
